--- a/PRT585_Group _7_TimeSheet.xlsx
+++ b/PRT585_Group _7_TimeSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mify\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabili/PRT585_S2023_Group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC173F9-744D-4CA6-9C05-0DD38220C1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05930DD0-8B5D-6F4B-9146-5BDF1E701B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32800" windowHeight="19020" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 7 Timesheet" sheetId="15" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="62">
   <si>
     <t>Week</t>
   </si>
@@ -238,6 +237,9 @@
   </si>
   <si>
     <t>s358037</t>
+  </si>
+  <si>
+    <t>1. Learn Github from Youtube</t>
   </si>
 </sst>
 </file>
@@ -413,13 +415,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,13 +439,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,21 +761,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD2CA45-38D9-4271-9CE5-FD0B25AF8966}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView topLeftCell="C79" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="63.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,27 +795,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -823,85 +825,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -909,85 +913,85 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -995,85 +999,85 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1081,85 +1085,85 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1167,85 +1171,85 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1253,85 +1257,85 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="B51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1339,85 +1343,85 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -1425,85 +1429,85 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="10" t="s">
+      <c r="B67" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -1511,85 +1515,85 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="9"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="9"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -1597,85 +1601,85 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="9"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="9"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="9"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="9"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
       <c r="E79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
       <c r="E80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7" t="s">
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="10" t="s">
+      <c r="B83" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -1683,85 +1687,85 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="9"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="8"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="9"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="8"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="9"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="8"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="9"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="10"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="13"/>
-    </row>
-    <row r="91" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
+      <c r="B90" s="5"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="B91" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -1769,51 +1773,51 @@
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="9"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="8"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="9"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="8"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="9"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
       <c r="E94" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="8"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="9"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
       <c r="E95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="10"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
       <c r="E96" s="3" t="s">
         <v>15</v>
       </c>
@@ -1821,11 +1825,60 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A75:A80"/>
@@ -1838,60 +1891,11 @@
     <mergeCell ref="B83:B88"/>
     <mergeCell ref="C83:C88"/>
     <mergeCell ref="D83:D88"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1902,21 +1906,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D9E5DF-CFA1-47F0-8D7B-29D019DDEA37}">
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="51.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1936,27 +1940,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1966,47 +1970,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2014,47 +2018,47 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2062,47 +2066,47 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2110,47 +2114,47 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2158,57 +2162,57 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2216,47 +2220,47 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2264,47 +2268,47 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="B39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2312,47 +2316,47 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2360,47 +2364,47 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2408,57 +2412,57 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="10" t="s">
+      <c r="B55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2466,47 +2470,47 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="10" t="s">
+      <c r="B60" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2514,47 +2518,47 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2562,47 +2566,47 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="10" t="s">
+      <c r="B70" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2610,47 +2614,47 @@
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="9"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -2658,57 +2662,57 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="9"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="9"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="B81" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -2716,47 +2720,47 @@
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="8"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="9"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
       <c r="E82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="10"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="10" t="s">
+      <c r="B86" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -2764,47 +2768,47 @@
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="8"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="9"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="8"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="9"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
       <c r="E89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="B91" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2812,47 +2816,47 @@
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="9"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="8"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="9"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="9"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="10"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
       <c r="E94" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="10" t="s">
+      <c r="B96" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -2860,47 +2864,47 @@
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="8"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="9"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
       <c r="E97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="8"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="9"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
       <c r="E98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="9"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="10"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
       <c r="E99" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="10" t="s">
+      <c r="B101" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -2908,57 +2912,57 @@
       </c>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="8"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="9"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
       <c r="E102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="8"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="9"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="10"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
       <c r="E104" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F104" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+    </row>
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="10" t="s">
+      <c r="B107" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -2966,47 +2970,47 @@
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="8"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
+    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="9"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
       <c r="E108" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="8"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="9"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
       <c r="E109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="10"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
       <c r="E110" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F110" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="7" t="s">
+    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="10" t="s">
+      <c r="B112" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3014,47 +3018,47 @@
       </c>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="8"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="9"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
       <c r="E113" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="8"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="9"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="9"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="10"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
       <c r="E115" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="10" t="s">
+      <c r="B117" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3062,47 +3066,47 @@
       </c>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="8"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="9"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
       <c r="E118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="8"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="9"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
       <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="9"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="10"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
       <c r="E120" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F120" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="7" t="s">
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="10" t="s">
+      <c r="B122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3110,47 +3114,47 @@
       </c>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="8"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
+    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="9"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
       <c r="E123" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="8"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
+    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="9"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="9"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
+    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="10"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
       <c r="E125" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F125" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="7" t="s">
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="10" t="s">
+      <c r="B127" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3158,57 +3162,57 @@
       </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="8"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
+    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="9"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
       <c r="E128" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="8"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
+    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="9"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="9"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
+    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="10"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
       <c r="E130" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F130" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="7" t="s">
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+    </row>
+    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="10" t="s">
+      <c r="B133" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3216,47 +3220,47 @@
       </c>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="8"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
+    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="9"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
       <c r="E134" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="8"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
+    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="9"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
       <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="9"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
+    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="10"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
       <c r="E136" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F136" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="7" t="s">
+    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="10" t="s">
+      <c r="B138" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -3264,47 +3268,47 @@
       </c>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="8"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
+    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="9"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
       <c r="E139" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="8"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
+    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="9"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="9"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
+    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="10"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
       <c r="E141" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F141" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="7" t="s">
+    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="10" t="s">
+      <c r="B143" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3312,47 +3316,47 @@
       </c>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="8"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
+    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="9"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
       <c r="E144" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="8"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
+    <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="9"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
       <c r="E145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="9"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
+    <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="10"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
       <c r="E146" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F146" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="7" t="s">
+    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="10" t="s">
+      <c r="B148" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D148" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3360,47 +3364,47 @@
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="8"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
+    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="9"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
       <c r="E149" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="8"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
+    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="9"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
       <c r="E150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="9"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
+    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="10"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
       <c r="E151" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F151" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="7" t="s">
+    <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B153" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="10" t="s">
+      <c r="B153" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3408,57 +3412,57 @@
       </c>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="8"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
+    <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="9"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
       <c r="E154" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="8"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
+    <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="9"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="9"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
+    <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="10"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
       <c r="E156" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="7" t="s">
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+    </row>
+    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B159" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="10" t="s">
+      <c r="B159" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -3466,47 +3470,47 @@
       </c>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="8"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
+    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="9"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
       <c r="E160" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="8"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
+    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="9"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
       <c r="E161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="9"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
+    <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="10"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
       <c r="E162" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F162" s="3"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="7" t="s">
+    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="10" t="s">
+      <c r="B164" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -3514,47 +3518,47 @@
       </c>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="8"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
+    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="9"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
       <c r="E165" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="8"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
+    <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="9"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
       <c r="E166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="9"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
+    <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="10"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
       <c r="E167" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F167" s="3"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="7" t="s">
+    <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B169" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="10" t="s">
+      <c r="B169" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D169" s="10" t="s">
+      <c r="D169" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -3562,47 +3566,47 @@
       </c>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="8"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
+    <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="9"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
       <c r="E170" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="8"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
+    <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="9"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
       <c r="E171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="9"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
+    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="10"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
       <c r="E172" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F172" s="3"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="7" t="s">
+    <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B174" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="10" t="s">
+      <c r="B174" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D174" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -3610,47 +3614,47 @@
       </c>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="8"/>
-      <c r="B175" s="10"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
+    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="9"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
       <c r="E175" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="8"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
+    <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="9"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
       <c r="E176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="9"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
+    <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="10"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
       <c r="E177" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F177" s="3"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="7" t="s">
+    <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B179" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="10" t="s">
+      <c r="B179" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D179" s="10" t="s">
+      <c r="D179" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -3658,57 +3662,57 @@
       </c>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="8"/>
-      <c r="B180" s="10"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
+    <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="9"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
       <c r="E180" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="8"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
+    <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="9"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
       <c r="E181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="9"/>
-      <c r="B182" s="10"/>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
+    <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="10"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
       <c r="E182" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F182" s="3"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="7" t="s">
+      <c r="B184" s="13"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+    </row>
+    <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A185" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="10" t="s">
+      <c r="B185" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D185" s="10" t="s">
+      <c r="D185" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -3716,47 +3720,47 @@
       </c>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="8"/>
-      <c r="B186" s="10"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
+    <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A186" s="9"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
       <c r="E186" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="8"/>
-      <c r="B187" s="10"/>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
+    <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="9"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
       <c r="E187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="9"/>
-      <c r="B188" s="10"/>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
+    <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="10"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
       <c r="E188" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F188" s="3"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="7" t="s">
+    <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B190" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="10" t="s">
+      <c r="B190" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="D190" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -3764,47 +3768,47 @@
       </c>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="8"/>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
+    <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="9"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
       <c r="E191" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="8"/>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
+    <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="9"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
       <c r="E192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="9"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
+    <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="10"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
       <c r="E193" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F193" s="3"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="7" t="s">
+    <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A195" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="10" t="s">
+      <c r="B195" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="D195" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -3812,47 +3816,47 @@
       </c>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="8"/>
-      <c r="B196" s="10"/>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
+    <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="9"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
       <c r="E196" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="8"/>
-      <c r="B197" s="10"/>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
+    <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="9"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
       <c r="E197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="9"/>
-      <c r="B198" s="10"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
+    <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="10"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
       <c r="E198" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F198" s="3"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="7" t="s">
+    <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A200" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B200" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="10" t="s">
+      <c r="B200" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D200" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -3860,47 +3864,47 @@
       </c>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="8"/>
-      <c r="B201" s="10"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
+    <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" s="9"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
       <c r="E201" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="8"/>
-      <c r="B202" s="10"/>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
+    <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A202" s="9"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
       <c r="E202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="9"/>
-      <c r="B203" s="10"/>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
+    <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="10"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
       <c r="E203" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F203" s="3"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="7" t="s">
+    <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B205" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="10" t="s">
+      <c r="B205" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D205" s="10" t="s">
+      <c r="D205" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -3908,57 +3912,57 @@
       </c>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="8"/>
-      <c r="B206" s="10"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
+    <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A206" s="9"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
       <c r="E206" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="8"/>
-      <c r="B207" s="10"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
+    <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="9"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
       <c r="E207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="9"/>
-      <c r="B208" s="10"/>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
+    <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="10"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
       <c r="E208" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F208" s="3"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="s">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-      <c r="F210" s="6"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="7" t="s">
+      <c r="B210" s="13"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
+    </row>
+    <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B211" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="10" t="s">
+      <c r="B211" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D211" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -3966,47 +3970,47 @@
       </c>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="8"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
+    <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A212" s="9"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
       <c r="E212" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="8"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10"/>
+    <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="9"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
       <c r="E213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="9"/>
-      <c r="B214" s="10"/>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
+    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="10"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
       <c r="E214" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F214" s="3"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="7" t="s">
+    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B216" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="10" t="s">
+      <c r="B216" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D216" s="10" t="s">
+      <c r="D216" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -4014,47 +4018,47 @@
       </c>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="8"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
+    <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="9"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
       <c r="E217" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="8"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
+    <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="9"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
       <c r="E218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="9"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
+    <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="10"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
       <c r="E219" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F219" s="3"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="7" t="s">
+    <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A221" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B221" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="10" t="s">
+      <c r="B221" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D221" s="10" t="s">
+      <c r="D221" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -4062,47 +4066,47 @@
       </c>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="8"/>
-      <c r="B222" s="10"/>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
+    <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="9"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
       <c r="E222" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="8"/>
-      <c r="B223" s="10"/>
-      <c r="C223" s="10"/>
-      <c r="D223" s="10"/>
+    <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A223" s="9"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
       <c r="E223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="9"/>
-      <c r="B224" s="10"/>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10"/>
+    <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A224" s="10"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
       <c r="E224" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F224" s="3"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="7" t="s">
+    <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A226" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B226" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="10" t="s">
+      <c r="B226" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D226" s="10" t="s">
+      <c r="D226" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -4110,47 +4114,47 @@
       </c>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="8"/>
-      <c r="B227" s="10"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
+    <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A227" s="9"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
       <c r="E227" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="8"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
+    <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="9"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
       <c r="E228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="9"/>
-      <c r="B229" s="10"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
+    <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A229" s="10"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
       <c r="E229" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F229" s="3"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="7" t="s">
+    <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B231" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="10" t="s">
+      <c r="B231" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D231" s="10" t="s">
+      <c r="D231" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -4158,57 +4162,57 @@
       </c>
       <c r="F231" s="2"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="8"/>
-      <c r="B232" s="10"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="10"/>
+    <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="9"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
       <c r="E232" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="8"/>
-      <c r="B233" s="10"/>
-      <c r="C233" s="10"/>
-      <c r="D233" s="10"/>
+    <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="9"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
       <c r="E233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F233" s="2"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="9"/>
-      <c r="B234" s="10"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
+    <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="10"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
       <c r="E234" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F234" s="3"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="5" t="s">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
-      <c r="F236" s="6"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="7" t="s">
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
+    </row>
+    <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B237" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="10" t="s">
+      <c r="B237" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D237" s="10" t="s">
+      <c r="D237" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -4216,47 +4220,47 @@
       </c>
       <c r="F237" s="2"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="8"/>
-      <c r="B238" s="10"/>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10"/>
+    <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A238" s="9"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
       <c r="E238" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="8"/>
-      <c r="B239" s="10"/>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
+    <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A239" s="9"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
       <c r="E239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F239" s="2"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="9"/>
-      <c r="B240" s="10"/>
-      <c r="C240" s="10"/>
-      <c r="D240" s="10"/>
+    <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A240" s="10"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
       <c r="E240" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F240" s="3"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="7" t="s">
+    <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B242" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="10" t="s">
+      <c r="B242" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D242" s="10" t="s">
+      <c r="D242" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -4264,47 +4268,47 @@
       </c>
       <c r="F242" s="2"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="8"/>
-      <c r="B243" s="10"/>
-      <c r="C243" s="10"/>
-      <c r="D243" s="10"/>
+    <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="9"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
       <c r="E243" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="8"/>
-      <c r="B244" s="10"/>
-      <c r="C244" s="10"/>
-      <c r="D244" s="10"/>
+    <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="9"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
       <c r="E244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F244" s="2"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="9"/>
-      <c r="B245" s="10"/>
-      <c r="C245" s="10"/>
-      <c r="D245" s="10"/>
+    <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A245" s="10"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
       <c r="E245" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F245" s="3"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="7" t="s">
+    <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A247" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B247" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="10" t="s">
+      <c r="B247" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D247" s="10" t="s">
+      <c r="D247" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -4312,47 +4316,47 @@
       </c>
       <c r="F247" s="2"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="8"/>
-      <c r="B248" s="10"/>
-      <c r="C248" s="10"/>
-      <c r="D248" s="10"/>
+    <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A248" s="9"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="11"/>
       <c r="E248" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="8"/>
-      <c r="B249" s="10"/>
-      <c r="C249" s="10"/>
-      <c r="D249" s="10"/>
+    <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A249" s="9"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
       <c r="E249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F249" s="2"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" s="9"/>
-      <c r="B250" s="10"/>
-      <c r="C250" s="10"/>
-      <c r="D250" s="10"/>
+    <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A250" s="10"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
       <c r="E250" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F250" s="3"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="7" t="s">
+    <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B252" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="10" t="s">
+      <c r="B252" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D252" s="10" t="s">
+      <c r="D252" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -4360,47 +4364,47 @@
       </c>
       <c r="F252" s="2"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="8"/>
-      <c r="B253" s="10"/>
-      <c r="C253" s="10"/>
-      <c r="D253" s="10"/>
+    <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A253" s="9"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
       <c r="E253" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="8"/>
-      <c r="B254" s="10"/>
-      <c r="C254" s="10"/>
-      <c r="D254" s="10"/>
+    <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="9"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="11"/>
+      <c r="D254" s="11"/>
       <c r="E254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F254" s="2"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="9"/>
-      <c r="B255" s="10"/>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10"/>
+    <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="10"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="11"/>
+      <c r="D255" s="11"/>
       <c r="E255" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F255" s="3"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="7" t="s">
+    <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B257" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="10" t="s">
+      <c r="B257" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D257" s="10" t="s">
+      <c r="D257" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -4408,57 +4412,57 @@
       </c>
       <c r="F257" s="2"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="8"/>
-      <c r="B258" s="10"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="10"/>
+    <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="9"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
       <c r="E258" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="8"/>
-      <c r="B259" s="10"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="10"/>
+    <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="9"/>
+      <c r="B259" s="11"/>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
       <c r="E259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F259" s="2"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="9"/>
-      <c r="B260" s="10"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
+    <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="10"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
       <c r="E260" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F260" s="3"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="5" t="s">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="6"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="7" t="s">
+      <c r="B262" s="13"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
+    </row>
+    <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B263" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="10" t="s">
+      <c r="B263" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D263" s="10" t="s">
+      <c r="D263" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -4466,47 +4470,47 @@
       </c>
       <c r="F263" s="2"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" s="8"/>
-      <c r="B264" s="10"/>
-      <c r="C264" s="10"/>
-      <c r="D264" s="10"/>
+    <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A264" s="9"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
       <c r="E264" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="8"/>
-      <c r="B265" s="10"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="10"/>
+    <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="9"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="11"/>
+      <c r="D265" s="11"/>
       <c r="E265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F265" s="2"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="9"/>
-      <c r="B266" s="10"/>
-      <c r="C266" s="10"/>
-      <c r="D266" s="10"/>
+    <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A266" s="10"/>
+      <c r="B266" s="11"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
       <c r="E266" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F266" s="3"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="7" t="s">
+    <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A268" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B268" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C268" s="10" t="s">
+      <c r="B268" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D268" s="10" t="s">
+      <c r="D268" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -4514,47 +4518,47 @@
       </c>
       <c r="F268" s="2"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="8"/>
-      <c r="B269" s="10"/>
-      <c r="C269" s="10"/>
-      <c r="D269" s="10"/>
+    <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A269" s="9"/>
+      <c r="B269" s="11"/>
+      <c r="C269" s="11"/>
+      <c r="D269" s="11"/>
       <c r="E269" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="8"/>
-      <c r="B270" s="10"/>
-      <c r="C270" s="10"/>
-      <c r="D270" s="10"/>
+    <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A270" s="9"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
       <c r="E270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F270" s="2"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="9"/>
-      <c r="B271" s="10"/>
-      <c r="C271" s="10"/>
-      <c r="D271" s="10"/>
+    <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A271" s="10"/>
+      <c r="B271" s="11"/>
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
       <c r="E271" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F271" s="3"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="7" t="s">
+    <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A273" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B273" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C273" s="10" t="s">
+      <c r="B273" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D273" s="10" t="s">
+      <c r="D273" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -4562,47 +4566,47 @@
       </c>
       <c r="F273" s="2"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="8"/>
-      <c r="B274" s="10"/>
-      <c r="C274" s="10"/>
-      <c r="D274" s="10"/>
+    <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A274" s="9"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
       <c r="E274" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="8"/>
-      <c r="B275" s="10"/>
-      <c r="C275" s="10"/>
-      <c r="D275" s="10"/>
+    <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="9"/>
+      <c r="B275" s="11"/>
+      <c r="C275" s="11"/>
+      <c r="D275" s="11"/>
       <c r="E275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F275" s="2"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="9"/>
-      <c r="B276" s="10"/>
-      <c r="C276" s="10"/>
-      <c r="D276" s="10"/>
+    <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A276" s="10"/>
+      <c r="B276" s="11"/>
+      <c r="C276" s="11"/>
+      <c r="D276" s="11"/>
       <c r="E276" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F276" s="3"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="7" t="s">
+    <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A278" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B278" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C278" s="10" t="s">
+      <c r="B278" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D278" s="10" t="s">
+      <c r="D278" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -4610,47 +4614,47 @@
       </c>
       <c r="F278" s="2"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="8"/>
-      <c r="B279" s="10"/>
-      <c r="C279" s="10"/>
-      <c r="D279" s="10"/>
+    <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A279" s="9"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
       <c r="E279" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="8"/>
-      <c r="B280" s="10"/>
-      <c r="C280" s="10"/>
-      <c r="D280" s="10"/>
+    <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A280" s="9"/>
+      <c r="B280" s="11"/>
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
       <c r="E280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F280" s="2"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="9"/>
-      <c r="B281" s="10"/>
-      <c r="C281" s="10"/>
-      <c r="D281" s="10"/>
+    <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A281" s="10"/>
+      <c r="B281" s="11"/>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
       <c r="E281" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F281" s="3"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="7" t="s">
+    <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A283" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B283" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C283" s="10" t="s">
+      <c r="B283" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D283" s="10" t="s">
+      <c r="D283" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -4658,57 +4662,57 @@
       </c>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="8"/>
-      <c r="B284" s="10"/>
-      <c r="C284" s="10"/>
-      <c r="D284" s="10"/>
+    <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A284" s="9"/>
+      <c r="B284" s="11"/>
+      <c r="C284" s="11"/>
+      <c r="D284" s="11"/>
       <c r="E284" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F284" s="3"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="8"/>
-      <c r="B285" s="10"/>
-      <c r="C285" s="10"/>
-      <c r="D285" s="10"/>
+    <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A285" s="9"/>
+      <c r="B285" s="11"/>
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
       <c r="E285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F285" s="2"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="9"/>
-      <c r="B286" s="10"/>
-      <c r="C286" s="10"/>
-      <c r="D286" s="10"/>
+    <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A286" s="10"/>
+      <c r="B286" s="11"/>
+      <c r="C286" s="11"/>
+      <c r="D286" s="11"/>
       <c r="E286" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F286" s="3"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="5" t="s">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B288" s="6"/>
-      <c r="C288" s="6"/>
-      <c r="D288" s="6"/>
-      <c r="E288" s="6"/>
-      <c r="F288" s="6"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="7" t="s">
+      <c r="B288" s="13"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13"/>
+    </row>
+    <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A289" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289" s="10" t="s">
+      <c r="B289" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D289" s="10" t="s">
+      <c r="D289" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E289" s="2" t="s">
@@ -4716,47 +4720,47 @@
       </c>
       <c r="F289" s="2"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="8"/>
-      <c r="B290" s="10"/>
-      <c r="C290" s="10"/>
-      <c r="D290" s="10"/>
+    <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" s="9"/>
+      <c r="B290" s="11"/>
+      <c r="C290" s="11"/>
+      <c r="D290" s="11"/>
       <c r="E290" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F290" s="3"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="8"/>
-      <c r="B291" s="10"/>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10"/>
+    <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A291" s="9"/>
+      <c r="B291" s="11"/>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
       <c r="E291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F291" s="2"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="9"/>
-      <c r="B292" s="10"/>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
+    <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A292" s="10"/>
+      <c r="B292" s="11"/>
+      <c r="C292" s="11"/>
+      <c r="D292" s="11"/>
       <c r="E292" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F292" s="3"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="7" t="s">
+    <row r="294" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A294" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B294" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="10" t="s">
+      <c r="B294" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D294" s="10" t="s">
+      <c r="D294" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E294" s="2" t="s">
@@ -4764,47 +4768,47 @@
       </c>
       <c r="F294" s="2"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="8"/>
-      <c r="B295" s="10"/>
-      <c r="C295" s="10"/>
-      <c r="D295" s="10"/>
+    <row r="295" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A295" s="9"/>
+      <c r="B295" s="11"/>
+      <c r="C295" s="11"/>
+      <c r="D295" s="11"/>
       <c r="E295" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" s="8"/>
-      <c r="B296" s="10"/>
-      <c r="C296" s="10"/>
-      <c r="D296" s="10"/>
+    <row r="296" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A296" s="9"/>
+      <c r="B296" s="11"/>
+      <c r="C296" s="11"/>
+      <c r="D296" s="11"/>
       <c r="E296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F296" s="2"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" s="9"/>
-      <c r="B297" s="10"/>
-      <c r="C297" s="10"/>
-      <c r="D297" s="10"/>
+    <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A297" s="10"/>
+      <c r="B297" s="11"/>
+      <c r="C297" s="11"/>
+      <c r="D297" s="11"/>
       <c r="E297" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F297" s="3"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="7" t="s">
+    <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B299" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C299" s="10" t="s">
+      <c r="B299" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D299" s="10" t="s">
+      <c r="D299" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E299" s="2" t="s">
@@ -4812,47 +4816,47 @@
       </c>
       <c r="F299" s="2"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="8"/>
-      <c r="B300" s="10"/>
-      <c r="C300" s="10"/>
-      <c r="D300" s="10"/>
+    <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="9"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
       <c r="E300" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="8"/>
-      <c r="B301" s="10"/>
-      <c r="C301" s="10"/>
-      <c r="D301" s="10"/>
+    <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="9"/>
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
       <c r="E301" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F301" s="2"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="9"/>
-      <c r="B302" s="10"/>
-      <c r="C302" s="10"/>
-      <c r="D302" s="10"/>
+    <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="10"/>
+      <c r="B302" s="11"/>
+      <c r="C302" s="11"/>
+      <c r="D302" s="11"/>
       <c r="E302" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F302" s="3"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="7" t="s">
+    <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A304" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B304" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C304" s="10" t="s">
+      <c r="B304" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D304" s="10" t="s">
+      <c r="D304" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E304" s="2" t="s">
@@ -4860,47 +4864,47 @@
       </c>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="8"/>
-      <c r="B305" s="10"/>
-      <c r="C305" s="10"/>
-      <c r="D305" s="10"/>
+    <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A305" s="9"/>
+      <c r="B305" s="11"/>
+      <c r="C305" s="11"/>
+      <c r="D305" s="11"/>
       <c r="E305" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="8"/>
-      <c r="B306" s="10"/>
-      <c r="C306" s="10"/>
-      <c r="D306" s="10"/>
+    <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" s="9"/>
+      <c r="B306" s="11"/>
+      <c r="C306" s="11"/>
+      <c r="D306" s="11"/>
       <c r="E306" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="9"/>
-      <c r="B307" s="10"/>
-      <c r="C307" s="10"/>
-      <c r="D307" s="10"/>
+    <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A307" s="10"/>
+      <c r="B307" s="11"/>
+      <c r="C307" s="11"/>
+      <c r="D307" s="11"/>
       <c r="E307" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F307" s="3"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="7" t="s">
+    <row r="309" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A309" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B309" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="10" t="s">
+      <c r="B309" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D309" s="10" t="s">
+      <c r="D309" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E309" s="2" t="s">
@@ -4908,31 +4912,31 @@
       </c>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" s="8"/>
-      <c r="B310" s="10"/>
-      <c r="C310" s="10"/>
-      <c r="D310" s="10"/>
+    <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A310" s="9"/>
+      <c r="B310" s="11"/>
+      <c r="C310" s="11"/>
+      <c r="D310" s="11"/>
       <c r="E310" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F310" s="3"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="8"/>
-      <c r="B311" s="10"/>
-      <c r="C311" s="10"/>
-      <c r="D311" s="10"/>
+    <row r="311" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A311" s="9"/>
+      <c r="B311" s="11"/>
+      <c r="C311" s="11"/>
+      <c r="D311" s="11"/>
       <c r="E311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="9"/>
-      <c r="B312" s="10"/>
-      <c r="C312" s="10"/>
-      <c r="D312" s="10"/>
+    <row r="312" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" s="10"/>
+      <c r="B312" s="11"/>
+      <c r="C312" s="11"/>
+      <c r="D312" s="11"/>
       <c r="E312" s="3" t="s">
         <v>13</v>
       </c>
@@ -4940,234 +4944,6 @@
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="D309:D312"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="D299:D302"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="D283:D286"/>
-    <mergeCell ref="A288:F288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="D273:D276"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="D263:D266"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="B268:B271"/>
-    <mergeCell ref="C268:C271"/>
-    <mergeCell ref="D268:D271"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="D257:D260"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="D247:D250"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="D237:D240"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="D221:D224"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="D211:D214"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="D205:D208"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="D195:D198"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A6"/>
@@ -5192,6 +4968,234 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="D205:D208"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="D195:D198"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="D211:D214"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="D216:D219"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="D237:D240"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="D257:D260"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D245"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="D247:D250"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="D273:D276"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="D263:D266"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="C268:C271"/>
+    <mergeCell ref="D268:D271"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="D283:D286"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="D309:D312"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="D299:D302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5204,15 +5208,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088059E6DDC6DF445B0AB87CAA811C0D0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314c580fd60c3711a3e3031240862aa0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae328def-a07b-4370-9a10-828a34f91ce9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5728a0d98f3ba8ecfca4ece15eb01571" ns2:_="">
     <xsd:import namespace="ae328def-a07b-4370-9a10-828a34f91ce9"/>
@@ -5356,6 +5351,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
   <ds:schemaRefs>
@@ -5366,14 +5370,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9759A726-586A-4C39-A765-CAA32818CEB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5389,4 +5385,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PRT585_Group _7_TimeSheet.xlsx
+++ b/PRT585_Group _7_TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabili/PRT585_S2023_Group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05930DD0-8B5D-6F4B-9146-5BDF1E701B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF0F9F9-7F14-D647-93CD-B459B3F4F723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32800" windowHeight="19020" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
+    <workbookView xWindow="9800" yWindow="1620" windowWidth="32800" windowHeight="19020" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 7 Timesheet" sheetId="15" r:id="rId1"/>
@@ -239,7 +239,8 @@
     <t>s358037</t>
   </si>
   <si>
-    <t>1. Learn Github from Youtube</t>
+    <t>1. Learn Github from Youtube 
+2. DoXXXX</t>
   </si>
 </sst>
 </file>
@@ -415,16 +416,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,10 +437,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -762,7 +763,7 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -796,26 +797,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -826,50 +827,50 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
@@ -878,34 +879,34 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -914,84 +915,84 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1000,84 +1001,84 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1086,84 +1087,84 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1172,84 +1173,84 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1258,84 +1259,84 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1344,84 +1345,84 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="7"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -1430,84 +1431,84 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
       <c r="E64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="7"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13"/>
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -1516,84 +1517,84 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="7"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -1602,84 +1603,84 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
       <c r="E79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
       <c r="E80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="B83" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -1688,84 +1689,84 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
       <c r="E84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
       <c r="E85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
       <c r="E86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
       <c r="E87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="10"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
       <c r="E88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="7"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="13"/>
     </row>
     <row r="91" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -1774,50 +1775,50 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
       <c r="E94" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
       <c r="E95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
       <c r="E96" s="3" t="s">
         <v>15</v>
       </c>
@@ -1825,12 +1826,59 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:A16"/>
@@ -1843,59 +1891,12 @@
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="D19:D24"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1907,7 +1908,7 @@
   <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1941,26 +1942,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1971,46 +1972,46 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2019,46 +2020,46 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2067,46 +2068,46 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2115,46 +2116,46 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2163,56 +2164,56 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2221,46 +2222,46 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2269,46 +2270,46 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="B39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2317,46 +2318,46 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2365,46 +2366,46 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2413,56 +2414,56 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2471,46 +2472,46 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2519,46 +2520,46 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2567,46 +2568,46 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2615,46 +2616,46 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="10"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -2663,56 +2664,56 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="11" t="s">
+      <c r="B81" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -2721,46 +2722,46 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
       <c r="E82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
       <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
       <c r="E84" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="B86" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -2769,46 +2770,46 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
       <c r="E87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
       <c r="E88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
       <c r="E89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2817,46 +2818,46 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
       <c r="E94" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="11" t="s">
+      <c r="B96" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -2865,46 +2866,46 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
       <c r="E97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
       <c r="E98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="10"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
       <c r="E99" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="3"/>
     </row>
     <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="11" t="s">
+      <c r="B101" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -2913,56 +2914,56 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="9"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
       <c r="E102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="10"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
       <c r="E104" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F104" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="11" t="s">
+      <c r="B107" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -2971,46 +2972,46 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="9"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
       <c r="E108" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="9"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
       <c r="E109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
       <c r="E110" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F110" s="3"/>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="11" t="s">
+      <c r="B112" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3019,46 +3020,46 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
       <c r="E113" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
       <c r="E115" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F115" s="3"/>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="11" t="s">
+      <c r="B117" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3067,46 +3068,46 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="9"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
       <c r="E118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="9"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
       <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="10"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
       <c r="E120" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F120" s="3"/>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="11" t="s">
+      <c r="B122" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3115,46 +3116,46 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
       <c r="E123" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="10"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
       <c r="E125" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F125" s="3"/>
     </row>
     <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="11" t="s">
+      <c r="B127" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3163,56 +3164,56 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="9"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
       <c r="E128" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="9"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="10"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
       <c r="E130" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F130" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="11" t="s">
+      <c r="B133" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3221,46 +3222,46 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="9"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
       <c r="E134" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="9"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
       <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="10"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
       <c r="E136" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F136" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="11" t="s">
+      <c r="B138" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -3269,46 +3270,46 @@
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="9"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
       <c r="E139" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="9"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="10"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
       <c r="E141" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F141" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="11" t="s">
+      <c r="B143" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3317,46 +3318,46 @@
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="9"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
       <c r="E144" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
       <c r="E145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="10"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
       <c r="E146" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F146" s="3"/>
     </row>
     <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="11" t="s">
+      <c r="B148" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3365,46 +3366,46 @@
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="9"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
+      <c r="A149" s="8"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
       <c r="E149" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="9"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
       <c r="E150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="10"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
+      <c r="A151" s="9"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
       <c r="E151" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F151" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B153" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="11" t="s">
+      <c r="B153" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3413,56 +3414,56 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="9"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
       <c r="E154" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="9"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="10"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
+      <c r="A156" s="9"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
       <c r="E156" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="3"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B159" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="11" t="s">
+      <c r="B159" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -3471,46 +3472,46 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="9"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
+      <c r="A160" s="8"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
       <c r="E160" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="9"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
+      <c r="A161" s="8"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
       <c r="E161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="10"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
       <c r="E162" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F162" s="3"/>
     </row>
     <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B164" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="11" t="s">
+      <c r="B164" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D164" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -3519,46 +3520,46 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="9"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
+      <c r="A165" s="8"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
       <c r="E165" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="9"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
+      <c r="A166" s="8"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
       <c r="E166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="10"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
+      <c r="A167" s="9"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
       <c r="E167" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F167" s="3"/>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="11" t="s">
+      <c r="B169" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D169" s="11" t="s">
+      <c r="D169" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -3567,46 +3568,46 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="9"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
       <c r="E170" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="9"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
+      <c r="A171" s="8"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
       <c r="E171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="10"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
+      <c r="A172" s="9"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
       <c r="E172" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F172" s="3"/>
     </row>
     <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="11" t="s">
+      <c r="B174" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -3615,46 +3616,46 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="9"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
       <c r="E175" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F175" s="3"/>
     </row>
     <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="9"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
+      <c r="A176" s="8"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
       <c r="E176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="10"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
+      <c r="A177" s="9"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
       <c r="E177" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F177" s="3"/>
     </row>
     <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B179" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="11" t="s">
+      <c r="B179" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D179" s="11" t="s">
+      <c r="D179" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -3663,56 +3664,56 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="9"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
+      <c r="A180" s="8"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
       <c r="E180" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="9"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
+      <c r="A181" s="8"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
       <c r="E181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="10"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
+      <c r="A182" s="9"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
       <c r="E182" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F182" s="3"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B184" s="13"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
     </row>
     <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="11" t="s">
+      <c r="B185" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D185" s="11" t="s">
+      <c r="D185" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -3721,46 +3722,46 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="9"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
+      <c r="A186" s="8"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
       <c r="E186" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="9"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
+      <c r="A187" s="8"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
       <c r="E187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="10"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
+      <c r="A188" s="9"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
       <c r="E188" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F188" s="3"/>
     </row>
     <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B190" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="11" t="s">
+      <c r="B190" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -3769,46 +3770,46 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="9"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
+      <c r="A191" s="8"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
       <c r="E191" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="9"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
+      <c r="A192" s="8"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
       <c r="E192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="10"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
+      <c r="A193" s="9"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
       <c r="E193" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F193" s="3"/>
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="11" t="s">
+      <c r="B195" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D195" s="11" t="s">
+      <c r="D195" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -3817,46 +3818,46 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="9"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
+      <c r="A196" s="8"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
       <c r="E196" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="9"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
+      <c r="A197" s="8"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
       <c r="E197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198" s="10"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
+      <c r="A198" s="9"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
       <c r="E198" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F198" s="3"/>
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B200" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="11" t="s">
+      <c r="B200" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D200" s="11" t="s">
+      <c r="D200" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -3865,46 +3866,46 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="9"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
+      <c r="A201" s="8"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
       <c r="E201" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="9"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
+      <c r="A202" s="8"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
       <c r="E202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="10"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
+      <c r="A203" s="9"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
       <c r="E203" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F203" s="3"/>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B205" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="11" t="s">
+      <c r="B205" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D205" s="11" t="s">
+      <c r="D205" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -3913,56 +3914,56 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="9"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
+      <c r="A206" s="8"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
       <c r="E206" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="9"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
       <c r="E207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="10"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
-      <c r="D208" s="11"/>
+      <c r="A208" s="9"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
       <c r="E208" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F208" s="3"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B210" s="13"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B211" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="11" t="s">
+      <c r="B211" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D211" s="11" t="s">
+      <c r="D211" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -3971,46 +3972,46 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="9"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
+      <c r="A212" s="8"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
       <c r="E212" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F212" s="3"/>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="9"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-      <c r="D213" s="11"/>
+      <c r="A213" s="8"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
       <c r="E213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="10"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="11"/>
+      <c r="A214" s="9"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
       <c r="E214" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F214" s="3"/>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B216" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="11" t="s">
+      <c r="B216" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D216" s="11" t="s">
+      <c r="D216" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -4019,46 +4020,46 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="9"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
       <c r="E217" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F217" s="3"/>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="9"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
-      <c r="D218" s="11"/>
+      <c r="A218" s="8"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
       <c r="E218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="10"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
+      <c r="A219" s="9"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
       <c r="E219" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F219" s="3"/>
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B221" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="11" t="s">
+      <c r="B221" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D221" s="11" t="s">
+      <c r="D221" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -4067,46 +4068,46 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="9"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
+      <c r="A222" s="8"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
       <c r="E222" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F222" s="3"/>
     </row>
     <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="9"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="11"/>
-      <c r="D223" s="11"/>
+      <c r="A223" s="8"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
       <c r="E223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="10"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="11"/>
-      <c r="D224" s="11"/>
+      <c r="A224" s="9"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
       <c r="E224" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F224" s="3"/>
     </row>
     <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B226" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="11" t="s">
+      <c r="B226" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D226" s="11" t="s">
+      <c r="D226" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -4115,46 +4116,46 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="9"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="11"/>
-      <c r="D227" s="11"/>
+      <c r="A227" s="8"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
       <c r="E227" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F227" s="3"/>
     </row>
     <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="9"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="11"/>
+      <c r="A228" s="8"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
       <c r="E228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="10"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
+      <c r="A229" s="9"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
       <c r="E229" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F229" s="3"/>
     </row>
     <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="8" t="s">
+      <c r="A231" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B231" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="11" t="s">
+      <c r="B231" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D231" s="11" t="s">
+      <c r="D231" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -4163,56 +4164,56 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="9"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
+      <c r="A232" s="8"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
       <c r="E232" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="9"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="11"/>
-      <c r="D233" s="11"/>
+      <c r="A233" s="8"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
       <c r="E233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="10"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="11"/>
-      <c r="D234" s="11"/>
+      <c r="A234" s="9"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
       <c r="E234" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F234" s="3"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B236" s="13"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="13"/>
-      <c r="E236" s="13"/>
-      <c r="F236" s="13"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="8" t="s">
+      <c r="A237" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B237" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="11" t="s">
+      <c r="B237" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D237" s="11" t="s">
+      <c r="D237" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -4221,46 +4222,46 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="9"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
-      <c r="D238" s="11"/>
+      <c r="A238" s="8"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
       <c r="E238" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="9"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
+      <c r="A239" s="8"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
       <c r="E239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="10"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
+      <c r="A240" s="9"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
       <c r="E240" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F240" s="3"/>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="8" t="s">
+      <c r="A242" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B242" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="11" t="s">
+      <c r="B242" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D242" s="11" t="s">
+      <c r="D242" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -4269,46 +4270,46 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="9"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="11"/>
+      <c r="A243" s="8"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
       <c r="E243" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F243" s="3"/>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A244" s="9"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
+      <c r="A244" s="8"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
       <c r="E244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A245" s="10"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="11"/>
-      <c r="D245" s="11"/>
+      <c r="A245" s="9"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
       <c r="E245" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F245" s="3"/>
     </row>
     <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B247" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="11" t="s">
+      <c r="B247" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D247" s="11" t="s">
+      <c r="D247" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -4317,46 +4318,46 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="9"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
+      <c r="A248" s="8"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="10"/>
       <c r="E248" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="9"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
+      <c r="A249" s="8"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="10"/>
       <c r="E249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A250" s="10"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
+      <c r="A250" s="9"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="10"/>
       <c r="E250" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F250" s="3"/>
     </row>
     <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A252" s="8" t="s">
+      <c r="A252" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B252" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="11" t="s">
+      <c r="B252" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D252" s="11" t="s">
+      <c r="D252" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -4365,46 +4366,46 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="9"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="11"/>
-      <c r="D253" s="11"/>
+      <c r="A253" s="8"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="10"/>
+      <c r="D253" s="10"/>
       <c r="E253" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A254" s="9"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="11"/>
-      <c r="D254" s="11"/>
+      <c r="A254" s="8"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="10"/>
       <c r="E254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="10"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="11"/>
-      <c r="D255" s="11"/>
+      <c r="A255" s="9"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="10"/>
       <c r="E255" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F255" s="3"/>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="8" t="s">
+      <c r="A257" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B257" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="11" t="s">
+      <c r="B257" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D257" s="11" t="s">
+      <c r="D257" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -4413,56 +4414,56 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="9"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
-      <c r="D258" s="11"/>
+      <c r="A258" s="8"/>
+      <c r="B258" s="10"/>
+      <c r="C258" s="10"/>
+      <c r="D258" s="10"/>
       <c r="E258" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F258" s="3"/>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="9"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
-      <c r="D259" s="11"/>
+      <c r="A259" s="8"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
       <c r="E259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="10"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
-      <c r="D260" s="11"/>
+      <c r="A260" s="9"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10"/>
       <c r="E260" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F260" s="3"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B262" s="13"/>
-      <c r="C262" s="13"/>
-      <c r="D262" s="13"/>
-      <c r="E262" s="13"/>
-      <c r="F262" s="13"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="8" t="s">
+      <c r="A263" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B263" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="11" t="s">
+      <c r="B263" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D263" s="11" t="s">
+      <c r="D263" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -4471,46 +4472,46 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="9"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="11"/>
+      <c r="A264" s="8"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10"/>
       <c r="E264" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F264" s="3"/>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="9"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="11"/>
-      <c r="D265" s="11"/>
+      <c r="A265" s="8"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
       <c r="E265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="10"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="11"/>
-      <c r="D266" s="11"/>
+      <c r="A266" s="9"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
       <c r="E266" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F266" s="3"/>
     </row>
     <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="8" t="s">
+      <c r="A268" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B268" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C268" s="11" t="s">
+      <c r="B268" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D268" s="11" t="s">
+      <c r="D268" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -4519,46 +4520,46 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="9"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="11"/>
-      <c r="D269" s="11"/>
+      <c r="A269" s="8"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
       <c r="E269" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="9"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="11"/>
-      <c r="D270" s="11"/>
+      <c r="A270" s="8"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="10"/>
       <c r="E270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="10"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="11"/>
-      <c r="D271" s="11"/>
+      <c r="A271" s="9"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
       <c r="E271" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F271" s="3"/>
     </row>
     <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A273" s="8" t="s">
+      <c r="A273" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B273" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C273" s="11" t="s">
+      <c r="B273" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D273" s="11" t="s">
+      <c r="D273" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -4567,46 +4568,46 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A274" s="9"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
-      <c r="D274" s="11"/>
+      <c r="A274" s="8"/>
+      <c r="B274" s="10"/>
+      <c r="C274" s="10"/>
+      <c r="D274" s="10"/>
       <c r="E274" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A275" s="9"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
-      <c r="D275" s="11"/>
+      <c r="A275" s="8"/>
+      <c r="B275" s="10"/>
+      <c r="C275" s="10"/>
+      <c r="D275" s="10"/>
       <c r="E275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="10"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="11"/>
-      <c r="D276" s="11"/>
+      <c r="A276" s="9"/>
+      <c r="B276" s="10"/>
+      <c r="C276" s="10"/>
+      <c r="D276" s="10"/>
       <c r="E276" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F276" s="3"/>
     </row>
     <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="8" t="s">
+      <c r="A278" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B278" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C278" s="11" t="s">
+      <c r="B278" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D278" s="11" t="s">
+      <c r="D278" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -4615,46 +4616,46 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A279" s="9"/>
-      <c r="B279" s="11"/>
-      <c r="C279" s="11"/>
-      <c r="D279" s="11"/>
+      <c r="A279" s="8"/>
+      <c r="B279" s="10"/>
+      <c r="C279" s="10"/>
+      <c r="D279" s="10"/>
       <c r="E279" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F279" s="3"/>
     </row>
     <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A280" s="9"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="11"/>
-      <c r="D280" s="11"/>
+      <c r="A280" s="8"/>
+      <c r="B280" s="10"/>
+      <c r="C280" s="10"/>
+      <c r="D280" s="10"/>
       <c r="E280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A281" s="10"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="11"/>
-      <c r="D281" s="11"/>
+      <c r="A281" s="9"/>
+      <c r="B281" s="10"/>
+      <c r="C281" s="10"/>
+      <c r="D281" s="10"/>
       <c r="E281" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F281" s="3"/>
     </row>
     <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="8" t="s">
+      <c r="A283" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B283" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C283" s="11" t="s">
+      <c r="B283" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D283" s="11" t="s">
+      <c r="D283" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -4663,56 +4664,56 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" s="9"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="11"/>
-      <c r="D284" s="11"/>
+      <c r="A284" s="8"/>
+      <c r="B284" s="10"/>
+      <c r="C284" s="10"/>
+      <c r="D284" s="10"/>
       <c r="E284" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="9"/>
-      <c r="B285" s="11"/>
-      <c r="C285" s="11"/>
-      <c r="D285" s="11"/>
+      <c r="A285" s="8"/>
+      <c r="B285" s="10"/>
+      <c r="C285" s="10"/>
+      <c r="D285" s="10"/>
       <c r="E285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A286" s="10"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="11"/>
-      <c r="D286" s="11"/>
+      <c r="A286" s="9"/>
+      <c r="B286" s="10"/>
+      <c r="C286" s="10"/>
+      <c r="D286" s="10"/>
       <c r="E286" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F286" s="3"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B288" s="13"/>
-      <c r="C288" s="13"/>
-      <c r="D288" s="13"/>
-      <c r="E288" s="13"/>
-      <c r="F288" s="13"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
     </row>
     <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A289" s="8" t="s">
+      <c r="A289" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289" s="11" t="s">
+      <c r="B289" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D289" s="11" t="s">
+      <c r="D289" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E289" s="2" t="s">
@@ -4721,46 +4722,46 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="9"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="11"/>
-      <c r="D290" s="11"/>
+      <c r="A290" s="8"/>
+      <c r="B290" s="10"/>
+      <c r="C290" s="10"/>
+      <c r="D290" s="10"/>
       <c r="E290" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F290" s="3"/>
     </row>
     <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="9"/>
-      <c r="B291" s="11"/>
-      <c r="C291" s="11"/>
-      <c r="D291" s="11"/>
+      <c r="A291" s="8"/>
+      <c r="B291" s="10"/>
+      <c r="C291" s="10"/>
+      <c r="D291" s="10"/>
       <c r="E291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A292" s="10"/>
-      <c r="B292" s="11"/>
-      <c r="C292" s="11"/>
-      <c r="D292" s="11"/>
+      <c r="A292" s="9"/>
+      <c r="B292" s="10"/>
+      <c r="C292" s="10"/>
+      <c r="D292" s="10"/>
       <c r="E292" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F292" s="3"/>
     </row>
     <row r="294" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A294" s="8" t="s">
+      <c r="A294" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B294" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="11" t="s">
+      <c r="B294" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D294" s="11" t="s">
+      <c r="D294" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E294" s="2" t="s">
@@ -4769,46 +4770,46 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="9"/>
-      <c r="B295" s="11"/>
-      <c r="C295" s="11"/>
-      <c r="D295" s="11"/>
+      <c r="A295" s="8"/>
+      <c r="B295" s="10"/>
+      <c r="C295" s="10"/>
+      <c r="D295" s="10"/>
       <c r="E295" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F295" s="3"/>
     </row>
     <row r="296" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="9"/>
-      <c r="B296" s="11"/>
-      <c r="C296" s="11"/>
-      <c r="D296" s="11"/>
+      <c r="A296" s="8"/>
+      <c r="B296" s="10"/>
+      <c r="C296" s="10"/>
+      <c r="D296" s="10"/>
       <c r="E296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="10"/>
-      <c r="B297" s="11"/>
-      <c r="C297" s="11"/>
-      <c r="D297" s="11"/>
+      <c r="A297" s="9"/>
+      <c r="B297" s="10"/>
+      <c r="C297" s="10"/>
+      <c r="D297" s="10"/>
       <c r="E297" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F297" s="3"/>
     </row>
     <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A299" s="8" t="s">
+      <c r="A299" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B299" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C299" s="11" t="s">
+      <c r="B299" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D299" s="11" t="s">
+      <c r="D299" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E299" s="2" t="s">
@@ -4817,46 +4818,46 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A300" s="9"/>
-      <c r="B300" s="11"/>
-      <c r="C300" s="11"/>
-      <c r="D300" s="11"/>
+      <c r="A300" s="8"/>
+      <c r="B300" s="10"/>
+      <c r="C300" s="10"/>
+      <c r="D300" s="10"/>
       <c r="E300" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F300" s="3"/>
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="9"/>
-      <c r="B301" s="11"/>
-      <c r="C301" s="11"/>
-      <c r="D301" s="11"/>
+      <c r="A301" s="8"/>
+      <c r="B301" s="10"/>
+      <c r="C301" s="10"/>
+      <c r="D301" s="10"/>
       <c r="E301" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A302" s="10"/>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
-      <c r="D302" s="11"/>
+      <c r="A302" s="9"/>
+      <c r="B302" s="10"/>
+      <c r="C302" s="10"/>
+      <c r="D302" s="10"/>
       <c r="E302" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F302" s="3"/>
     </row>
     <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304" s="8" t="s">
+      <c r="A304" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B304" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C304" s="11" t="s">
+      <c r="B304" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D304" s="11" t="s">
+      <c r="D304" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E304" s="2" t="s">
@@ -4865,46 +4866,46 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A305" s="9"/>
-      <c r="B305" s="11"/>
-      <c r="C305" s="11"/>
-      <c r="D305" s="11"/>
+      <c r="A305" s="8"/>
+      <c r="B305" s="10"/>
+      <c r="C305" s="10"/>
+      <c r="D305" s="10"/>
       <c r="E305" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F305" s="3"/>
     </row>
     <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A306" s="9"/>
-      <c r="B306" s="11"/>
-      <c r="C306" s="11"/>
-      <c r="D306" s="11"/>
+      <c r="A306" s="8"/>
+      <c r="B306" s="10"/>
+      <c r="C306" s="10"/>
+      <c r="D306" s="10"/>
       <c r="E306" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A307" s="10"/>
-      <c r="B307" s="11"/>
-      <c r="C307" s="11"/>
-      <c r="D307" s="11"/>
+      <c r="A307" s="9"/>
+      <c r="B307" s="10"/>
+      <c r="C307" s="10"/>
+      <c r="D307" s="10"/>
       <c r="E307" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F307" s="3"/>
     </row>
     <row r="309" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="8" t="s">
+      <c r="A309" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B309" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="11" t="s">
+      <c r="B309" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D309" s="11" t="s">
+      <c r="D309" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E309" s="2" t="s">
@@ -4913,30 +4914,30 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A310" s="9"/>
-      <c r="B310" s="11"/>
-      <c r="C310" s="11"/>
-      <c r="D310" s="11"/>
+      <c r="A310" s="8"/>
+      <c r="B310" s="10"/>
+      <c r="C310" s="10"/>
+      <c r="D310" s="10"/>
       <c r="E310" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A311" s="9"/>
-      <c r="B311" s="11"/>
-      <c r="C311" s="11"/>
-      <c r="D311" s="11"/>
+      <c r="A311" s="8"/>
+      <c r="B311" s="10"/>
+      <c r="C311" s="10"/>
+      <c r="D311" s="10"/>
       <c r="E311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="10"/>
-      <c r="B312" s="11"/>
-      <c r="C312" s="11"/>
-      <c r="D312" s="11"/>
+      <c r="A312" s="9"/>
+      <c r="B312" s="10"/>
+      <c r="C312" s="10"/>
+      <c r="D312" s="10"/>
       <c r="E312" s="3" t="s">
         <v>13</v>
       </c>
@@ -4944,6 +4945,234 @@
     </row>
   </sheetData>
   <mergeCells count="252">
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="D309:D312"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="D299:D302"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="D283:D286"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="D273:D276"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="D263:D266"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="C268:C271"/>
+    <mergeCell ref="D268:D271"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="D257:D260"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D245"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="D247:D250"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="D237:D240"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="D211:D214"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="D216:D219"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="D205:D208"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="D195:D198"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A6"/>
@@ -4968,243 +5197,18 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="D205:D208"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="D195:D198"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="D221:D224"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="D211:D214"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="D237:D240"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="D257:D260"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="D247:D250"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="D273:D276"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="D263:D266"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="B268:B271"/>
-    <mergeCell ref="C268:C271"/>
-    <mergeCell ref="D268:D271"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="D283:D286"/>
-    <mergeCell ref="A288:F288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="D309:D312"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="D299:D302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5352,19 +5356,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5388,9 +5388,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PRT585_Group _7_TimeSheet.xlsx
+++ b/PRT585_Group _7_TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabili/PRT585_S2023_Group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF0F9F9-7F14-D647-93CD-B459B3F4F723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F4150-3F71-084A-A5FC-957B83AC8AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="1620" windowWidth="32800" windowHeight="19020" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
+    <workbookView xWindow="7280" yWindow="1620" windowWidth="32800" windowHeight="19020" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 7 Timesheet" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="73">
   <si>
     <t>Week</t>
   </si>
@@ -239,8 +239,43 @@
     <t>s358037</t>
   </si>
   <si>
+    <t>1. Do Blazer hello world together</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>1. Install SQL Express</t>
+  </si>
+  <si>
+    <t>1. Install Visual Studio</t>
+  </si>
+  <si>
+    <t>Date &amp; Time</t>
+  </si>
+  <si>
     <t>1. Learn Github from Youtube 
-2. DoXXXX</t>
+2. Demonstrate how to use Github desktop</t>
+  </si>
+  <si>
+    <t>13/7 10:00 to 12:00</t>
+  </si>
+  <si>
+    <t>14/7  21:00 to 23:00</t>
+  </si>
+  <si>
+    <t>16/7 20:00 to 22:00</t>
+  </si>
+  <si>
+    <t>1. Meet with team mates
+2. Read through weekly task together</t>
+  </si>
+  <si>
+    <t>1. Setup Github repository
+2. Wath Video: ASP.Net Fundamental in Pluralsight</t>
+  </si>
+  <si>
+    <t>Mac OS users can't install SQL Express</t>
   </si>
 </sst>
 </file>
@@ -405,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -416,13 +451,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,14 +475,44 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD2CA45-38D9-4271-9CE5-FD0B25AF8966}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -773,10 +841,12 @@
     <col min="3" max="3" width="41.83203125" customWidth="1"/>
     <col min="4" max="4" width="43.1640625" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="63.1640625" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="63.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,1042 +865,1283 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="G1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="F4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="F6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="G24" s="22"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="G32" s="22"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="G40" s="22"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="G48" s="22"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="B51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="G56" s="22"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="15"/>
+    </row>
+    <row r="59" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="G64" s="22"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="10" t="s">
+      <c r="B67" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="9"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="9"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+      <c r="G72" s="22"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="15"/>
+    </row>
+    <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="9"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="9"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="9"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="9"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
       <c r="E79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
       <c r="E80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
+      <c r="G80" s="22"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="10" t="s">
+      <c r="B83" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="9"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="9"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="9"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="9"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="10"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
+      <c r="G88" s="22"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="20"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="13"/>
-    </row>
-    <row r="91" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+      <c r="B90" s="5"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="15"/>
+    </row>
+    <row r="91" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="B91" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="9"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="9"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="9"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
       <c r="E94" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="9"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
       <c r="E95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="10"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
       <c r="E96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F96" s="3"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
+  <mergeCells count="74">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A75:A80"/>
@@ -1843,60 +2154,11 @@
     <mergeCell ref="B83:B88"/>
     <mergeCell ref="C83:C88"/>
     <mergeCell ref="D83:D88"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1942,26 +2204,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1972,46 +2234,46 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2020,46 +2282,46 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2068,46 +2330,46 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2116,46 +2378,46 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2164,56 +2426,56 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2222,46 +2484,46 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2270,46 +2532,46 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="B39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2318,46 +2580,46 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2366,46 +2628,46 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2414,56 +2676,56 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="10" t="s">
+      <c r="B55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2472,46 +2734,46 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="10" t="s">
+      <c r="B60" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2520,46 +2782,46 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2568,46 +2830,46 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="10" t="s">
+      <c r="B70" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2616,46 +2878,46 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -2664,56 +2926,56 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
     </row>
     <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="B81" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -2722,46 +2984,46 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
       <c r="E82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="10" t="s">
+      <c r="B86" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -2770,46 +3032,46 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
       <c r="E89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="B91" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2818,46 +3080,46 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
       <c r="E94" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="10" t="s">
+      <c r="B96" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -2866,46 +3128,46 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
       <c r="E97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
       <c r="E98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
       <c r="E99" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="3"/>
     </row>
     <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="10" t="s">
+      <c r="B101" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -2914,56 +3176,56 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
       <c r="E102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
       <c r="E104" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F104" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="10" t="s">
+      <c r="B107" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -2972,46 +3234,46 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="8"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
+      <c r="A108" s="9"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
       <c r="E108" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="8"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
       <c r="E109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
       <c r="E110" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F110" s="3"/>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="10" t="s">
+      <c r="B112" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3020,46 +3282,46 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
       <c r="E113" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="9"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
       <c r="E115" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F115" s="3"/>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="10" t="s">
+      <c r="B117" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3068,46 +3330,46 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
+      <c r="A118" s="9"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
       <c r="E118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="8"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
+      <c r="A119" s="9"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
       <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="9"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
       <c r="E120" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F120" s="3"/>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="10" t="s">
+      <c r="B122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3116,46 +3378,46 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="8"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
       <c r="E123" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="8"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="9"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
+      <c r="A125" s="10"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
       <c r="E125" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F125" s="3"/>
     </row>
     <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="10" t="s">
+      <c r="B127" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3164,56 +3426,56 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="8"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
+      <c r="A128" s="9"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
       <c r="E128" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="8"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
+      <c r="A129" s="9"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="9"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
       <c r="E130" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F130" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
     </row>
     <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="10" t="s">
+      <c r="B133" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3222,46 +3484,46 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="8"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
       <c r="E134" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
       <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="9"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
+      <c r="A136" s="10"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
       <c r="E136" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F136" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="10" t="s">
+      <c r="B138" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -3270,46 +3532,46 @@
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
+      <c r="A139" s="9"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
       <c r="E139" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="9"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
+      <c r="A141" s="10"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
       <c r="E141" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F141" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="10" t="s">
+      <c r="B143" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3318,46 +3580,46 @@
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="8"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
       <c r="E144" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="8"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
       <c r="E145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="9"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
+      <c r="A146" s="10"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
       <c r="E146" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F146" s="3"/>
     </row>
     <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="10" t="s">
+      <c r="B148" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D148" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3366,46 +3628,46 @@
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="8"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
+      <c r="A149" s="9"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
       <c r="E149" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="8"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
+      <c r="A150" s="9"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
       <c r="E150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="9"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
+      <c r="A151" s="10"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
       <c r="E151" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F151" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B153" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="10" t="s">
+      <c r="B153" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3414,56 +3676,56 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="8"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
       <c r="E154" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="8"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
+      <c r="A155" s="9"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="9"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
+      <c r="A156" s="10"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
       <c r="E156" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="3"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B159" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="10" t="s">
+      <c r="B159" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -3472,46 +3734,46 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="8"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
       <c r="E160" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="8"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
       <c r="E161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="9"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
+      <c r="A162" s="10"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
       <c r="E162" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F162" s="3"/>
     </row>
     <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="10" t="s">
+      <c r="B164" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -3520,46 +3782,46 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="8"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
       <c r="E165" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="8"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
+      <c r="A166" s="9"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
       <c r="E166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="9"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
+      <c r="A167" s="10"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
       <c r="E167" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F167" s="3"/>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B169" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="10" t="s">
+      <c r="B169" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D169" s="10" t="s">
+      <c r="D169" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -3568,46 +3830,46 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="8"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
+      <c r="A170" s="9"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
       <c r="E170" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="8"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
+      <c r="A171" s="9"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
       <c r="E171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="9"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
+      <c r="A172" s="10"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
       <c r="E172" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F172" s="3"/>
     </row>
     <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
+      <c r="A174" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B174" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="10" t="s">
+      <c r="B174" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D174" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -3616,46 +3878,46 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="8"/>
-      <c r="B175" s="10"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
       <c r="E175" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F175" s="3"/>
     </row>
     <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="8"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
       <c r="E176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="9"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
+      <c r="A177" s="10"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
       <c r="E177" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F177" s="3"/>
     </row>
     <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
+      <c r="A179" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B179" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="10" t="s">
+      <c r="B179" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D179" s="10" t="s">
+      <c r="D179" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -3664,56 +3926,56 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="8"/>
-      <c r="B180" s="10"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
+      <c r="A180" s="9"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
       <c r="E180" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="8"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
+      <c r="A181" s="9"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
       <c r="E181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="9"/>
-      <c r="B182" s="10"/>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
+      <c r="A182" s="10"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
       <c r="E182" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F182" s="3"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
     </row>
     <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="7" t="s">
+      <c r="A185" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="10" t="s">
+      <c r="B185" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D185" s="10" t="s">
+      <c r="D185" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -3722,46 +3984,46 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="8"/>
-      <c r="B186" s="10"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
+      <c r="A186" s="9"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
       <c r="E186" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="8"/>
-      <c r="B187" s="10"/>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
+      <c r="A187" s="9"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
       <c r="E187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="9"/>
-      <c r="B188" s="10"/>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
+      <c r="A188" s="10"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
       <c r="E188" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F188" s="3"/>
     </row>
     <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="7" t="s">
+      <c r="A190" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B190" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="10" t="s">
+      <c r="B190" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="D190" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -3770,46 +4032,46 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="8"/>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
+      <c r="A191" s="9"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
       <c r="E191" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="8"/>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
+      <c r="A192" s="9"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
       <c r="E192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="9"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
+      <c r="A193" s="10"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
       <c r="E193" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F193" s="3"/>
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="10" t="s">
+      <c r="B195" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="D195" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -3818,46 +4080,46 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="8"/>
-      <c r="B196" s="10"/>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
+      <c r="A196" s="9"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
       <c r="E196" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="8"/>
-      <c r="B197" s="10"/>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
+      <c r="A197" s="9"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
       <c r="E197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198" s="9"/>
-      <c r="B198" s="10"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
+      <c r="A198" s="10"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
       <c r="E198" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F198" s="3"/>
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
+      <c r="A200" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B200" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="10" t="s">
+      <c r="B200" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D200" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -3866,46 +4128,46 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="8"/>
-      <c r="B201" s="10"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
+      <c r="A201" s="9"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
       <c r="E201" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="8"/>
-      <c r="B202" s="10"/>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
+      <c r="A202" s="9"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
       <c r="E202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="9"/>
-      <c r="B203" s="10"/>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
+      <c r="A203" s="10"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
       <c r="E203" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F203" s="3"/>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="7" t="s">
+      <c r="A205" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B205" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="10" t="s">
+      <c r="B205" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D205" s="10" t="s">
+      <c r="D205" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -3914,56 +4176,56 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="8"/>
-      <c r="B206" s="10"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
+      <c r="A206" s="9"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
       <c r="E206" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="8"/>
-      <c r="B207" s="10"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
+      <c r="A207" s="9"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
       <c r="E207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="9"/>
-      <c r="B208" s="10"/>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
+      <c r="A208" s="10"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
       <c r="E208" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F208" s="3"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-      <c r="F210" s="6"/>
+      <c r="B210" s="13"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="7" t="s">
+      <c r="A211" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B211" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="10" t="s">
+      <c r="B211" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D211" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -3972,46 +4234,46 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="8"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
+      <c r="A212" s="9"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
       <c r="E212" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F212" s="3"/>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="8"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10"/>
+      <c r="A213" s="9"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
       <c r="E213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="9"/>
-      <c r="B214" s="10"/>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
+      <c r="A214" s="10"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
       <c r="E214" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F214" s="3"/>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="7" t="s">
+      <c r="A216" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B216" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="10" t="s">
+      <c r="B216" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D216" s="10" t="s">
+      <c r="D216" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -4020,46 +4282,46 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="8"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
+      <c r="A217" s="9"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
       <c r="E217" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F217" s="3"/>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="8"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
+      <c r="A218" s="9"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
       <c r="E218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="9"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
+      <c r="A219" s="10"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
       <c r="E219" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F219" s="3"/>
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B221" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="10" t="s">
+      <c r="B221" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D221" s="10" t="s">
+      <c r="D221" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -4068,46 +4330,46 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="8"/>
-      <c r="B222" s="10"/>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
+      <c r="A222" s="9"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
       <c r="E222" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F222" s="3"/>
     </row>
     <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="8"/>
-      <c r="B223" s="10"/>
-      <c r="C223" s="10"/>
-      <c r="D223" s="10"/>
+      <c r="A223" s="9"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
       <c r="E223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="9"/>
-      <c r="B224" s="10"/>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10"/>
+      <c r="A224" s="10"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
       <c r="E224" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F224" s="3"/>
     </row>
     <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="7" t="s">
+      <c r="A226" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B226" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="10" t="s">
+      <c r="B226" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D226" s="10" t="s">
+      <c r="D226" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -4116,46 +4378,46 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="8"/>
-      <c r="B227" s="10"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
+      <c r="A227" s="9"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
       <c r="E227" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F227" s="3"/>
     </row>
     <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="8"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
+      <c r="A228" s="9"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
       <c r="E228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="9"/>
-      <c r="B229" s="10"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
+      <c r="A229" s="10"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
       <c r="E229" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F229" s="3"/>
     </row>
     <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="7" t="s">
+      <c r="A231" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B231" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="10" t="s">
+      <c r="B231" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D231" s="10" t="s">
+      <c r="D231" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -4164,56 +4426,56 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="8"/>
-      <c r="B232" s="10"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="10"/>
+      <c r="A232" s="9"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
       <c r="E232" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="8"/>
-      <c r="B233" s="10"/>
-      <c r="C233" s="10"/>
-      <c r="D233" s="10"/>
+      <c r="A233" s="9"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
       <c r="E233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="9"/>
-      <c r="B234" s="10"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
+      <c r="A234" s="10"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
       <c r="E234" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F234" s="3"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
-      <c r="F236" s="6"/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="7" t="s">
+      <c r="A237" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B237" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="10" t="s">
+      <c r="B237" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D237" s="10" t="s">
+      <c r="D237" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -4222,46 +4484,46 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="8"/>
-      <c r="B238" s="10"/>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10"/>
+      <c r="A238" s="9"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
       <c r="E238" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="8"/>
-      <c r="B239" s="10"/>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
+      <c r="A239" s="9"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
       <c r="E239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="9"/>
-      <c r="B240" s="10"/>
-      <c r="C240" s="10"/>
-      <c r="D240" s="10"/>
+      <c r="A240" s="10"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
       <c r="E240" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F240" s="3"/>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="7" t="s">
+      <c r="A242" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B242" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="10" t="s">
+      <c r="B242" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D242" s="10" t="s">
+      <c r="D242" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -4270,46 +4532,46 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="8"/>
-      <c r="B243" s="10"/>
-      <c r="C243" s="10"/>
-      <c r="D243" s="10"/>
+      <c r="A243" s="9"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
       <c r="E243" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F243" s="3"/>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A244" s="8"/>
-      <c r="B244" s="10"/>
-      <c r="C244" s="10"/>
-      <c r="D244" s="10"/>
+      <c r="A244" s="9"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
       <c r="E244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A245" s="9"/>
-      <c r="B245" s="10"/>
-      <c r="C245" s="10"/>
-      <c r="D245" s="10"/>
+      <c r="A245" s="10"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
       <c r="E245" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F245" s="3"/>
     </row>
     <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="7" t="s">
+      <c r="A247" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B247" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="10" t="s">
+      <c r="B247" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D247" s="10" t="s">
+      <c r="D247" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -4318,46 +4580,46 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="8"/>
-      <c r="B248" s="10"/>
-      <c r="C248" s="10"/>
-      <c r="D248" s="10"/>
+      <c r="A248" s="9"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="11"/>
       <c r="E248" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="8"/>
-      <c r="B249" s="10"/>
-      <c r="C249" s="10"/>
-      <c r="D249" s="10"/>
+      <c r="A249" s="9"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
       <c r="E249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A250" s="9"/>
-      <c r="B250" s="10"/>
-      <c r="C250" s="10"/>
-      <c r="D250" s="10"/>
+      <c r="A250" s="10"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
       <c r="E250" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F250" s="3"/>
     </row>
     <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A252" s="7" t="s">
+      <c r="A252" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B252" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="10" t="s">
+      <c r="B252" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D252" s="10" t="s">
+      <c r="D252" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -4366,46 +4628,46 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="8"/>
-      <c r="B253" s="10"/>
-      <c r="C253" s="10"/>
-      <c r="D253" s="10"/>
+      <c r="A253" s="9"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
       <c r="E253" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A254" s="8"/>
-      <c r="B254" s="10"/>
-      <c r="C254" s="10"/>
-      <c r="D254" s="10"/>
+      <c r="A254" s="9"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="11"/>
+      <c r="D254" s="11"/>
       <c r="E254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="9"/>
-      <c r="B255" s="10"/>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10"/>
+      <c r="A255" s="10"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="11"/>
+      <c r="D255" s="11"/>
       <c r="E255" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F255" s="3"/>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="7" t="s">
+      <c r="A257" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B257" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="10" t="s">
+      <c r="B257" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D257" s="10" t="s">
+      <c r="D257" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -4414,56 +4676,56 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="8"/>
-      <c r="B258" s="10"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="10"/>
+      <c r="A258" s="9"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
       <c r="E258" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F258" s="3"/>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="8"/>
-      <c r="B259" s="10"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="10"/>
+      <c r="A259" s="9"/>
+      <c r="B259" s="11"/>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
       <c r="E259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="9"/>
-      <c r="B260" s="10"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
+      <c r="A260" s="10"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
       <c r="E260" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F260" s="3"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="5" t="s">
+      <c r="A262" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="6"/>
+      <c r="B262" s="13"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="7" t="s">
+      <c r="A263" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B263" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="10" t="s">
+      <c r="B263" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D263" s="10" t="s">
+      <c r="D263" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -4472,46 +4734,46 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="8"/>
-      <c r="B264" s="10"/>
-      <c r="C264" s="10"/>
-      <c r="D264" s="10"/>
+      <c r="A264" s="9"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
       <c r="E264" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F264" s="3"/>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="8"/>
-      <c r="B265" s="10"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="10"/>
+      <c r="A265" s="9"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="11"/>
+      <c r="D265" s="11"/>
       <c r="E265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="9"/>
-      <c r="B266" s="10"/>
-      <c r="C266" s="10"/>
-      <c r="D266" s="10"/>
+      <c r="A266" s="10"/>
+      <c r="B266" s="11"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
       <c r="E266" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F266" s="3"/>
     </row>
     <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="7" t="s">
+      <c r="A268" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B268" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C268" s="10" t="s">
+      <c r="B268" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D268" s="10" t="s">
+      <c r="D268" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -4520,46 +4782,46 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="8"/>
-      <c r="B269" s="10"/>
-      <c r="C269" s="10"/>
-      <c r="D269" s="10"/>
+      <c r="A269" s="9"/>
+      <c r="B269" s="11"/>
+      <c r="C269" s="11"/>
+      <c r="D269" s="11"/>
       <c r="E269" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="8"/>
-      <c r="B270" s="10"/>
-      <c r="C270" s="10"/>
-      <c r="D270" s="10"/>
+      <c r="A270" s="9"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
       <c r="E270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="9"/>
-      <c r="B271" s="10"/>
-      <c r="C271" s="10"/>
-      <c r="D271" s="10"/>
+      <c r="A271" s="10"/>
+      <c r="B271" s="11"/>
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
       <c r="E271" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F271" s="3"/>
     </row>
     <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A273" s="7" t="s">
+      <c r="A273" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B273" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C273" s="10" t="s">
+      <c r="B273" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D273" s="10" t="s">
+      <c r="D273" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -4568,46 +4830,46 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A274" s="8"/>
-      <c r="B274" s="10"/>
-      <c r="C274" s="10"/>
-      <c r="D274" s="10"/>
+      <c r="A274" s="9"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
       <c r="E274" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A275" s="8"/>
-      <c r="B275" s="10"/>
-      <c r="C275" s="10"/>
-      <c r="D275" s="10"/>
+      <c r="A275" s="9"/>
+      <c r="B275" s="11"/>
+      <c r="C275" s="11"/>
+      <c r="D275" s="11"/>
       <c r="E275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="9"/>
-      <c r="B276" s="10"/>
-      <c r="C276" s="10"/>
-      <c r="D276" s="10"/>
+      <c r="A276" s="10"/>
+      <c r="B276" s="11"/>
+      <c r="C276" s="11"/>
+      <c r="D276" s="11"/>
       <c r="E276" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F276" s="3"/>
     </row>
     <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="7" t="s">
+      <c r="A278" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B278" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C278" s="10" t="s">
+      <c r="B278" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D278" s="10" t="s">
+      <c r="D278" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -4616,46 +4878,46 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A279" s="8"/>
-      <c r="B279" s="10"/>
-      <c r="C279" s="10"/>
-      <c r="D279" s="10"/>
+      <c r="A279" s="9"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
       <c r="E279" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F279" s="3"/>
     </row>
     <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A280" s="8"/>
-      <c r="B280" s="10"/>
-      <c r="C280" s="10"/>
-      <c r="D280" s="10"/>
+      <c r="A280" s="9"/>
+      <c r="B280" s="11"/>
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
       <c r="E280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A281" s="9"/>
-      <c r="B281" s="10"/>
-      <c r="C281" s="10"/>
-      <c r="D281" s="10"/>
+      <c r="A281" s="10"/>
+      <c r="B281" s="11"/>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
       <c r="E281" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F281" s="3"/>
     </row>
     <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="7" t="s">
+      <c r="A283" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B283" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C283" s="10" t="s">
+      <c r="B283" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D283" s="10" t="s">
+      <c r="D283" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -4664,56 +4926,56 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" s="8"/>
-      <c r="B284" s="10"/>
-      <c r="C284" s="10"/>
-      <c r="D284" s="10"/>
+      <c r="A284" s="9"/>
+      <c r="B284" s="11"/>
+      <c r="C284" s="11"/>
+      <c r="D284" s="11"/>
       <c r="E284" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="8"/>
-      <c r="B285" s="10"/>
-      <c r="C285" s="10"/>
-      <c r="D285" s="10"/>
+      <c r="A285" s="9"/>
+      <c r="B285" s="11"/>
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
       <c r="E285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A286" s="9"/>
-      <c r="B286" s="10"/>
-      <c r="C286" s="10"/>
-      <c r="D286" s="10"/>
+      <c r="A286" s="10"/>
+      <c r="B286" s="11"/>
+      <c r="C286" s="11"/>
+      <c r="D286" s="11"/>
       <c r="E286" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F286" s="3"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="5" t="s">
+      <c r="A288" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B288" s="6"/>
-      <c r="C288" s="6"/>
-      <c r="D288" s="6"/>
-      <c r="E288" s="6"/>
-      <c r="F288" s="6"/>
+      <c r="B288" s="13"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13"/>
     </row>
     <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A289" s="7" t="s">
+      <c r="A289" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289" s="10" t="s">
+      <c r="B289" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D289" s="10" t="s">
+      <c r="D289" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E289" s="2" t="s">
@@ -4722,46 +4984,46 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="8"/>
-      <c r="B290" s="10"/>
-      <c r="C290" s="10"/>
-      <c r="D290" s="10"/>
+      <c r="A290" s="9"/>
+      <c r="B290" s="11"/>
+      <c r="C290" s="11"/>
+      <c r="D290" s="11"/>
       <c r="E290" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F290" s="3"/>
     </row>
     <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="8"/>
-      <c r="B291" s="10"/>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10"/>
+      <c r="A291" s="9"/>
+      <c r="B291" s="11"/>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
       <c r="E291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A292" s="9"/>
-      <c r="B292" s="10"/>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
+      <c r="A292" s="10"/>
+      <c r="B292" s="11"/>
+      <c r="C292" s="11"/>
+      <c r="D292" s="11"/>
       <c r="E292" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F292" s="3"/>
     </row>
     <row r="294" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A294" s="7" t="s">
+      <c r="A294" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B294" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="10" t="s">
+      <c r="B294" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D294" s="10" t="s">
+      <c r="D294" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E294" s="2" t="s">
@@ -4770,46 +5032,46 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="8"/>
-      <c r="B295" s="10"/>
-      <c r="C295" s="10"/>
-      <c r="D295" s="10"/>
+      <c r="A295" s="9"/>
+      <c r="B295" s="11"/>
+      <c r="C295" s="11"/>
+      <c r="D295" s="11"/>
       <c r="E295" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F295" s="3"/>
     </row>
     <row r="296" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="8"/>
-      <c r="B296" s="10"/>
-      <c r="C296" s="10"/>
-      <c r="D296" s="10"/>
+      <c r="A296" s="9"/>
+      <c r="B296" s="11"/>
+      <c r="C296" s="11"/>
+      <c r="D296" s="11"/>
       <c r="E296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="9"/>
-      <c r="B297" s="10"/>
-      <c r="C297" s="10"/>
-      <c r="D297" s="10"/>
+      <c r="A297" s="10"/>
+      <c r="B297" s="11"/>
+      <c r="C297" s="11"/>
+      <c r="D297" s="11"/>
       <c r="E297" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F297" s="3"/>
     </row>
     <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A299" s="7" t="s">
+      <c r="A299" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B299" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C299" s="10" t="s">
+      <c r="B299" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D299" s="10" t="s">
+      <c r="D299" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E299" s="2" t="s">
@@ -4818,46 +5080,46 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A300" s="8"/>
-      <c r="B300" s="10"/>
-      <c r="C300" s="10"/>
-      <c r="D300" s="10"/>
+      <c r="A300" s="9"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
       <c r="E300" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F300" s="3"/>
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="8"/>
-      <c r="B301" s="10"/>
-      <c r="C301" s="10"/>
-      <c r="D301" s="10"/>
+      <c r="A301" s="9"/>
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
       <c r="E301" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A302" s="9"/>
-      <c r="B302" s="10"/>
-      <c r="C302" s="10"/>
-      <c r="D302" s="10"/>
+      <c r="A302" s="10"/>
+      <c r="B302" s="11"/>
+      <c r="C302" s="11"/>
+      <c r="D302" s="11"/>
       <c r="E302" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F302" s="3"/>
     </row>
     <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304" s="7" t="s">
+      <c r="A304" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B304" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C304" s="10" t="s">
+      <c r="B304" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D304" s="10" t="s">
+      <c r="D304" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E304" s="2" t="s">
@@ -4866,46 +5128,46 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A305" s="8"/>
-      <c r="B305" s="10"/>
-      <c r="C305" s="10"/>
-      <c r="D305" s="10"/>
+      <c r="A305" s="9"/>
+      <c r="B305" s="11"/>
+      <c r="C305" s="11"/>
+      <c r="D305" s="11"/>
       <c r="E305" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F305" s="3"/>
     </row>
     <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A306" s="8"/>
-      <c r="B306" s="10"/>
-      <c r="C306" s="10"/>
-      <c r="D306" s="10"/>
+      <c r="A306" s="9"/>
+      <c r="B306" s="11"/>
+      <c r="C306" s="11"/>
+      <c r="D306" s="11"/>
       <c r="E306" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A307" s="9"/>
-      <c r="B307" s="10"/>
-      <c r="C307" s="10"/>
-      <c r="D307" s="10"/>
+      <c r="A307" s="10"/>
+      <c r="B307" s="11"/>
+      <c r="C307" s="11"/>
+      <c r="D307" s="11"/>
       <c r="E307" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F307" s="3"/>
     </row>
     <row r="309" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="7" t="s">
+      <c r="A309" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B309" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="10" t="s">
+      <c r="B309" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D309" s="10" t="s">
+      <c r="D309" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E309" s="2" t="s">
@@ -4914,30 +5176,30 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A310" s="8"/>
-      <c r="B310" s="10"/>
-      <c r="C310" s="10"/>
-      <c r="D310" s="10"/>
+      <c r="A310" s="9"/>
+      <c r="B310" s="11"/>
+      <c r="C310" s="11"/>
+      <c r="D310" s="11"/>
       <c r="E310" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A311" s="8"/>
-      <c r="B311" s="10"/>
-      <c r="C311" s="10"/>
-      <c r="D311" s="10"/>
+      <c r="A311" s="9"/>
+      <c r="B311" s="11"/>
+      <c r="C311" s="11"/>
+      <c r="D311" s="11"/>
       <c r="E311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="9"/>
-      <c r="B312" s="10"/>
-      <c r="C312" s="10"/>
-      <c r="D312" s="10"/>
+      <c r="A312" s="10"/>
+      <c r="B312" s="11"/>
+      <c r="C312" s="11"/>
+      <c r="D312" s="11"/>
       <c r="E312" s="3" t="s">
         <v>13</v>
       </c>
@@ -4945,234 +5207,6 @@
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="D309:D312"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="D299:D302"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="D283:D286"/>
-    <mergeCell ref="A288:F288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="D273:D276"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="D263:D266"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="B268:B271"/>
-    <mergeCell ref="C268:C271"/>
-    <mergeCell ref="D268:D271"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="D257:D260"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="D247:D250"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="D237:D240"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="D221:D224"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="D211:D214"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="D205:D208"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="D195:D198"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A6"/>
@@ -5197,6 +5231,234 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="D205:D208"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="D195:D198"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="D211:D214"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="D216:D219"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="D237:D240"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="D257:D260"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D245"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="D247:D250"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="D273:D276"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="D263:D266"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="C268:C271"/>
+    <mergeCell ref="D268:D271"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="D283:D286"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="D309:D312"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="D299:D302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5212,6 +5474,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088059E6DDC6DF445B0AB87CAA811C0D0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314c580fd60c3711a3e3031240862aa0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae328def-a07b-4370-9a10-828a34f91ce9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5728a0d98f3ba8ecfca4ece15eb01571" ns2:_="">
     <xsd:import namespace="ae328def-a07b-4370-9a10-828a34f91ce9"/>
@@ -5355,12 +5623,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
   <ds:schemaRefs>
@@ -5370,6 +5632,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9759A726-586A-4C39-A765-CAA32818CEB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5385,13 +5656,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PRT585_Group _7_TimeSheet.xlsx
+++ b/PRT585_Group _7_TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabili/PRT585_S2023_Group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F4150-3F71-084A-A5FC-957B83AC8AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAA4611-0932-0F49-AA02-BF6C359F4A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="1620" windowWidth="32800" windowHeight="19020" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
+    <workbookView xWindow="5600" yWindow="1620" windowWidth="32800" windowHeight="19020" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 7 Timesheet" sheetId="15" r:id="rId1"/>
@@ -254,10 +254,6 @@
     <t>Date &amp; Time</t>
   </si>
   <si>
-    <t>1. Learn Github from Youtube 
-2. Demonstrate how to use Github desktop</t>
-  </si>
-  <si>
     <t>13/7 10:00 to 12:00</t>
   </si>
   <si>
@@ -276,6 +272,11 @@
   </si>
   <si>
     <t>Mac OS users can't install SQL Express</t>
+  </si>
+  <si>
+    <t>1. Learn Github from Youtube 
+2. Demonstrate how to use Github desktop
+3. Update timesheet</t>
   </si>
 </sst>
 </file>
@@ -307,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -451,16 +458,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,44 +509,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +841,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -842,7 +852,7 @@
     <col min="4" max="4" width="43.1640625" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="8" customWidth="1"/>
     <col min="8" max="8" width="63.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -865,1235 +875,1279 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="20" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>68</v>
+      <c r="G5" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>69</v>
+      <c r="G7" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="22"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="20"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="15"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="22"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="22"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="22"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="20"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="15"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="21"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="22"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="22"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="22"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="20"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="15"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="20" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="22"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="21"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="22"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="21"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="22"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="20"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="15"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="20" t="s">
         <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="21"/>
+      <c r="G43" s="6"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="22"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="21"/>
+      <c r="G45" s="6"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="22"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="21"/>
+      <c r="G47" s="6"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="22"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="20"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="15"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="21"/>
+      <c r="G51" s="6"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="3"/>
-      <c r="G52" s="22"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="21"/>
+      <c r="G53" s="6"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="3"/>
-      <c r="G54" s="22"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
       <c r="E55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="21"/>
+      <c r="G55" s="6"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="22"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="20"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="15"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="21"/>
+      <c r="G59" s="6"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="3"/>
-      <c r="G60" s="22"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="6"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="3"/>
-      <c r="G62" s="22"/>
+      <c r="G62" s="7"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="21"/>
+      <c r="G63" s="6"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
       <c r="E64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="3"/>
-      <c r="G64" s="22"/>
+      <c r="G64" s="7"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="20"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="15"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="21"/>
+      <c r="G67" s="6"/>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="3"/>
-      <c r="G68" s="22"/>
+      <c r="G68" s="7"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="21"/>
+      <c r="G69" s="6"/>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="3"/>
-      <c r="G70" s="22"/>
+      <c r="G70" s="7"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
       <c r="E71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="6"/>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F72" s="3"/>
-      <c r="G72" s="22"/>
+      <c r="G72" s="7"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="20"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="15"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="20" t="s">
         <v>52</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="2"/>
-      <c r="G75" s="21"/>
+      <c r="G75" s="6"/>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="3"/>
-      <c r="G76" s="22"/>
+      <c r="G76" s="7"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2"/>
-      <c r="G77" s="21"/>
+      <c r="G77" s="6"/>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="3"/>
-      <c r="G78" s="22"/>
+      <c r="G78" s="7"/>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2"/>
-      <c r="G79" s="21"/>
+      <c r="G79" s="6"/>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
       <c r="E80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F80" s="3"/>
-      <c r="G80" s="22"/>
+      <c r="G80" s="7"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="20"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="15"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="B83" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="20" t="s">
         <v>55</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="21"/>
+      <c r="G83" s="6"/>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="3"/>
-      <c r="G84" s="22"/>
+      <c r="G84" s="7"/>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
       <c r="E85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="2"/>
-      <c r="G85" s="21"/>
+      <c r="G85" s="6"/>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="3"/>
-      <c r="G86" s="22"/>
+      <c r="G86" s="7"/>
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="21"/>
+      <c r="G87" s="6"/>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="10"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F88" s="3"/>
-      <c r="G88" s="22"/>
+      <c r="G88" s="7"/>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="20"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="15"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="2"/>
-      <c r="G91" s="21"/>
+      <c r="G91" s="6"/>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3"/>
-      <c r="G92" s="22"/>
+      <c r="G92" s="7"/>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2"/>
-      <c r="G93" s="21"/>
+      <c r="G93" s="6"/>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="3"/>
-      <c r="G94" s="22"/>
+      <c r="G94" s="7"/>
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
       <c r="E95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="2"/>
-      <c r="G95" s="21"/>
+      <c r="G95" s="6"/>
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
       <c r="E96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F96" s="3"/>
-      <c r="G96" s="22"/>
+      <c r="G96" s="7"/>
       <c r="H96" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:A16"/>
@@ -2106,59 +2160,15 @@
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="D19:D24"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2204,26 +2214,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2234,46 +2244,46 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2282,46 +2292,46 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2330,46 +2340,46 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2378,46 +2388,46 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2426,56 +2436,56 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2484,46 +2494,46 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2532,46 +2542,46 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="B39" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2580,46 +2590,46 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2628,46 +2638,46 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2676,56 +2686,56 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2734,46 +2744,46 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2782,46 +2792,46 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
       <c r="E61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
       <c r="E63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2830,46 +2840,46 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2878,46 +2888,46 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
       <c r="E71" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="10"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
       <c r="E73" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -2926,56 +2936,56 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="11" t="s">
+      <c r="B81" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -2984,46 +2994,46 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
       <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="B86" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -3032,46 +3042,46 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
       <c r="E89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -3080,46 +3090,46 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="11" t="s">
+      <c r="B96" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -3128,46 +3138,46 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
       <c r="E97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="10"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
       <c r="E99" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="3"/>
     </row>
     <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="11" t="s">
+      <c r="B101" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -3176,56 +3186,56 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="9"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
       <c r="E102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="10"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F104" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="11" t="s">
+      <c r="B107" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -3234,46 +3244,46 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="9"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
       <c r="E108" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="9"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
       <c r="E109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
       <c r="E110" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F110" s="3"/>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="11" t="s">
+      <c r="B112" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3282,46 +3292,46 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
       <c r="E113" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
       <c r="E115" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F115" s="3"/>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="11" t="s">
+      <c r="B117" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3330,46 +3340,46 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="9"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
       <c r="E118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="9"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
       <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="10"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
       <c r="E120" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F120" s="3"/>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="11" t="s">
+      <c r="B122" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3378,46 +3388,46 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
       <c r="E123" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="10"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
       <c r="E125" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F125" s="3"/>
     </row>
     <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="11" t="s">
+      <c r="B127" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3426,56 +3436,56 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="9"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
+      <c r="A128" s="18"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
       <c r="E128" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="9"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="10"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
       <c r="E130" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F130" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
     </row>
     <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="11" t="s">
+      <c r="B133" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3484,46 +3494,46 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="9"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
+      <c r="A134" s="18"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
       <c r="E134" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="9"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
       <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="10"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
       <c r="E136" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F136" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="11" t="s">
+      <c r="B138" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -3532,46 +3542,46 @@
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="9"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
+      <c r="A139" s="18"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
       <c r="E139" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="9"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="10"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
       <c r="E141" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F141" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="11" t="s">
+      <c r="B143" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3580,46 +3590,46 @@
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="9"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
       <c r="E144" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
+      <c r="A145" s="18"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
       <c r="E145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="10"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
       <c r="E146" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F146" s="3"/>
     </row>
     <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="11" t="s">
+      <c r="B148" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3628,46 +3638,46 @@
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="9"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
       <c r="E149" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="9"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
+      <c r="A150" s="18"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
       <c r="E150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="10"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
       <c r="E151" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F151" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B153" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="11" t="s">
+      <c r="B153" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3676,56 +3686,56 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="9"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
       <c r="E154" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="9"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="10"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
       <c r="E156" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="3"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B159" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="11" t="s">
+      <c r="B159" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -3734,46 +3744,46 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="9"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
+      <c r="A160" s="18"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
       <c r="E160" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="9"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
       <c r="E161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="10"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
       <c r="E162" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F162" s="3"/>
     </row>
     <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B164" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="11" t="s">
+      <c r="B164" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D164" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -3782,46 +3792,46 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="9"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
       <c r="E165" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="9"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
+      <c r="A166" s="18"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
       <c r="E166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="10"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
       <c r="E167" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F167" s="3"/>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="11" t="s">
+      <c r="B169" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D169" s="11" t="s">
+      <c r="D169" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -3830,46 +3840,46 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="9"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
+      <c r="A170" s="18"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
       <c r="E170" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="9"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
       <c r="E171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="10"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
       <c r="E172" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F172" s="3"/>
     </row>
     <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="11" t="s">
+      <c r="B174" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -3878,46 +3888,46 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="9"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
+      <c r="A175" s="18"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
       <c r="E175" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F175" s="3"/>
     </row>
     <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="9"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
+      <c r="A176" s="18"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
       <c r="E176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="10"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
       <c r="E177" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F177" s="3"/>
     </row>
     <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B179" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="11" t="s">
+      <c r="B179" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D179" s="11" t="s">
+      <c r="D179" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -3926,56 +3936,56 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="9"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
+      <c r="A180" s="18"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
       <c r="E180" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="9"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
+      <c r="A181" s="18"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
       <c r="E181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="10"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
       <c r="E182" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F182" s="3"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B184" s="13"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="16"/>
     </row>
     <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="11" t="s">
+      <c r="B185" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D185" s="11" t="s">
+      <c r="D185" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -3984,46 +3994,46 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="9"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
+      <c r="A186" s="18"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
       <c r="E186" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="9"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
+      <c r="A187" s="18"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
       <c r="E187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="10"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
       <c r="E188" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F188" s="3"/>
     </row>
     <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B190" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="11" t="s">
+      <c r="B190" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -4032,46 +4042,46 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="9"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
+      <c r="A191" s="18"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20"/>
       <c r="E191" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="9"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
+      <c r="A192" s="18"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="20"/>
       <c r="E192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="10"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
       <c r="E193" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F193" s="3"/>
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="11" t="s">
+      <c r="B195" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D195" s="11" t="s">
+      <c r="D195" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -4080,46 +4090,46 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="9"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
+      <c r="A196" s="18"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
       <c r="E196" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="9"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
+      <c r="A197" s="18"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20"/>
       <c r="E197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198" s="10"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
       <c r="E198" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F198" s="3"/>
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B200" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="11" t="s">
+      <c r="B200" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D200" s="11" t="s">
+      <c r="D200" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -4128,46 +4138,46 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="9"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
+      <c r="A201" s="18"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
       <c r="E201" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="9"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
+      <c r="A202" s="18"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="20"/>
       <c r="E202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="10"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
+      <c r="A203" s="19"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
       <c r="E203" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F203" s="3"/>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B205" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="11" t="s">
+      <c r="B205" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D205" s="11" t="s">
+      <c r="D205" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -4176,56 +4186,56 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="9"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
+      <c r="A206" s="18"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
       <c r="E206" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="9"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
+      <c r="A207" s="18"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="20"/>
       <c r="E207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="10"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
-      <c r="D208" s="11"/>
+      <c r="A208" s="19"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="20"/>
       <c r="E208" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F208" s="3"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B210" s="13"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="16"/>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B211" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="11" t="s">
+      <c r="B211" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D211" s="11" t="s">
+      <c r="D211" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -4234,46 +4244,46 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="9"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
+      <c r="A212" s="18"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="20"/>
       <c r="E212" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F212" s="3"/>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="9"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-      <c r="D213" s="11"/>
+      <c r="A213" s="18"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="20"/>
       <c r="E213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="10"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="11"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="20"/>
       <c r="E214" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F214" s="3"/>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B216" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="11" t="s">
+      <c r="B216" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D216" s="11" t="s">
+      <c r="D216" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -4282,46 +4292,46 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="9"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
+      <c r="A217" s="18"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="20"/>
       <c r="E217" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F217" s="3"/>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="9"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
-      <c r="D218" s="11"/>
+      <c r="A218" s="18"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="20"/>
       <c r="E218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="10"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
+      <c r="A219" s="19"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
       <c r="E219" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F219" s="3"/>
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B221" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="11" t="s">
+      <c r="B221" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D221" s="11" t="s">
+      <c r="D221" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -4330,46 +4340,46 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="9"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
+      <c r="A222" s="18"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="20"/>
       <c r="E222" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F222" s="3"/>
     </row>
     <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="9"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="11"/>
-      <c r="D223" s="11"/>
+      <c r="A223" s="18"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="20"/>
       <c r="E223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="10"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="11"/>
-      <c r="D224" s="11"/>
+      <c r="A224" s="19"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="20"/>
       <c r="E224" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F224" s="3"/>
     </row>
     <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B226" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="11" t="s">
+      <c r="B226" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D226" s="11" t="s">
+      <c r="D226" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -4378,46 +4388,46 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="9"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="11"/>
-      <c r="D227" s="11"/>
+      <c r="A227" s="18"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
       <c r="E227" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F227" s="3"/>
     </row>
     <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="9"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="11"/>
+      <c r="A228" s="18"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
       <c r="E228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="10"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
+      <c r="A229" s="19"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20"/>
       <c r="E229" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F229" s="3"/>
     </row>
     <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="8" t="s">
+      <c r="A231" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B231" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="11" t="s">
+      <c r="B231" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D231" s="11" t="s">
+      <c r="D231" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -4426,56 +4436,56 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="9"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
+      <c r="A232" s="18"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
       <c r="E232" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="9"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="11"/>
-      <c r="D233" s="11"/>
+      <c r="A233" s="18"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
       <c r="E233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="10"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="11"/>
-      <c r="D234" s="11"/>
+      <c r="A234" s="19"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="20"/>
       <c r="E234" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F234" s="3"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B236" s="13"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="13"/>
-      <c r="E236" s="13"/>
-      <c r="F236" s="13"/>
+      <c r="B236" s="16"/>
+      <c r="C236" s="16"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="16"/>
+      <c r="F236" s="16"/>
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="8" t="s">
+      <c r="A237" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B237" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="11" t="s">
+      <c r="B237" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D237" s="11" t="s">
+      <c r="D237" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -4484,46 +4494,46 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="9"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
-      <c r="D238" s="11"/>
+      <c r="A238" s="18"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="20"/>
       <c r="E238" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="9"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
+      <c r="A239" s="18"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="20"/>
       <c r="E239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="10"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
+      <c r="A240" s="19"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="20"/>
       <c r="E240" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F240" s="3"/>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="8" t="s">
+      <c r="A242" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B242" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="11" t="s">
+      <c r="B242" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D242" s="11" t="s">
+      <c r="D242" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -4532,46 +4542,46 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="9"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="11"/>
+      <c r="A243" s="18"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="20"/>
       <c r="E243" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F243" s="3"/>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A244" s="9"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
+      <c r="A244" s="18"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="20"/>
       <c r="E244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A245" s="10"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="11"/>
-      <c r="D245" s="11"/>
+      <c r="A245" s="19"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="20"/>
       <c r="E245" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F245" s="3"/>
     </row>
     <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B247" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="11" t="s">
+      <c r="B247" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D247" s="11" t="s">
+      <c r="D247" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -4580,46 +4590,46 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="9"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
+      <c r="A248" s="18"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="20"/>
       <c r="E248" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="9"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
+      <c r="A249" s="18"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="20"/>
       <c r="E249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A250" s="10"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
+      <c r="A250" s="19"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="20"/>
       <c r="E250" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F250" s="3"/>
     </row>
     <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A252" s="8" t="s">
+      <c r="A252" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B252" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="11" t="s">
+      <c r="B252" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D252" s="11" t="s">
+      <c r="D252" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -4628,46 +4638,46 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="9"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="11"/>
-      <c r="D253" s="11"/>
+      <c r="A253" s="18"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="20"/>
       <c r="E253" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A254" s="9"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="11"/>
-      <c r="D254" s="11"/>
+      <c r="A254" s="18"/>
+      <c r="B254" s="20"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="20"/>
       <c r="E254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="10"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="11"/>
-      <c r="D255" s="11"/>
+      <c r="A255" s="19"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="20"/>
       <c r="E255" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F255" s="3"/>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="8" t="s">
+      <c r="A257" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B257" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="11" t="s">
+      <c r="B257" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D257" s="11" t="s">
+      <c r="D257" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -4676,56 +4686,56 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="9"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
-      <c r="D258" s="11"/>
+      <c r="A258" s="18"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="20"/>
       <c r="E258" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F258" s="3"/>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="9"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
-      <c r="D259" s="11"/>
+      <c r="A259" s="18"/>
+      <c r="B259" s="20"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="20"/>
       <c r="E259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="10"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
-      <c r="D260" s="11"/>
+      <c r="A260" s="19"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="20"/>
       <c r="E260" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F260" s="3"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B262" s="13"/>
-      <c r="C262" s="13"/>
-      <c r="D262" s="13"/>
-      <c r="E262" s="13"/>
-      <c r="F262" s="13"/>
+      <c r="B262" s="16"/>
+      <c r="C262" s="16"/>
+      <c r="D262" s="16"/>
+      <c r="E262" s="16"/>
+      <c r="F262" s="16"/>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="8" t="s">
+      <c r="A263" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B263" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="11" t="s">
+      <c r="B263" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D263" s="11" t="s">
+      <c r="D263" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -4734,46 +4744,46 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="9"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="11"/>
+      <c r="A264" s="18"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="20"/>
       <c r="E264" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F264" s="3"/>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="9"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="11"/>
-      <c r="D265" s="11"/>
+      <c r="A265" s="18"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="20"/>
       <c r="E265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="10"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="11"/>
-      <c r="D266" s="11"/>
+      <c r="A266" s="19"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="20"/>
       <c r="E266" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F266" s="3"/>
     </row>
     <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="8" t="s">
+      <c r="A268" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B268" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C268" s="11" t="s">
+      <c r="B268" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D268" s="11" t="s">
+      <c r="D268" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -4782,46 +4792,46 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="9"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="11"/>
-      <c r="D269" s="11"/>
+      <c r="A269" s="18"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="20"/>
       <c r="E269" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="9"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="11"/>
-      <c r="D270" s="11"/>
+      <c r="A270" s="18"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="20"/>
       <c r="E270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="10"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="11"/>
-      <c r="D271" s="11"/>
+      <c r="A271" s="19"/>
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="20"/>
       <c r="E271" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F271" s="3"/>
     </row>
     <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A273" s="8" t="s">
+      <c r="A273" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B273" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C273" s="11" t="s">
+      <c r="B273" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D273" s="11" t="s">
+      <c r="D273" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -4830,46 +4840,46 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A274" s="9"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
-      <c r="D274" s="11"/>
+      <c r="A274" s="18"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="20"/>
       <c r="E274" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A275" s="9"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
-      <c r="D275" s="11"/>
+      <c r="A275" s="18"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="20"/>
       <c r="E275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="10"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="11"/>
-      <c r="D276" s="11"/>
+      <c r="A276" s="19"/>
+      <c r="B276" s="20"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="20"/>
       <c r="E276" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F276" s="3"/>
     </row>
     <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="8" t="s">
+      <c r="A278" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B278" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C278" s="11" t="s">
+      <c r="B278" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D278" s="11" t="s">
+      <c r="D278" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -4878,46 +4888,46 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A279" s="9"/>
-      <c r="B279" s="11"/>
-      <c r="C279" s="11"/>
-      <c r="D279" s="11"/>
+      <c r="A279" s="18"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="20"/>
       <c r="E279" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F279" s="3"/>
     </row>
     <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A280" s="9"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="11"/>
-      <c r="D280" s="11"/>
+      <c r="A280" s="18"/>
+      <c r="B280" s="20"/>
+      <c r="C280" s="20"/>
+      <c r="D280" s="20"/>
       <c r="E280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A281" s="10"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="11"/>
-      <c r="D281" s="11"/>
+      <c r="A281" s="19"/>
+      <c r="B281" s="20"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="20"/>
       <c r="E281" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F281" s="3"/>
     </row>
     <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="8" t="s">
+      <c r="A283" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B283" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C283" s="11" t="s">
+      <c r="B283" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D283" s="11" t="s">
+      <c r="D283" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -4926,56 +4936,56 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" s="9"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="11"/>
-      <c r="D284" s="11"/>
+      <c r="A284" s="18"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="20"/>
       <c r="E284" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="9"/>
-      <c r="B285" s="11"/>
-      <c r="C285" s="11"/>
-      <c r="D285" s="11"/>
+      <c r="A285" s="18"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="20"/>
       <c r="E285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A286" s="10"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="11"/>
-      <c r="D286" s="11"/>
+      <c r="A286" s="19"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="20"/>
       <c r="E286" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F286" s="3"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B288" s="13"/>
-      <c r="C288" s="13"/>
-      <c r="D288" s="13"/>
-      <c r="E288" s="13"/>
-      <c r="F288" s="13"/>
+      <c r="B288" s="16"/>
+      <c r="C288" s="16"/>
+      <c r="D288" s="16"/>
+      <c r="E288" s="16"/>
+      <c r="F288" s="16"/>
     </row>
     <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A289" s="8" t="s">
+      <c r="A289" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289" s="11" t="s">
+      <c r="B289" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D289" s="11" t="s">
+      <c r="D289" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E289" s="2" t="s">
@@ -4984,46 +4994,46 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="9"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="11"/>
-      <c r="D290" s="11"/>
+      <c r="A290" s="18"/>
+      <c r="B290" s="20"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="20"/>
       <c r="E290" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F290" s="3"/>
     </row>
     <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="9"/>
-      <c r="B291" s="11"/>
-      <c r="C291" s="11"/>
-      <c r="D291" s="11"/>
+      <c r="A291" s="18"/>
+      <c r="B291" s="20"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="20"/>
       <c r="E291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A292" s="10"/>
-      <c r="B292" s="11"/>
-      <c r="C292" s="11"/>
-      <c r="D292" s="11"/>
+      <c r="A292" s="19"/>
+      <c r="B292" s="20"/>
+      <c r="C292" s="20"/>
+      <c r="D292" s="20"/>
       <c r="E292" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F292" s="3"/>
     </row>
     <row r="294" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A294" s="8" t="s">
+      <c r="A294" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B294" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="11" t="s">
+      <c r="B294" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D294" s="11" t="s">
+      <c r="D294" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E294" s="2" t="s">
@@ -5032,46 +5042,46 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="9"/>
-      <c r="B295" s="11"/>
-      <c r="C295" s="11"/>
-      <c r="D295" s="11"/>
+      <c r="A295" s="18"/>
+      <c r="B295" s="20"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="20"/>
       <c r="E295" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F295" s="3"/>
     </row>
     <row r="296" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="9"/>
-      <c r="B296" s="11"/>
-      <c r="C296" s="11"/>
-      <c r="D296" s="11"/>
+      <c r="A296" s="18"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="20"/>
       <c r="E296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="10"/>
-      <c r="B297" s="11"/>
-      <c r="C297" s="11"/>
-      <c r="D297" s="11"/>
+      <c r="A297" s="19"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="20"/>
       <c r="E297" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F297" s="3"/>
     </row>
     <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A299" s="8" t="s">
+      <c r="A299" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B299" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C299" s="11" t="s">
+      <c r="B299" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D299" s="11" t="s">
+      <c r="D299" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E299" s="2" t="s">
@@ -5080,46 +5090,46 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A300" s="9"/>
-      <c r="B300" s="11"/>
-      <c r="C300" s="11"/>
-      <c r="D300" s="11"/>
+      <c r="A300" s="18"/>
+      <c r="B300" s="20"/>
+      <c r="C300" s="20"/>
+      <c r="D300" s="20"/>
       <c r="E300" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F300" s="3"/>
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="9"/>
-      <c r="B301" s="11"/>
-      <c r="C301" s="11"/>
-      <c r="D301" s="11"/>
+      <c r="A301" s="18"/>
+      <c r="B301" s="20"/>
+      <c r="C301" s="20"/>
+      <c r="D301" s="20"/>
       <c r="E301" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A302" s="10"/>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
-      <c r="D302" s="11"/>
+      <c r="A302" s="19"/>
+      <c r="B302" s="20"/>
+      <c r="C302" s="20"/>
+      <c r="D302" s="20"/>
       <c r="E302" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F302" s="3"/>
     </row>
     <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304" s="8" t="s">
+      <c r="A304" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B304" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C304" s="11" t="s">
+      <c r="B304" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D304" s="11" t="s">
+      <c r="D304" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E304" s="2" t="s">
@@ -5128,46 +5138,46 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A305" s="9"/>
-      <c r="B305" s="11"/>
-      <c r="C305" s="11"/>
-      <c r="D305" s="11"/>
+      <c r="A305" s="18"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
+      <c r="D305" s="20"/>
       <c r="E305" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F305" s="3"/>
     </row>
     <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A306" s="9"/>
-      <c r="B306" s="11"/>
-      <c r="C306" s="11"/>
-      <c r="D306" s="11"/>
+      <c r="A306" s="18"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="20"/>
+      <c r="D306" s="20"/>
       <c r="E306" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A307" s="10"/>
-      <c r="B307" s="11"/>
-      <c r="C307" s="11"/>
-      <c r="D307" s="11"/>
+      <c r="A307" s="19"/>
+      <c r="B307" s="20"/>
+      <c r="C307" s="20"/>
+      <c r="D307" s="20"/>
       <c r="E307" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F307" s="3"/>
     </row>
     <row r="309" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="8" t="s">
+      <c r="A309" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B309" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="11" t="s">
+      <c r="B309" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D309" s="11" t="s">
+      <c r="D309" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E309" s="2" t="s">
@@ -5176,30 +5186,30 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A310" s="9"/>
-      <c r="B310" s="11"/>
-      <c r="C310" s="11"/>
-      <c r="D310" s="11"/>
+      <c r="A310" s="18"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="20"/>
+      <c r="D310" s="20"/>
       <c r="E310" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A311" s="9"/>
-      <c r="B311" s="11"/>
-      <c r="C311" s="11"/>
-      <c r="D311" s="11"/>
+      <c r="A311" s="18"/>
+      <c r="B311" s="20"/>
+      <c r="C311" s="20"/>
+      <c r="D311" s="20"/>
       <c r="E311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="10"/>
-      <c r="B312" s="11"/>
-      <c r="C312" s="11"/>
-      <c r="D312" s="11"/>
+      <c r="A312" s="19"/>
+      <c r="B312" s="20"/>
+      <c r="C312" s="20"/>
+      <c r="D312" s="20"/>
       <c r="E312" s="3" t="s">
         <v>13</v>
       </c>
@@ -5207,6 +5217,234 @@
     </row>
   </sheetData>
   <mergeCells count="252">
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="D309:D312"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="D299:D302"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="D283:D286"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="D273:D276"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="D263:D266"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="C268:C271"/>
+    <mergeCell ref="D268:D271"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="D257:D260"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D245"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="D247:D250"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="D237:D240"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="D211:D214"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="D216:D219"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="D205:D208"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="D195:D198"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A6"/>
@@ -5231,234 +5469,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="D205:D208"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="D195:D198"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="D221:D224"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="D211:D214"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="D237:D240"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="D257:D260"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="D247:D250"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="D273:D276"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="D263:D266"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="B268:B271"/>
-    <mergeCell ref="C268:C271"/>
-    <mergeCell ref="D268:D271"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="D283:D286"/>
-    <mergeCell ref="A288:F288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="D309:D312"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="D299:D302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5474,12 +5484,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088059E6DDC6DF445B0AB87CAA811C0D0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314c580fd60c3711a3e3031240862aa0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae328def-a07b-4370-9a10-828a34f91ce9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5728a0d98f3ba8ecfca4ece15eb01571" ns2:_="">
     <xsd:import namespace="ae328def-a07b-4370-9a10-828a34f91ce9"/>
@@ -5623,6 +5627,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
   <ds:schemaRefs>
@@ -5632,15 +5642,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9759A726-586A-4C39-A765-CAA32818CEB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5656,4 +5657,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PRT585_Group _7_TimeSheet.xlsx
+++ b/PRT585_Group _7_TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabili/PRT585_S2023_Group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802434D7-9F24-F640-91B6-09E14E8F14AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDECF6B-C5CB-2F4C-BF1E-ABE887D4864A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="1620" windowWidth="32800" windowHeight="19020" activeTab="1" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
+    <workbookView xWindow="3480" yWindow="800" windowWidth="32800" windowHeight="19020" activeTab="1" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 7 Timesheet" sheetId="15" r:id="rId1"/>
@@ -275,7 +275,7 @@
   <si>
     <t>1.
 2.
-3.ddafafdjfljfljfal
+3.
 4.</t>
   </si>
 </sst>
@@ -479,16 +479,28 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,26 +515,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,7 +841,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G8"/>
+      <selection activeCell="A11" sqref="A11:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -883,27 +883,27 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="22" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -912,118 +912,118 @@
       <c r="F3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="13" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1034,10 +1034,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1046,10 +1046,10 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1058,10 +1058,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1070,10 +1070,10 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1082,10 +1082,10 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1094,36 +1094,36 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1134,10 +1134,10 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1146,10 +1146,10 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1158,10 +1158,10 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1170,10 +1170,10 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1182,10 +1182,10 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1194,36 +1194,36 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="22" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1234,10 +1234,10 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1246,10 +1246,10 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1258,10 +1258,10 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="3" t="s">
         <v>12</v>
       </c>
@@ -1270,10 +1270,10 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
@@ -1282,10 +1282,10 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
@@ -1294,36 +1294,36 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1334,10 +1334,10 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="3" t="s">
         <v>10</v>
       </c>
@@ -1346,10 +1346,10 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1358,10 +1358,10 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="3" t="s">
         <v>12</v>
       </c>
@@ -1370,10 +1370,10 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
@@ -1382,10 +1382,10 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="3" t="s">
         <v>14</v>
       </c>
@@ -1394,36 +1394,36 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="22" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1434,10 +1434,10 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="3" t="s">
         <v>10</v>
       </c>
@@ -1446,10 +1446,10 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1458,10 +1458,10 @@
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1470,10 +1470,10 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1482,10 +1482,10 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="3" t="s">
         <v>14</v>
       </c>
@@ -1494,36 +1494,36 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="18" t="s">
+      <c r="B51" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1534,10 +1534,10 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
@@ -1546,10 +1546,10 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
@@ -1558,10 +1558,10 @@
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="3" t="s">
         <v>12</v>
       </c>
@@ -1570,10 +1570,10 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="2" t="s">
         <v>13</v>
       </c>
@@ -1582,10 +1582,10 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="3" t="s">
         <v>14</v>
       </c>
@@ -1594,36 +1594,36 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="25"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="18" t="s">
+      <c r="B59" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -1634,10 +1634,10 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="3" t="s">
         <v>10</v>
       </c>
@@ -1646,10 +1646,10 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
@@ -1658,10 +1658,10 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="3" t="s">
         <v>12</v>
       </c>
@@ -1670,10 +1670,10 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="2" t="s">
         <v>13</v>
       </c>
@@ -1682,10 +1682,10 @@
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
       <c r="E64" s="3" t="s">
         <v>14</v>
       </c>
@@ -1694,36 +1694,36 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="14"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="25"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="18" t="s">
+      <c r="B67" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="22" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -1734,10 +1734,10 @@
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="3" t="s">
         <v>10</v>
       </c>
@@ -1746,10 +1746,10 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="2" t="s">
         <v>11</v>
       </c>
@@ -1758,10 +1758,10 @@
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="3" t="s">
         <v>12</v>
       </c>
@@ -1770,10 +1770,10 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="2" t="s">
         <v>13</v>
       </c>
@@ -1782,10 +1782,10 @@
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="3" t="s">
         <v>14</v>
       </c>
@@ -1794,36 +1794,36 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="14"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="25"/>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="18" t="s">
+      <c r="B75" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -1834,10 +1834,10 @@
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
@@ -1846,10 +1846,10 @@
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
@@ -1858,10 +1858,10 @@
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
@@ -1870,10 +1870,10 @@
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="2" t="s">
         <v>13</v>
       </c>
@@ -1882,10 +1882,10 @@
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="3" t="s">
         <v>14</v>
       </c>
@@ -1894,36 +1894,36 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="18" t="s">
+      <c r="B83" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="22" t="s">
         <v>54</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -1934,10 +1934,10 @@
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
@@ -1946,10 +1946,10 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="16"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
       <c r="E85" s="2" t="s">
         <v>11</v>
       </c>
@@ -1958,10 +1958,10 @@
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
       <c r="E86" s="3" t="s">
         <v>12</v>
       </c>
@@ -1970,10 +1970,10 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="2" t="s">
         <v>13</v>
       </c>
@@ -1982,10 +1982,10 @@
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="3" t="s">
         <v>14</v>
       </c>
@@ -1994,36 +1994,36 @@
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="14"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="25"/>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="18" t="s">
+      <c r="B91" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2034,10 +2034,10 @@
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="16"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
@@ -2046,10 +2046,10 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="16"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
@@ -2058,10 +2058,10 @@
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="16"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
@@ -2070,10 +2070,10 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="16"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
       <c r="E95" s="2" t="s">
         <v>13</v>
       </c>
@@ -2082,10 +2082,10 @@
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="17"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
       <c r="E96" s="3" t="s">
         <v>14</v>
       </c>
@@ -2095,15 +2095,59 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:A16"/>
@@ -2116,59 +2160,15 @@
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="D19:D24"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2180,7 +2180,7 @@
   <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2214,26 +2214,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2244,46 +2244,46 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2292,46 +2292,46 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2340,46 +2340,46 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2388,46 +2388,46 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2436,56 +2436,56 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2494,46 +2494,46 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2542,46 +2542,46 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="18" t="s">
+      <c r="B39" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2590,46 +2590,46 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2638,46 +2638,46 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="18" t="s">
+      <c r="B49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2686,56 +2686,56 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="18" t="s">
+      <c r="B55" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2744,46 +2744,46 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="18" t="s">
+      <c r="B60" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2792,46 +2792,46 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="18" t="s">
+      <c r="B65" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2840,46 +2840,46 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="16"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="18" t="s">
+      <c r="B70" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2888,46 +2888,46 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="18" t="s">
+      <c r="B75" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -2936,56 +2936,56 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="18" t="s">
+      <c r="B81" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -2994,46 +2994,46 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="18" t="s">
+      <c r="B86" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -3042,46 +3042,46 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="16"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="18" t="s">
+      <c r="B91" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -3090,46 +3090,46 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="16"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="16"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="18" t="s">
+      <c r="B96" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -3138,46 +3138,46 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="16"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
       <c r="E97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="16"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="3"/>
     </row>
     <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="18" t="s">
+      <c r="B101" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D101" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -3186,56 +3186,56 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="16"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
       <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="16"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
       <c r="E103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
       <c r="E104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B107" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="18" t="s">
+      <c r="B107" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -3244,46 +3244,46 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="16"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
       <c r="E108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="16"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
       <c r="E109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
       <c r="E110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="3"/>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="18" t="s">
+      <c r="B112" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="D112" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3292,46 +3292,46 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="16"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
       <c r="E113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="16"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="17"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
       <c r="E115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="3"/>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B117" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="18" t="s">
+      <c r="B117" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D117" s="18" t="s">
+      <c r="D117" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3340,46 +3340,46 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="16"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
       <c r="E118" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="16"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
       <c r="E119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="17"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
       <c r="E120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="3"/>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B122" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="18" t="s">
+      <c r="B122" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="D122" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3388,46 +3388,46 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="16"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
       <c r="E123" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="16"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
+      <c r="A124" s="20"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
       <c r="E124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="17"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
       <c r="E125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="3"/>
     </row>
     <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B127" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="18" t="s">
+      <c r="B127" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="D127" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3436,56 +3436,56 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="16"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
+      <c r="A128" s="20"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
       <c r="E128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="16"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
       <c r="E129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="17"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
       <c r="E130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B133" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="18" t="s">
+      <c r="B133" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="18" t="s">
+      <c r="D133" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3494,46 +3494,46 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="16"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
       <c r="E134" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="16"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
       <c r="E135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="17"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
       <c r="E136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="18" t="s">
+      <c r="B138" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D138" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -3542,46 +3542,46 @@
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="16"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
       <c r="E139" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="16"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
       <c r="E140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="17"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
       <c r="E141" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B143" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="18" t="s">
+      <c r="B143" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D143" s="18" t="s">
+      <c r="D143" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3590,46 +3590,46 @@
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="16"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
       <c r="E144" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="16"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
       <c r="E145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="17"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
       <c r="E146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="3"/>
     </row>
     <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B148" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="18" t="s">
+      <c r="B148" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3638,46 +3638,46 @@
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="16"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
       <c r="E149" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="16"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
       <c r="E150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="17"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
       <c r="E151" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B153" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="18" t="s">
+      <c r="B153" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3686,56 +3686,56 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="16"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
       <c r="E154" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="16"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
       <c r="E155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="17"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
       <c r="E156" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="3"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B158" s="20"/>
-      <c r="C158" s="20"/>
-      <c r="D158" s="20"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="20"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="15" t="s">
+      <c r="A159" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B159" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="18" t="s">
+      <c r="B159" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -3744,46 +3744,46 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="16"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
       <c r="E160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="16"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
       <c r="E161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="17"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
       <c r="E162" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="3"/>
     </row>
     <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B164" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="18" t="s">
+      <c r="B164" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -3792,46 +3792,46 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="16"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
       <c r="E165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="16"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
       <c r="E166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="17"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
       <c r="E167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="3"/>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="18" t="s">
+      <c r="B169" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D169" s="18" t="s">
+      <c r="D169" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -3840,46 +3840,46 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="16"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
       <c r="E170" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="16"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
       <c r="E171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="17"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
       <c r="E172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="3"/>
     </row>
     <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B174" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="18" t="s">
+      <c r="B174" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D174" s="18" t="s">
+      <c r="D174" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -3888,46 +3888,46 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="16"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
       <c r="E175" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F175" s="3"/>
     </row>
     <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="16"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
       <c r="E176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="17"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
+      <c r="A177" s="21"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22"/>
       <c r="E177" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="3"/>
     </row>
     <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="15" t="s">
+      <c r="A179" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B179" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="18" t="s">
+      <c r="B179" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D179" s="18" t="s">
+      <c r="D179" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -3936,56 +3936,56 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="16"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
+      <c r="A180" s="20"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
       <c r="E180" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="16"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
+      <c r="A181" s="20"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
       <c r="E181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="17"/>
-      <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
       <c r="E182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="3"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="11" t="s">
+      <c r="A184" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B184" s="20"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="20"/>
-      <c r="F184" s="20"/>
+      <c r="B184" s="18"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
     </row>
     <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B185" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="18" t="s">
+      <c r="B185" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="18" t="s">
+      <c r="D185" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -3994,46 +3994,46 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="16"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
       <c r="E186" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="16"/>
-      <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
+      <c r="A187" s="20"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="22"/>
       <c r="E187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="17"/>
-      <c r="B188" s="18"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
+      <c r="A188" s="21"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
       <c r="E188" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F188" s="3"/>
     </row>
     <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="15" t="s">
+      <c r="A190" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B190" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="18" t="s">
+      <c r="B190" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D190" s="18" t="s">
+      <c r="D190" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -4042,46 +4042,46 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="16"/>
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
+      <c r="A191" s="20"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
       <c r="E191" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="16"/>
-      <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
+      <c r="A192" s="20"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
       <c r="E192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="17"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
+      <c r="A193" s="21"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
       <c r="E193" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F193" s="3"/>
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="15" t="s">
+      <c r="A195" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B195" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="18" t="s">
+      <c r="B195" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D195" s="18" t="s">
+      <c r="D195" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -4090,46 +4090,46 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="16"/>
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
+      <c r="A196" s="20"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
       <c r="E196" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="16"/>
-      <c r="B197" s="18"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
+      <c r="A197" s="20"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
       <c r="E197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198" s="17"/>
-      <c r="B198" s="18"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
+      <c r="A198" s="21"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
       <c r="E198" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F198" s="3"/>
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200" s="15" t="s">
+      <c r="A200" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B200" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="18" t="s">
+      <c r="B200" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D200" s="18" t="s">
+      <c r="D200" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -4138,46 +4138,46 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="16"/>
-      <c r="B201" s="18"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="18"/>
+      <c r="A201" s="20"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
       <c r="E201" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="16"/>
-      <c r="B202" s="18"/>
-      <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
+      <c r="A202" s="20"/>
+      <c r="B202" s="22"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
       <c r="E202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="17"/>
-      <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
+      <c r="A203" s="21"/>
+      <c r="B203" s="22"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
       <c r="E203" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="3"/>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="15" t="s">
+      <c r="A205" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B205" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="18" t="s">
+      <c r="B205" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D205" s="18" t="s">
+      <c r="D205" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -4186,56 +4186,56 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="16"/>
-      <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
+      <c r="A206" s="20"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22"/>
       <c r="E206" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="16"/>
-      <c r="B207" s="18"/>
-      <c r="C207" s="18"/>
-      <c r="D207" s="18"/>
+      <c r="A207" s="20"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
       <c r="E207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="17"/>
-      <c r="B208" s="18"/>
-      <c r="C208" s="18"/>
-      <c r="D208" s="18"/>
+      <c r="A208" s="21"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
       <c r="E208" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F208" s="3"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="11" t="s">
+      <c r="A210" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B210" s="20"/>
-      <c r="C210" s="20"/>
-      <c r="D210" s="20"/>
-      <c r="E210" s="20"/>
-      <c r="F210" s="20"/>
+      <c r="B210" s="18"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="18"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="18"/>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="15" t="s">
+      <c r="A211" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B211" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="18" t="s">
+      <c r="B211" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D211" s="18" t="s">
+      <c r="D211" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -4244,46 +4244,46 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="16"/>
-      <c r="B212" s="18"/>
-      <c r="C212" s="18"/>
-      <c r="D212" s="18"/>
+      <c r="A212" s="20"/>
+      <c r="B212" s="22"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="22"/>
       <c r="E212" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F212" s="3"/>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="16"/>
-      <c r="B213" s="18"/>
-      <c r="C213" s="18"/>
-      <c r="D213" s="18"/>
+      <c r="A213" s="20"/>
+      <c r="B213" s="22"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
       <c r="E213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="17"/>
-      <c r="B214" s="18"/>
-      <c r="C214" s="18"/>
-      <c r="D214" s="18"/>
+      <c r="A214" s="21"/>
+      <c r="B214" s="22"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
       <c r="E214" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="3"/>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="15" t="s">
+      <c r="A216" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B216" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="18" t="s">
+      <c r="B216" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D216" s="18" t="s">
+      <c r="D216" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -4292,46 +4292,46 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="16"/>
-      <c r="B217" s="18"/>
-      <c r="C217" s="18"/>
-      <c r="D217" s="18"/>
+      <c r="A217" s="20"/>
+      <c r="B217" s="22"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
       <c r="E217" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F217" s="3"/>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="16"/>
-      <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
+      <c r="A218" s="20"/>
+      <c r="B218" s="22"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
       <c r="E218" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="17"/>
-      <c r="B219" s="18"/>
-      <c r="C219" s="18"/>
-      <c r="D219" s="18"/>
+      <c r="A219" s="21"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
       <c r="E219" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F219" s="3"/>
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="15" t="s">
+      <c r="A221" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B221" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="18" t="s">
+      <c r="B221" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D221" s="18" t="s">
+      <c r="D221" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -4340,46 +4340,46 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="16"/>
-      <c r="B222" s="18"/>
-      <c r="C222" s="18"/>
-      <c r="D222" s="18"/>
+      <c r="A222" s="20"/>
+      <c r="B222" s="22"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="22"/>
       <c r="E222" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F222" s="3"/>
     </row>
     <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="16"/>
-      <c r="B223" s="18"/>
-      <c r="C223" s="18"/>
-      <c r="D223" s="18"/>
+      <c r="A223" s="20"/>
+      <c r="B223" s="22"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="22"/>
       <c r="E223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="17"/>
-      <c r="B224" s="18"/>
-      <c r="C224" s="18"/>
-      <c r="D224" s="18"/>
+      <c r="A224" s="21"/>
+      <c r="B224" s="22"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
       <c r="E224" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F224" s="3"/>
     </row>
     <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="15" t="s">
+      <c r="A226" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B226" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="18" t="s">
+      <c r="B226" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D226" s="18" t="s">
+      <c r="D226" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -4388,46 +4388,46 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="16"/>
-      <c r="B227" s="18"/>
-      <c r="C227" s="18"/>
-      <c r="D227" s="18"/>
+      <c r="A227" s="20"/>
+      <c r="B227" s="22"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="22"/>
       <c r="E227" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F227" s="3"/>
     </row>
     <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="16"/>
-      <c r="B228" s="18"/>
-      <c r="C228" s="18"/>
-      <c r="D228" s="18"/>
+      <c r="A228" s="20"/>
+      <c r="B228" s="22"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
       <c r="E228" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="17"/>
-      <c r="B229" s="18"/>
-      <c r="C229" s="18"/>
-      <c r="D229" s="18"/>
+      <c r="A229" s="21"/>
+      <c r="B229" s="22"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="22"/>
       <c r="E229" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F229" s="3"/>
     </row>
     <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="15" t="s">
+      <c r="A231" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B231" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="18" t="s">
+      <c r="B231" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D231" s="18" t="s">
+      <c r="D231" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -4436,56 +4436,56 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="16"/>
-      <c r="B232" s="18"/>
-      <c r="C232" s="18"/>
-      <c r="D232" s="18"/>
+      <c r="A232" s="20"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
       <c r="E232" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="16"/>
-      <c r="B233" s="18"/>
-      <c r="C233" s="18"/>
-      <c r="D233" s="18"/>
+      <c r="A233" s="20"/>
+      <c r="B233" s="22"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="22"/>
       <c r="E233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="17"/>
-      <c r="B234" s="18"/>
-      <c r="C234" s="18"/>
-      <c r="D234" s="18"/>
+      <c r="A234" s="21"/>
+      <c r="B234" s="22"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
       <c r="E234" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F234" s="3"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="11" t="s">
+      <c r="A236" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B236" s="20"/>
-      <c r="C236" s="20"/>
-      <c r="D236" s="20"/>
-      <c r="E236" s="20"/>
-      <c r="F236" s="20"/>
+      <c r="B236" s="18"/>
+      <c r="C236" s="18"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="18"/>
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B237" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="18" t="s">
+      <c r="B237" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D237" s="18" t="s">
+      <c r="D237" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -4494,46 +4494,46 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="16"/>
-      <c r="B238" s="18"/>
-      <c r="C238" s="18"/>
-      <c r="D238" s="18"/>
+      <c r="A238" s="20"/>
+      <c r="B238" s="22"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
       <c r="E238" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="16"/>
-      <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
-      <c r="D239" s="18"/>
+      <c r="A239" s="20"/>
+      <c r="B239" s="22"/>
+      <c r="C239" s="22"/>
+      <c r="D239" s="22"/>
       <c r="E239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="17"/>
-      <c r="B240" s="18"/>
-      <c r="C240" s="18"/>
-      <c r="D240" s="18"/>
+      <c r="A240" s="21"/>
+      <c r="B240" s="22"/>
+      <c r="C240" s="22"/>
+      <c r="D240" s="22"/>
       <c r="E240" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F240" s="3"/>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="15" t="s">
+      <c r="A242" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B242" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="18" t="s">
+      <c r="B242" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D242" s="18" t="s">
+      <c r="D242" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -4542,46 +4542,46 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="16"/>
-      <c r="B243" s="18"/>
-      <c r="C243" s="18"/>
-      <c r="D243" s="18"/>
+      <c r="A243" s="20"/>
+      <c r="B243" s="22"/>
+      <c r="C243" s="22"/>
+      <c r="D243" s="22"/>
       <c r="E243" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F243" s="3"/>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A244" s="16"/>
-      <c r="B244" s="18"/>
-      <c r="C244" s="18"/>
-      <c r="D244" s="18"/>
+      <c r="A244" s="20"/>
+      <c r="B244" s="22"/>
+      <c r="C244" s="22"/>
+      <c r="D244" s="22"/>
       <c r="E244" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A245" s="17"/>
-      <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
-      <c r="D245" s="18"/>
+      <c r="A245" s="21"/>
+      <c r="B245" s="22"/>
+      <c r="C245" s="22"/>
+      <c r="D245" s="22"/>
       <c r="E245" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F245" s="3"/>
     </row>
     <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="15" t="s">
+      <c r="A247" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B247" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="18" t="s">
+      <c r="B247" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D247" s="18" t="s">
+      <c r="D247" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -4590,46 +4590,46 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="16"/>
-      <c r="B248" s="18"/>
-      <c r="C248" s="18"/>
-      <c r="D248" s="18"/>
+      <c r="A248" s="20"/>
+      <c r="B248" s="22"/>
+      <c r="C248" s="22"/>
+      <c r="D248" s="22"/>
       <c r="E248" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="16"/>
-      <c r="B249" s="18"/>
-      <c r="C249" s="18"/>
-      <c r="D249" s="18"/>
+      <c r="A249" s="20"/>
+      <c r="B249" s="22"/>
+      <c r="C249" s="22"/>
+      <c r="D249" s="22"/>
       <c r="E249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A250" s="17"/>
-      <c r="B250" s="18"/>
-      <c r="C250" s="18"/>
-      <c r="D250" s="18"/>
+      <c r="A250" s="21"/>
+      <c r="B250" s="22"/>
+      <c r="C250" s="22"/>
+      <c r="D250" s="22"/>
       <c r="E250" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F250" s="3"/>
     </row>
     <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A252" s="15" t="s">
+      <c r="A252" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B252" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="18" t="s">
+      <c r="B252" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D252" s="18" t="s">
+      <c r="D252" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -4638,46 +4638,46 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="16"/>
-      <c r="B253" s="18"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="18"/>
+      <c r="A253" s="20"/>
+      <c r="B253" s="22"/>
+      <c r="C253" s="22"/>
+      <c r="D253" s="22"/>
       <c r="E253" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A254" s="16"/>
-      <c r="B254" s="18"/>
-      <c r="C254" s="18"/>
-      <c r="D254" s="18"/>
+      <c r="A254" s="20"/>
+      <c r="B254" s="22"/>
+      <c r="C254" s="22"/>
+      <c r="D254" s="22"/>
       <c r="E254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="17"/>
-      <c r="B255" s="18"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="18"/>
+      <c r="A255" s="21"/>
+      <c r="B255" s="22"/>
+      <c r="C255" s="22"/>
+      <c r="D255" s="22"/>
       <c r="E255" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F255" s="3"/>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="15" t="s">
+      <c r="A257" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B257" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="18" t="s">
+      <c r="B257" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="D257" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -4686,56 +4686,56 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="16"/>
-      <c r="B258" s="18"/>
-      <c r="C258" s="18"/>
-      <c r="D258" s="18"/>
+      <c r="A258" s="20"/>
+      <c r="B258" s="22"/>
+      <c r="C258" s="22"/>
+      <c r="D258" s="22"/>
       <c r="E258" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F258" s="3"/>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="16"/>
-      <c r="B259" s="18"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="18"/>
+      <c r="A259" s="20"/>
+      <c r="B259" s="22"/>
+      <c r="C259" s="22"/>
+      <c r="D259" s="22"/>
       <c r="E259" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="17"/>
-      <c r="B260" s="18"/>
-      <c r="C260" s="18"/>
-      <c r="D260" s="18"/>
+      <c r="A260" s="21"/>
+      <c r="B260" s="22"/>
+      <c r="C260" s="22"/>
+      <c r="D260" s="22"/>
       <c r="E260" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F260" s="3"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="11" t="s">
+      <c r="A262" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B262" s="20"/>
-      <c r="C262" s="20"/>
-      <c r="D262" s="20"/>
-      <c r="E262" s="20"/>
-      <c r="F262" s="20"/>
+      <c r="B262" s="18"/>
+      <c r="C262" s="18"/>
+      <c r="D262" s="18"/>
+      <c r="E262" s="18"/>
+      <c r="F262" s="18"/>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="15" t="s">
+      <c r="A263" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B263" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="18" t="s">
+      <c r="B263" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D263" s="18" t="s">
+      <c r="D263" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -4744,46 +4744,46 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="16"/>
-      <c r="B264" s="18"/>
-      <c r="C264" s="18"/>
-      <c r="D264" s="18"/>
+      <c r="A264" s="20"/>
+      <c r="B264" s="22"/>
+      <c r="C264" s="22"/>
+      <c r="D264" s="22"/>
       <c r="E264" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F264" s="3"/>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="16"/>
-      <c r="B265" s="18"/>
-      <c r="C265" s="18"/>
-      <c r="D265" s="18"/>
+      <c r="A265" s="20"/>
+      <c r="B265" s="22"/>
+      <c r="C265" s="22"/>
+      <c r="D265" s="22"/>
       <c r="E265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="17"/>
-      <c r="B266" s="18"/>
-      <c r="C266" s="18"/>
-      <c r="D266" s="18"/>
+      <c r="A266" s="21"/>
+      <c r="B266" s="22"/>
+      <c r="C266" s="22"/>
+      <c r="D266" s="22"/>
       <c r="E266" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F266" s="3"/>
     </row>
     <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="15" t="s">
+      <c r="A268" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B268" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C268" s="18" t="s">
+      <c r="B268" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D268" s="18" t="s">
+      <c r="D268" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -4792,46 +4792,46 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="16"/>
-      <c r="B269" s="18"/>
-      <c r="C269" s="18"/>
-      <c r="D269" s="18"/>
+      <c r="A269" s="20"/>
+      <c r="B269" s="22"/>
+      <c r="C269" s="22"/>
+      <c r="D269" s="22"/>
       <c r="E269" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="16"/>
-      <c r="B270" s="18"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="18"/>
+      <c r="A270" s="20"/>
+      <c r="B270" s="22"/>
+      <c r="C270" s="22"/>
+      <c r="D270" s="22"/>
       <c r="E270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="17"/>
-      <c r="B271" s="18"/>
-      <c r="C271" s="18"/>
-      <c r="D271" s="18"/>
+      <c r="A271" s="21"/>
+      <c r="B271" s="22"/>
+      <c r="C271" s="22"/>
+      <c r="D271" s="22"/>
       <c r="E271" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F271" s="3"/>
     </row>
     <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A273" s="15" t="s">
+      <c r="A273" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B273" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C273" s="18" t="s">
+      <c r="B273" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D273" s="18" t="s">
+      <c r="D273" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -4840,46 +4840,46 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A274" s="16"/>
-      <c r="B274" s="18"/>
-      <c r="C274" s="18"/>
-      <c r="D274" s="18"/>
+      <c r="A274" s="20"/>
+      <c r="B274" s="22"/>
+      <c r="C274" s="22"/>
+      <c r="D274" s="22"/>
       <c r="E274" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A275" s="16"/>
-      <c r="B275" s="18"/>
-      <c r="C275" s="18"/>
-      <c r="D275" s="18"/>
+      <c r="A275" s="20"/>
+      <c r="B275" s="22"/>
+      <c r="C275" s="22"/>
+      <c r="D275" s="22"/>
       <c r="E275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="17"/>
-      <c r="B276" s="18"/>
-      <c r="C276" s="18"/>
-      <c r="D276" s="18"/>
+      <c r="A276" s="21"/>
+      <c r="B276" s="22"/>
+      <c r="C276" s="22"/>
+      <c r="D276" s="22"/>
       <c r="E276" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F276" s="3"/>
     </row>
     <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="15" t="s">
+      <c r="A278" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B278" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C278" s="18" t="s">
+      <c r="B278" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D278" s="18" t="s">
+      <c r="D278" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -4888,46 +4888,46 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A279" s="16"/>
-      <c r="B279" s="18"/>
-      <c r="C279" s="18"/>
-      <c r="D279" s="18"/>
+      <c r="A279" s="20"/>
+      <c r="B279" s="22"/>
+      <c r="C279" s="22"/>
+      <c r="D279" s="22"/>
       <c r="E279" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F279" s="3"/>
     </row>
     <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A280" s="16"/>
-      <c r="B280" s="18"/>
-      <c r="C280" s="18"/>
-      <c r="D280" s="18"/>
+      <c r="A280" s="20"/>
+      <c r="B280" s="22"/>
+      <c r="C280" s="22"/>
+      <c r="D280" s="22"/>
       <c r="E280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A281" s="17"/>
-      <c r="B281" s="18"/>
-      <c r="C281" s="18"/>
-      <c r="D281" s="18"/>
+      <c r="A281" s="21"/>
+      <c r="B281" s="22"/>
+      <c r="C281" s="22"/>
+      <c r="D281" s="22"/>
       <c r="E281" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F281" s="3"/>
     </row>
     <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="15" t="s">
+      <c r="A283" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B283" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C283" s="18" t="s">
+      <c r="B283" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="D283" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -4936,56 +4936,56 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" s="16"/>
-      <c r="B284" s="18"/>
-      <c r="C284" s="18"/>
-      <c r="D284" s="18"/>
+      <c r="A284" s="20"/>
+      <c r="B284" s="22"/>
+      <c r="C284" s="22"/>
+      <c r="D284" s="22"/>
       <c r="E284" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="16"/>
-      <c r="B285" s="18"/>
-      <c r="C285" s="18"/>
-      <c r="D285" s="18"/>
+      <c r="A285" s="20"/>
+      <c r="B285" s="22"/>
+      <c r="C285" s="22"/>
+      <c r="D285" s="22"/>
       <c r="E285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A286" s="17"/>
-      <c r="B286" s="18"/>
-      <c r="C286" s="18"/>
-      <c r="D286" s="18"/>
+      <c r="A286" s="21"/>
+      <c r="B286" s="22"/>
+      <c r="C286" s="22"/>
+      <c r="D286" s="22"/>
       <c r="E286" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F286" s="3"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="11" t="s">
+      <c r="A288" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B288" s="20"/>
-      <c r="C288" s="20"/>
-      <c r="D288" s="20"/>
-      <c r="E288" s="20"/>
-      <c r="F288" s="20"/>
+      <c r="B288" s="18"/>
+      <c r="C288" s="18"/>
+      <c r="D288" s="18"/>
+      <c r="E288" s="18"/>
+      <c r="F288" s="18"/>
     </row>
     <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A289" s="15" t="s">
+      <c r="A289" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B289" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289" s="18" t="s">
+      <c r="B289" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D289" s="18" t="s">
+      <c r="D289" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E289" s="2" t="s">
@@ -4994,46 +4994,46 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="16"/>
-      <c r="B290" s="18"/>
-      <c r="C290" s="18"/>
-      <c r="D290" s="18"/>
+      <c r="A290" s="20"/>
+      <c r="B290" s="22"/>
+      <c r="C290" s="22"/>
+      <c r="D290" s="22"/>
       <c r="E290" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F290" s="3"/>
     </row>
     <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="16"/>
-      <c r="B291" s="18"/>
-      <c r="C291" s="18"/>
-      <c r="D291" s="18"/>
+      <c r="A291" s="20"/>
+      <c r="B291" s="22"/>
+      <c r="C291" s="22"/>
+      <c r="D291" s="22"/>
       <c r="E291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A292" s="17"/>
-      <c r="B292" s="18"/>
-      <c r="C292" s="18"/>
-      <c r="D292" s="18"/>
+      <c r="A292" s="21"/>
+      <c r="B292" s="22"/>
+      <c r="C292" s="22"/>
+      <c r="D292" s="22"/>
       <c r="E292" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F292" s="3"/>
     </row>
     <row r="294" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A294" s="15" t="s">
+      <c r="A294" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B294" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="18" t="s">
+      <c r="B294" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D294" s="18" t="s">
+      <c r="D294" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E294" s="2" t="s">
@@ -5042,46 +5042,46 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="16"/>
-      <c r="B295" s="18"/>
-      <c r="C295" s="18"/>
-      <c r="D295" s="18"/>
+      <c r="A295" s="20"/>
+      <c r="B295" s="22"/>
+      <c r="C295" s="22"/>
+      <c r="D295" s="22"/>
       <c r="E295" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F295" s="3"/>
     </row>
     <row r="296" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="16"/>
-      <c r="B296" s="18"/>
-      <c r="C296" s="18"/>
-      <c r="D296" s="18"/>
+      <c r="A296" s="20"/>
+      <c r="B296" s="22"/>
+      <c r="C296" s="22"/>
+      <c r="D296" s="22"/>
       <c r="E296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="17"/>
-      <c r="B297" s="18"/>
-      <c r="C297" s="18"/>
-      <c r="D297" s="18"/>
+      <c r="A297" s="21"/>
+      <c r="B297" s="22"/>
+      <c r="C297" s="22"/>
+      <c r="D297" s="22"/>
       <c r="E297" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F297" s="3"/>
     </row>
     <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A299" s="15" t="s">
+      <c r="A299" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B299" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C299" s="18" t="s">
+      <c r="B299" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D299" s="18" t="s">
+      <c r="D299" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E299" s="2" t="s">
@@ -5090,46 +5090,46 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A300" s="16"/>
-      <c r="B300" s="18"/>
-      <c r="C300" s="18"/>
-      <c r="D300" s="18"/>
+      <c r="A300" s="20"/>
+      <c r="B300" s="22"/>
+      <c r="C300" s="22"/>
+      <c r="D300" s="22"/>
       <c r="E300" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F300" s="3"/>
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="16"/>
-      <c r="B301" s="18"/>
-      <c r="C301" s="18"/>
-      <c r="D301" s="18"/>
+      <c r="A301" s="20"/>
+      <c r="B301" s="22"/>
+      <c r="C301" s="22"/>
+      <c r="D301" s="22"/>
       <c r="E301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A302" s="17"/>
-      <c r="B302" s="18"/>
-      <c r="C302" s="18"/>
-      <c r="D302" s="18"/>
+      <c r="A302" s="21"/>
+      <c r="B302" s="22"/>
+      <c r="C302" s="22"/>
+      <c r="D302" s="22"/>
       <c r="E302" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F302" s="3"/>
     </row>
     <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304" s="15" t="s">
+      <c r="A304" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B304" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C304" s="18" t="s">
+      <c r="B304" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D304" s="18" t="s">
+      <c r="D304" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E304" s="2" t="s">
@@ -5138,46 +5138,46 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A305" s="16"/>
-      <c r="B305" s="18"/>
-      <c r="C305" s="18"/>
-      <c r="D305" s="18"/>
+      <c r="A305" s="20"/>
+      <c r="B305" s="22"/>
+      <c r="C305" s="22"/>
+      <c r="D305" s="22"/>
       <c r="E305" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F305" s="3"/>
     </row>
     <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A306" s="16"/>
-      <c r="B306" s="18"/>
-      <c r="C306" s="18"/>
-      <c r="D306" s="18"/>
+      <c r="A306" s="20"/>
+      <c r="B306" s="22"/>
+      <c r="C306" s="22"/>
+      <c r="D306" s="22"/>
       <c r="E306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A307" s="17"/>
-      <c r="B307" s="18"/>
-      <c r="C307" s="18"/>
-      <c r="D307" s="18"/>
+      <c r="A307" s="21"/>
+      <c r="B307" s="22"/>
+      <c r="C307" s="22"/>
+      <c r="D307" s="22"/>
       <c r="E307" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F307" s="3"/>
     </row>
     <row r="309" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="15" t="s">
+      <c r="A309" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B309" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="18" t="s">
+      <c r="B309" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D309" s="18" t="s">
+      <c r="D309" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E309" s="2" t="s">
@@ -5186,30 +5186,30 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A310" s="16"/>
-      <c r="B310" s="18"/>
-      <c r="C310" s="18"/>
-      <c r="D310" s="18"/>
+      <c r="A310" s="20"/>
+      <c r="B310" s="22"/>
+      <c r="C310" s="22"/>
+      <c r="D310" s="22"/>
       <c r="E310" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A311" s="16"/>
-      <c r="B311" s="18"/>
-      <c r="C311" s="18"/>
-      <c r="D311" s="18"/>
+      <c r="A311" s="20"/>
+      <c r="B311" s="22"/>
+      <c r="C311" s="22"/>
+      <c r="D311" s="22"/>
       <c r="E311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="17"/>
-      <c r="B312" s="18"/>
-      <c r="C312" s="18"/>
-      <c r="D312" s="18"/>
+      <c r="A312" s="21"/>
+      <c r="B312" s="22"/>
+      <c r="C312" s="22"/>
+      <c r="D312" s="22"/>
       <c r="E312" s="3" t="s">
         <v>12</v>
       </c>
@@ -5217,6 +5217,234 @@
     </row>
   </sheetData>
   <mergeCells count="252">
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="D309:D312"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="D299:D302"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="D283:D286"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="D273:D276"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="D263:D266"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="C268:C271"/>
+    <mergeCell ref="D268:D271"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="D257:D260"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D245"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="D247:D250"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="D237:D240"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="D211:D214"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="D216:D219"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="D205:D208"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="D195:D198"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A6"/>
@@ -5241,252 +5469,24 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="D205:D208"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="D195:D198"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="D221:D224"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="D211:D214"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="D237:D240"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="D257:D260"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="D247:D250"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="D273:D276"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="D263:D266"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="B268:B271"/>
-    <mergeCell ref="C268:C271"/>
-    <mergeCell ref="D268:D271"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="D283:D286"/>
-    <mergeCell ref="A288:F288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="D309:D312"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="D299:D302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5634,18 +5634,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/PRT585_Group _7_TimeSheet.xlsx
+++ b/PRT585_Group _7_TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabili/PRT585_S2023_Group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDECF6B-C5CB-2F4C-BF1E-ABE887D4864A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2851CD-FA72-674C-BFFA-00E49CBAE7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="800" windowWidth="32800" windowHeight="19020" activeTab="1" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="76">
   <si>
     <t>Week</t>
   </si>
@@ -273,10 +273,17 @@
 3. Update timesheet</t>
   </si>
   <si>
-    <t>1.
-2.
-3.
-4.</t>
+    <t>Most of us don't learn #C before and need to learn C# from basic.</t>
+  </si>
+  <si>
+    <t>1.Group discussion  and organize everyone's available time.
+2. Create Git group repository and TEAM</t>
+  </si>
+  <si>
+    <t>1. Find alternative tool of SQL server because it's not available for MacOS.</t>
+  </si>
+  <si>
+    <t>1. Learn .Net by read through Microsoft webstie: https://dotnet.microsoft.com/en-us/learn</t>
   </si>
 </sst>
 </file>
@@ -479,6 +486,36 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -493,36 +530,6 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,7 +848,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -883,27 +890,27 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -912,118 +919,120 @@
       <c r="F3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="21" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="23" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="25" t="s">
         <v>67</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1034,10 +1043,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1046,10 +1055,10 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1058,10 +1067,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1070,10 +1079,10 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1082,10 +1091,10 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1094,36 +1103,36 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1134,10 +1143,10 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1146,10 +1155,10 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1158,10 +1167,10 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1170,10 +1179,10 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1182,10 +1191,10 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1194,36 +1203,36 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1234,10 +1243,10 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1246,10 +1255,10 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1258,10 +1267,10 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>12</v>
       </c>
@@ -1270,10 +1279,10 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
@@ -1282,10 +1291,10 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
@@ -1294,36 +1303,36 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1334,10 +1343,10 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="3" t="s">
         <v>10</v>
       </c>
@@ -1346,10 +1355,10 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1358,10 +1367,10 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="3" t="s">
         <v>12</v>
       </c>
@@ -1370,10 +1379,10 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
@@ -1382,10 +1391,10 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="3" t="s">
         <v>14</v>
       </c>
@@ -1394,36 +1403,36 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1434,10 +1443,10 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="3" t="s">
         <v>10</v>
       </c>
@@ -1446,10 +1455,10 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1458,10 +1467,10 @@
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1470,10 +1479,10 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1482,10 +1491,10 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="3" t="s">
         <v>14</v>
       </c>
@@ -1494,36 +1503,36 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="22" t="s">
+      <c r="B51" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1534,10 +1543,10 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
@@ -1546,10 +1555,10 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
@@ -1558,10 +1567,10 @@
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="3" t="s">
         <v>12</v>
       </c>
@@ -1570,10 +1579,10 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="2" t="s">
         <v>13</v>
       </c>
@@ -1582,10 +1591,10 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="3" t="s">
         <v>14</v>
       </c>
@@ -1594,36 +1603,36 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="22" t="s">
+      <c r="B59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -1634,10 +1643,10 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="3" t="s">
         <v>10</v>
       </c>
@@ -1646,10 +1655,10 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
@@ -1658,10 +1667,10 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="3" t="s">
         <v>12</v>
       </c>
@@ -1670,10 +1679,10 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="2" t="s">
         <v>13</v>
       </c>
@@ -1682,10 +1691,10 @@
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="3" t="s">
         <v>14</v>
       </c>
@@ -1694,36 +1703,36 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="25"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="22" t="s">
+      <c r="B67" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -1734,10 +1743,10 @@
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="3" t="s">
         <v>10</v>
       </c>
@@ -1746,10 +1755,10 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="2" t="s">
         <v>11</v>
       </c>
@@ -1758,10 +1767,10 @@
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="3" t="s">
         <v>12</v>
       </c>
@@ -1770,10 +1779,10 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="2" t="s">
         <v>13</v>
       </c>
@@ -1782,10 +1791,10 @@
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="3" t="s">
         <v>14</v>
       </c>
@@ -1794,36 +1803,36 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="25"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="22" t="s">
+      <c r="B75" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -1834,10 +1843,10 @@
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
@@ -1846,10 +1855,10 @@
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
@@ -1858,10 +1867,10 @@
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
@@ -1870,10 +1879,10 @@
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="2" t="s">
         <v>13</v>
       </c>
@@ -1882,10 +1891,10 @@
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="3" t="s">
         <v>14</v>
       </c>
@@ -1894,36 +1903,36 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="22" t="s">
+      <c r="B83" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -1934,10 +1943,10 @@
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="20"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
@@ -1946,10 +1955,10 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="20"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="2" t="s">
         <v>11</v>
       </c>
@@ -1958,10 +1967,10 @@
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="20"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="3" t="s">
         <v>12</v>
       </c>
@@ -1970,10 +1979,10 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="2" t="s">
         <v>13</v>
       </c>
@@ -1982,10 +1991,10 @@
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="3" t="s">
         <v>14</v>
       </c>
@@ -1994,36 +2003,36 @@
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="25"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="22" t="s">
+      <c r="B91" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2034,10 +2043,10 @@
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
@@ -2046,10 +2055,10 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
@@ -2058,10 +2067,10 @@
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
@@ -2070,10 +2079,10 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="2" t="s">
         <v>13</v>
       </c>
@@ -2082,10 +2091,10 @@
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="3" t="s">
         <v>14</v>
       </c>
@@ -2095,11 +2104,63 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A75:A80"/>
@@ -2112,63 +2173,11 @@
     <mergeCell ref="B83:B88"/>
     <mergeCell ref="C83:C88"/>
     <mergeCell ref="D83:D88"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2180,7 +2189,7 @@
   <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2190,7 +2199,7 @@
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="51.1640625" customWidth="1"/>
+    <col min="6" max="6" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -2214,76 +2223,82 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2292,46 +2307,46 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2340,46 +2355,46 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2388,46 +2403,46 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2436,56 +2451,56 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2494,46 +2509,46 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2542,46 +2557,46 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2590,46 +2605,46 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2638,46 +2653,46 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="22" t="s">
+      <c r="B49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2686,56 +2701,56 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="22" t="s">
+      <c r="B55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2744,46 +2759,46 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="22" t="s">
+      <c r="B60" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2792,46 +2807,46 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22" t="s">
+      <c r="B65" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2840,46 +2855,46 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="22" t="s">
+      <c r="B70" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2888,46 +2903,46 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="22" t="s">
+      <c r="B75" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -2936,56 +2951,56 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
     </row>
     <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="22" t="s">
+      <c r="B81" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -2994,46 +3009,46 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="20"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="20"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="22" t="s">
+      <c r="B86" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -3042,46 +3057,46 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="20"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="22" t="s">
+      <c r="B91" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -3090,46 +3105,46 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="22" t="s">
+      <c r="B96" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -3138,46 +3153,46 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="20"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="3"/>
     </row>
     <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="22" t="s">
+      <c r="B101" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -3186,56 +3201,56 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
       <c r="E104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B107" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="22" t="s">
+      <c r="B107" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D107" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -3244,46 +3259,46 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="20"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
       <c r="E108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="20"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
       <c r="E109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
       <c r="E110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="3"/>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="22" t="s">
+      <c r="B112" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3292,46 +3307,46 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="20"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="20"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="21"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
       <c r="E115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="3"/>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B117" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="22" t="s">
+      <c r="B117" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D117" s="22" t="s">
+      <c r="D117" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3340,46 +3355,46 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="20"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="20"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
       <c r="E119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="21"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
       <c r="E120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="3"/>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B122" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="22" t="s">
+      <c r="B122" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3388,46 +3403,46 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="20"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
       <c r="E123" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="20"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
+      <c r="A124" s="16"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
       <c r="E124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
       <c r="E125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="3"/>
     </row>
     <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B127" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="22" t="s">
+      <c r="B127" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3436,56 +3451,56 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="20"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
       <c r="E128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="20"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
       <c r="E129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="21"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
     </row>
     <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B133" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="22" t="s">
+      <c r="B133" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D133" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3494,46 +3509,46 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="20"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="20"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
       <c r="E135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="21"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
       <c r="E136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="22" t="s">
+      <c r="B138" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="22" t="s">
+      <c r="D138" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -3542,46 +3557,46 @@
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="20"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
       <c r="E139" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="20"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
       <c r="E140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="21"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
       <c r="E141" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="19" t="s">
+      <c r="A143" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B143" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="22" t="s">
+      <c r="B143" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="D143" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3590,46 +3605,46 @@
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="20"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="22"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
       <c r="E144" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="20"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
+      <c r="A145" s="16"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
       <c r="E145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="21"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
       <c r="E146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="3"/>
     </row>
     <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="19" t="s">
+      <c r="A148" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B148" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="22" t="s">
+      <c r="B148" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="D148" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3638,46 +3653,46 @@
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="20"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="22"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
       <c r="E149" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="20"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
+      <c r="A150" s="16"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
       <c r="E150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="21"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
       <c r="E151" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="19" t="s">
+      <c r="A153" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B153" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="22" t="s">
+      <c r="B153" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="22" t="s">
+      <c r="D153" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3686,56 +3701,56 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="20"/>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="22"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
       <c r="E154" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="20"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="22"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
       <c r="E155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="21"/>
-      <c r="B156" s="22"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
       <c r="E156" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="3"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="19" t="s">
+      <c r="A159" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B159" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="22" t="s">
+      <c r="B159" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D159" s="22" t="s">
+      <c r="D159" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -3744,46 +3759,46 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="20"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="22"/>
+      <c r="A160" s="16"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
       <c r="E160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="20"/>
-      <c r="B161" s="22"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
+      <c r="A161" s="16"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
       <c r="E161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="21"/>
-      <c r="B162" s="22"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
+      <c r="A162" s="17"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
       <c r="E162" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="3"/>
     </row>
     <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="19" t="s">
+      <c r="A164" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B164" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="22" t="s">
+      <c r="B164" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D164" s="22" t="s">
+      <c r="D164" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -3792,46 +3807,46 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="20"/>
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
+      <c r="A165" s="16"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
       <c r="E165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="20"/>
-      <c r="B166" s="22"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
+      <c r="A166" s="16"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="18"/>
       <c r="E166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="21"/>
-      <c r="B167" s="22"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="22"/>
+      <c r="A167" s="17"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
       <c r="E167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="3"/>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="19" t="s">
+      <c r="A169" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="22" t="s">
+      <c r="B169" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="D169" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -3840,46 +3855,46 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="20"/>
-      <c r="B170" s="22"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="22"/>
+      <c r="A170" s="16"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
       <c r="E170" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="20"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="22"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
       <c r="E171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="21"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
       <c r="E172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="3"/>
     </row>
     <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="19" t="s">
+      <c r="A174" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B174" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="22" t="s">
+      <c r="B174" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D174" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -3888,46 +3903,46 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="20"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="22"/>
+      <c r="A175" s="16"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
       <c r="E175" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F175" s="3"/>
     </row>
     <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="20"/>
-      <c r="B176" s="22"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="22"/>
+      <c r="A176" s="16"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
       <c r="E176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="21"/>
-      <c r="B177" s="22"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="22"/>
+      <c r="A177" s="17"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
       <c r="E177" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="3"/>
     </row>
     <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="19" t="s">
+      <c r="A179" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B179" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="22" t="s">
+      <c r="B179" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="D179" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -3936,56 +3951,56 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="20"/>
-      <c r="B180" s="22"/>
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
+      <c r="A180" s="16"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
       <c r="E180" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="20"/>
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
+      <c r="A181" s="16"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
       <c r="E181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
-      <c r="C182" s="22"/>
-      <c r="D182" s="22"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="18"/>
       <c r="E182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="3"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="17" t="s">
+      <c r="A184" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B184" s="18"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
     </row>
     <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="19" t="s">
+      <c r="A185" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B185" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="22" t="s">
+      <c r="B185" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="22" t="s">
+      <c r="D185" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -3994,46 +4009,46 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="20"/>
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
+      <c r="A186" s="16"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
       <c r="E186" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="20"/>
-      <c r="B187" s="22"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
+      <c r="A187" s="16"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
       <c r="E187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="21"/>
-      <c r="B188" s="22"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="18"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="18"/>
       <c r="E188" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F188" s="3"/>
     </row>
     <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="19" t="s">
+      <c r="A190" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B190" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="22" t="s">
+      <c r="B190" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="D190" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -4042,46 +4057,46 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="20"/>
-      <c r="B191" s="22"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22"/>
+      <c r="A191" s="16"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
       <c r="E191" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="20"/>
-      <c r="B192" s="22"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="22"/>
+      <c r="A192" s="16"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
       <c r="E192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="21"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
+      <c r="A193" s="17"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
       <c r="E193" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F193" s="3"/>
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="19" t="s">
+      <c r="A195" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B195" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="22" t="s">
+      <c r="B195" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D195" s="22" t="s">
+      <c r="D195" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -4090,46 +4105,46 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="20"/>
-      <c r="B196" s="22"/>
-      <c r="C196" s="22"/>
-      <c r="D196" s="22"/>
+      <c r="A196" s="16"/>
+      <c r="B196" s="18"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="18"/>
       <c r="E196" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="20"/>
-      <c r="B197" s="22"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
+      <c r="A197" s="16"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
       <c r="E197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198" s="21"/>
-      <c r="B198" s="22"/>
-      <c r="C198" s="22"/>
-      <c r="D198" s="22"/>
+      <c r="A198" s="17"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="18"/>
       <c r="E198" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F198" s="3"/>
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200" s="19" t="s">
+      <c r="A200" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B200" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="22" t="s">
+      <c r="B200" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D200" s="22" t="s">
+      <c r="D200" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -4138,46 +4153,46 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="20"/>
-      <c r="B201" s="22"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="22"/>
+      <c r="A201" s="16"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="18"/>
       <c r="E201" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="20"/>
-      <c r="B202" s="22"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="22"/>
+      <c r="A202" s="16"/>
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="18"/>
       <c r="E202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="21"/>
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
+      <c r="A203" s="17"/>
+      <c r="B203" s="18"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="18"/>
       <c r="E203" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="3"/>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="19" t="s">
+      <c r="A205" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B205" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="22" t="s">
+      <c r="B205" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D205" s="22" t="s">
+      <c r="D205" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -4186,56 +4201,56 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="20"/>
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="22"/>
+      <c r="A206" s="16"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
       <c r="E206" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="20"/>
-      <c r="B207" s="22"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="22"/>
+      <c r="A207" s="16"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
       <c r="E207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="21"/>
-      <c r="B208" s="22"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="22"/>
+      <c r="A208" s="17"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18"/>
       <c r="E208" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F208" s="3"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="17" t="s">
+      <c r="A210" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="20"/>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="19" t="s">
+      <c r="A211" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B211" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="22" t="s">
+      <c r="B211" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D211" s="22" t="s">
+      <c r="D211" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -4244,46 +4259,46 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="20"/>
-      <c r="B212" s="22"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="22"/>
+      <c r="A212" s="16"/>
+      <c r="B212" s="18"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="18"/>
       <c r="E212" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F212" s="3"/>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="20"/>
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="22"/>
+      <c r="A213" s="16"/>
+      <c r="B213" s="18"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="18"/>
       <c r="E213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="21"/>
-      <c r="B214" s="22"/>
-      <c r="C214" s="22"/>
-      <c r="D214" s="22"/>
+      <c r="A214" s="17"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="18"/>
       <c r="E214" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="3"/>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="19" t="s">
+      <c r="A216" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B216" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="22" t="s">
+      <c r="B216" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D216" s="22" t="s">
+      <c r="D216" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -4292,46 +4307,46 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="20"/>
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
+      <c r="A217" s="16"/>
+      <c r="B217" s="18"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="18"/>
       <c r="E217" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F217" s="3"/>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="20"/>
-      <c r="B218" s="22"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
+      <c r="A218" s="16"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="18"/>
       <c r="E218" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="21"/>
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
+      <c r="A219" s="17"/>
+      <c r="B219" s="18"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="18"/>
       <c r="E219" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F219" s="3"/>
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="19" t="s">
+      <c r="A221" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B221" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="22" t="s">
+      <c r="B221" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D221" s="22" t="s">
+      <c r="D221" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -4340,46 +4355,46 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="20"/>
-      <c r="B222" s="22"/>
-      <c r="C222" s="22"/>
-      <c r="D222" s="22"/>
+      <c r="A222" s="16"/>
+      <c r="B222" s="18"/>
+      <c r="C222" s="18"/>
+      <c r="D222" s="18"/>
       <c r="E222" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F222" s="3"/>
     </row>
     <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="20"/>
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="22"/>
+      <c r="A223" s="16"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="18"/>
       <c r="E223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="21"/>
-      <c r="B224" s="22"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="22"/>
+      <c r="A224" s="17"/>
+      <c r="B224" s="18"/>
+      <c r="C224" s="18"/>
+      <c r="D224" s="18"/>
       <c r="E224" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F224" s="3"/>
     </row>
     <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="19" t="s">
+      <c r="A226" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B226" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="22" t="s">
+      <c r="B226" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D226" s="22" t="s">
+      <c r="D226" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -4388,46 +4403,46 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="20"/>
-      <c r="B227" s="22"/>
-      <c r="C227" s="22"/>
-      <c r="D227" s="22"/>
+      <c r="A227" s="16"/>
+      <c r="B227" s="18"/>
+      <c r="C227" s="18"/>
+      <c r="D227" s="18"/>
       <c r="E227" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F227" s="3"/>
     </row>
     <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="20"/>
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
-      <c r="D228" s="22"/>
+      <c r="A228" s="16"/>
+      <c r="B228" s="18"/>
+      <c r="C228" s="18"/>
+      <c r="D228" s="18"/>
       <c r="E228" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="21"/>
-      <c r="B229" s="22"/>
-      <c r="C229" s="22"/>
-      <c r="D229" s="22"/>
+      <c r="A229" s="17"/>
+      <c r="B229" s="18"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="18"/>
       <c r="E229" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F229" s="3"/>
     </row>
     <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="19" t="s">
+      <c r="A231" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B231" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="22" t="s">
+      <c r="B231" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D231" s="22" t="s">
+      <c r="D231" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -4436,56 +4451,56 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="20"/>
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
-      <c r="D232" s="22"/>
+      <c r="A232" s="16"/>
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="18"/>
       <c r="E232" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="20"/>
-      <c r="B233" s="22"/>
-      <c r="C233" s="22"/>
-      <c r="D233" s="22"/>
+      <c r="A233" s="16"/>
+      <c r="B233" s="18"/>
+      <c r="C233" s="18"/>
+      <c r="D233" s="18"/>
       <c r="E233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="21"/>
-      <c r="B234" s="22"/>
-      <c r="C234" s="22"/>
-      <c r="D234" s="22"/>
+      <c r="A234" s="17"/>
+      <c r="B234" s="18"/>
+      <c r="C234" s="18"/>
+      <c r="D234" s="18"/>
       <c r="E234" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F234" s="3"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="17" t="s">
+      <c r="A236" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B236" s="18"/>
-      <c r="C236" s="18"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
-      <c r="F236" s="18"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="20"/>
+      <c r="F236" s="20"/>
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="19" t="s">
+      <c r="A237" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B237" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="22" t="s">
+      <c r="B237" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D237" s="22" t="s">
+      <c r="D237" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -4494,46 +4509,46 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="20"/>
-      <c r="B238" s="22"/>
-      <c r="C238" s="22"/>
-      <c r="D238" s="22"/>
+      <c r="A238" s="16"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="18"/>
       <c r="E238" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="20"/>
-      <c r="B239" s="22"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="22"/>
+      <c r="A239" s="16"/>
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="18"/>
       <c r="E239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="21"/>
-      <c r="B240" s="22"/>
-      <c r="C240" s="22"/>
-      <c r="D240" s="22"/>
+      <c r="A240" s="17"/>
+      <c r="B240" s="18"/>
+      <c r="C240" s="18"/>
+      <c r="D240" s="18"/>
       <c r="E240" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F240" s="3"/>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="19" t="s">
+      <c r="A242" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B242" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="22" t="s">
+      <c r="B242" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D242" s="22" t="s">
+      <c r="D242" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -4542,46 +4557,46 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="20"/>
-      <c r="B243" s="22"/>
-      <c r="C243" s="22"/>
-      <c r="D243" s="22"/>
+      <c r="A243" s="16"/>
+      <c r="B243" s="18"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="18"/>
       <c r="E243" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F243" s="3"/>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A244" s="20"/>
-      <c r="B244" s="22"/>
-      <c r="C244" s="22"/>
-      <c r="D244" s="22"/>
+      <c r="A244" s="16"/>
+      <c r="B244" s="18"/>
+      <c r="C244" s="18"/>
+      <c r="D244" s="18"/>
       <c r="E244" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A245" s="21"/>
-      <c r="B245" s="22"/>
-      <c r="C245" s="22"/>
-      <c r="D245" s="22"/>
+      <c r="A245" s="17"/>
+      <c r="B245" s="18"/>
+      <c r="C245" s="18"/>
+      <c r="D245" s="18"/>
       <c r="E245" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F245" s="3"/>
     </row>
     <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="19" t="s">
+      <c r="A247" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B247" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="22" t="s">
+      <c r="B247" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D247" s="22" t="s">
+      <c r="D247" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -4590,46 +4605,46 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="20"/>
-      <c r="B248" s="22"/>
-      <c r="C248" s="22"/>
-      <c r="D248" s="22"/>
+      <c r="A248" s="16"/>
+      <c r="B248" s="18"/>
+      <c r="C248" s="18"/>
+      <c r="D248" s="18"/>
       <c r="E248" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="20"/>
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
-      <c r="D249" s="22"/>
+      <c r="A249" s="16"/>
+      <c r="B249" s="18"/>
+      <c r="C249" s="18"/>
+      <c r="D249" s="18"/>
       <c r="E249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A250" s="21"/>
-      <c r="B250" s="22"/>
-      <c r="C250" s="22"/>
-      <c r="D250" s="22"/>
+      <c r="A250" s="17"/>
+      <c r="B250" s="18"/>
+      <c r="C250" s="18"/>
+      <c r="D250" s="18"/>
       <c r="E250" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F250" s="3"/>
     </row>
     <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A252" s="19" t="s">
+      <c r="A252" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B252" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="22" t="s">
+      <c r="B252" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D252" s="22" t="s">
+      <c r="D252" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -4638,46 +4653,46 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="20"/>
-      <c r="B253" s="22"/>
-      <c r="C253" s="22"/>
-      <c r="D253" s="22"/>
+      <c r="A253" s="16"/>
+      <c r="B253" s="18"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18"/>
       <c r="E253" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A254" s="20"/>
-      <c r="B254" s="22"/>
-      <c r="C254" s="22"/>
-      <c r="D254" s="22"/>
+      <c r="A254" s="16"/>
+      <c r="B254" s="18"/>
+      <c r="C254" s="18"/>
+      <c r="D254" s="18"/>
       <c r="E254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="21"/>
-      <c r="B255" s="22"/>
-      <c r="C255" s="22"/>
-      <c r="D255" s="22"/>
+      <c r="A255" s="17"/>
+      <c r="B255" s="18"/>
+      <c r="C255" s="18"/>
+      <c r="D255" s="18"/>
       <c r="E255" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F255" s="3"/>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="19" t="s">
+      <c r="A257" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B257" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="22" t="s">
+      <c r="B257" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D257" s="22" t="s">
+      <c r="D257" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -4686,56 +4701,56 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="20"/>
-      <c r="B258" s="22"/>
-      <c r="C258" s="22"/>
-      <c r="D258" s="22"/>
+      <c r="A258" s="16"/>
+      <c r="B258" s="18"/>
+      <c r="C258" s="18"/>
+      <c r="D258" s="18"/>
       <c r="E258" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F258" s="3"/>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="20"/>
-      <c r="B259" s="22"/>
-      <c r="C259" s="22"/>
-      <c r="D259" s="22"/>
+      <c r="A259" s="16"/>
+      <c r="B259" s="18"/>
+      <c r="C259" s="18"/>
+      <c r="D259" s="18"/>
       <c r="E259" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="21"/>
-      <c r="B260" s="22"/>
-      <c r="C260" s="22"/>
-      <c r="D260" s="22"/>
+      <c r="A260" s="17"/>
+      <c r="B260" s="18"/>
+      <c r="C260" s="18"/>
+      <c r="D260" s="18"/>
       <c r="E260" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F260" s="3"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="17" t="s">
+      <c r="A262" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B262" s="18"/>
-      <c r="C262" s="18"/>
-      <c r="D262" s="18"/>
-      <c r="E262" s="18"/>
-      <c r="F262" s="18"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="20"/>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="19" t="s">
+      <c r="A263" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B263" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="22" t="s">
+      <c r="B263" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D263" s="22" t="s">
+      <c r="D263" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -4744,46 +4759,46 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="20"/>
-      <c r="B264" s="22"/>
-      <c r="C264" s="22"/>
-      <c r="D264" s="22"/>
+      <c r="A264" s="16"/>
+      <c r="B264" s="18"/>
+      <c r="C264" s="18"/>
+      <c r="D264" s="18"/>
       <c r="E264" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F264" s="3"/>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="20"/>
-      <c r="B265" s="22"/>
-      <c r="C265" s="22"/>
-      <c r="D265" s="22"/>
+      <c r="A265" s="16"/>
+      <c r="B265" s="18"/>
+      <c r="C265" s="18"/>
+      <c r="D265" s="18"/>
       <c r="E265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="21"/>
-      <c r="B266" s="22"/>
-      <c r="C266" s="22"/>
-      <c r="D266" s="22"/>
+      <c r="A266" s="17"/>
+      <c r="B266" s="18"/>
+      <c r="C266" s="18"/>
+      <c r="D266" s="18"/>
       <c r="E266" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F266" s="3"/>
     </row>
     <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="19" t="s">
+      <c r="A268" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B268" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C268" s="22" t="s">
+      <c r="B268" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D268" s="22" t="s">
+      <c r="D268" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -4792,46 +4807,46 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="20"/>
-      <c r="B269" s="22"/>
-      <c r="C269" s="22"/>
-      <c r="D269" s="22"/>
+      <c r="A269" s="16"/>
+      <c r="B269" s="18"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="18"/>
       <c r="E269" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="20"/>
-      <c r="B270" s="22"/>
-      <c r="C270" s="22"/>
-      <c r="D270" s="22"/>
+      <c r="A270" s="16"/>
+      <c r="B270" s="18"/>
+      <c r="C270" s="18"/>
+      <c r="D270" s="18"/>
       <c r="E270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="21"/>
-      <c r="B271" s="22"/>
-      <c r="C271" s="22"/>
-      <c r="D271" s="22"/>
+      <c r="A271" s="17"/>
+      <c r="B271" s="18"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="18"/>
       <c r="E271" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F271" s="3"/>
     </row>
     <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A273" s="19" t="s">
+      <c r="A273" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B273" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C273" s="22" t="s">
+      <c r="B273" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D273" s="22" t="s">
+      <c r="D273" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -4840,46 +4855,46 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A274" s="20"/>
-      <c r="B274" s="22"/>
-      <c r="C274" s="22"/>
-      <c r="D274" s="22"/>
+      <c r="A274" s="16"/>
+      <c r="B274" s="18"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="18"/>
       <c r="E274" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A275" s="20"/>
-      <c r="B275" s="22"/>
-      <c r="C275" s="22"/>
-      <c r="D275" s="22"/>
+      <c r="A275" s="16"/>
+      <c r="B275" s="18"/>
+      <c r="C275" s="18"/>
+      <c r="D275" s="18"/>
       <c r="E275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="21"/>
-      <c r="B276" s="22"/>
-      <c r="C276" s="22"/>
-      <c r="D276" s="22"/>
+      <c r="A276" s="17"/>
+      <c r="B276" s="18"/>
+      <c r="C276" s="18"/>
+      <c r="D276" s="18"/>
       <c r="E276" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F276" s="3"/>
     </row>
     <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="19" t="s">
+      <c r="A278" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B278" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C278" s="22" t="s">
+      <c r="B278" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D278" s="22" t="s">
+      <c r="D278" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -4888,46 +4903,46 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A279" s="20"/>
-      <c r="B279" s="22"/>
-      <c r="C279" s="22"/>
-      <c r="D279" s="22"/>
+      <c r="A279" s="16"/>
+      <c r="B279" s="18"/>
+      <c r="C279" s="18"/>
+      <c r="D279" s="18"/>
       <c r="E279" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F279" s="3"/>
     </row>
     <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A280" s="20"/>
-      <c r="B280" s="22"/>
-      <c r="C280" s="22"/>
-      <c r="D280" s="22"/>
+      <c r="A280" s="16"/>
+      <c r="B280" s="18"/>
+      <c r="C280" s="18"/>
+      <c r="D280" s="18"/>
       <c r="E280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A281" s="21"/>
-      <c r="B281" s="22"/>
-      <c r="C281" s="22"/>
-      <c r="D281" s="22"/>
+      <c r="A281" s="17"/>
+      <c r="B281" s="18"/>
+      <c r="C281" s="18"/>
+      <c r="D281" s="18"/>
       <c r="E281" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F281" s="3"/>
     </row>
     <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="19" t="s">
+      <c r="A283" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B283" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C283" s="22" t="s">
+      <c r="B283" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D283" s="22" t="s">
+      <c r="D283" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -4936,56 +4951,56 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" s="20"/>
-      <c r="B284" s="22"/>
-      <c r="C284" s="22"/>
-      <c r="D284" s="22"/>
+      <c r="A284" s="16"/>
+      <c r="B284" s="18"/>
+      <c r="C284" s="18"/>
+      <c r="D284" s="18"/>
       <c r="E284" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="20"/>
-      <c r="B285" s="22"/>
-      <c r="C285" s="22"/>
-      <c r="D285" s="22"/>
+      <c r="A285" s="16"/>
+      <c r="B285" s="18"/>
+      <c r="C285" s="18"/>
+      <c r="D285" s="18"/>
       <c r="E285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A286" s="21"/>
-      <c r="B286" s="22"/>
-      <c r="C286" s="22"/>
-      <c r="D286" s="22"/>
+      <c r="A286" s="17"/>
+      <c r="B286" s="18"/>
+      <c r="C286" s="18"/>
+      <c r="D286" s="18"/>
       <c r="E286" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F286" s="3"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="17" t="s">
+      <c r="A288" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B288" s="18"/>
-      <c r="C288" s="18"/>
-      <c r="D288" s="18"/>
-      <c r="E288" s="18"/>
-      <c r="F288" s="18"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="20"/>
+      <c r="E288" s="20"/>
+      <c r="F288" s="20"/>
     </row>
     <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A289" s="19" t="s">
+      <c r="A289" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B289" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289" s="22" t="s">
+      <c r="B289" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D289" s="22" t="s">
+      <c r="D289" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E289" s="2" t="s">
@@ -4994,46 +5009,46 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="20"/>
-      <c r="B290" s="22"/>
-      <c r="C290" s="22"/>
-      <c r="D290" s="22"/>
+      <c r="A290" s="16"/>
+      <c r="B290" s="18"/>
+      <c r="C290" s="18"/>
+      <c r="D290" s="18"/>
       <c r="E290" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F290" s="3"/>
     </row>
     <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="20"/>
-      <c r="B291" s="22"/>
-      <c r="C291" s="22"/>
-      <c r="D291" s="22"/>
+      <c r="A291" s="16"/>
+      <c r="B291" s="18"/>
+      <c r="C291" s="18"/>
+      <c r="D291" s="18"/>
       <c r="E291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A292" s="21"/>
-      <c r="B292" s="22"/>
-      <c r="C292" s="22"/>
-      <c r="D292" s="22"/>
+      <c r="A292" s="17"/>
+      <c r="B292" s="18"/>
+      <c r="C292" s="18"/>
+      <c r="D292" s="18"/>
       <c r="E292" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F292" s="3"/>
     </row>
     <row r="294" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A294" s="19" t="s">
+      <c r="A294" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B294" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="22" t="s">
+      <c r="B294" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D294" s="22" t="s">
+      <c r="D294" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E294" s="2" t="s">
@@ -5042,46 +5057,46 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="20"/>
-      <c r="B295" s="22"/>
-      <c r="C295" s="22"/>
-      <c r="D295" s="22"/>
+      <c r="A295" s="16"/>
+      <c r="B295" s="18"/>
+      <c r="C295" s="18"/>
+      <c r="D295" s="18"/>
       <c r="E295" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F295" s="3"/>
     </row>
     <row r="296" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="20"/>
-      <c r="B296" s="22"/>
-      <c r="C296" s="22"/>
-      <c r="D296" s="22"/>
+      <c r="A296" s="16"/>
+      <c r="B296" s="18"/>
+      <c r="C296" s="18"/>
+      <c r="D296" s="18"/>
       <c r="E296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="21"/>
-      <c r="B297" s="22"/>
-      <c r="C297" s="22"/>
-      <c r="D297" s="22"/>
+      <c r="A297" s="17"/>
+      <c r="B297" s="18"/>
+      <c r="C297" s="18"/>
+      <c r="D297" s="18"/>
       <c r="E297" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F297" s="3"/>
     </row>
     <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A299" s="19" t="s">
+      <c r="A299" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B299" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C299" s="22" t="s">
+      <c r="B299" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D299" s="22" t="s">
+      <c r="D299" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E299" s="2" t="s">
@@ -5090,46 +5105,46 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A300" s="20"/>
-      <c r="B300" s="22"/>
-      <c r="C300" s="22"/>
-      <c r="D300" s="22"/>
+      <c r="A300" s="16"/>
+      <c r="B300" s="18"/>
+      <c r="C300" s="18"/>
+      <c r="D300" s="18"/>
       <c r="E300" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F300" s="3"/>
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="20"/>
-      <c r="B301" s="22"/>
-      <c r="C301" s="22"/>
-      <c r="D301" s="22"/>
+      <c r="A301" s="16"/>
+      <c r="B301" s="18"/>
+      <c r="C301" s="18"/>
+      <c r="D301" s="18"/>
       <c r="E301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A302" s="21"/>
-      <c r="B302" s="22"/>
-      <c r="C302" s="22"/>
-      <c r="D302" s="22"/>
+      <c r="A302" s="17"/>
+      <c r="B302" s="18"/>
+      <c r="C302" s="18"/>
+      <c r="D302" s="18"/>
       <c r="E302" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F302" s="3"/>
     </row>
     <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304" s="19" t="s">
+      <c r="A304" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B304" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C304" s="22" t="s">
+      <c r="B304" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D304" s="22" t="s">
+      <c r="D304" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E304" s="2" t="s">
@@ -5138,46 +5153,46 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A305" s="20"/>
-      <c r="B305" s="22"/>
-      <c r="C305" s="22"/>
-      <c r="D305" s="22"/>
+      <c r="A305" s="16"/>
+      <c r="B305" s="18"/>
+      <c r="C305" s="18"/>
+      <c r="D305" s="18"/>
       <c r="E305" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F305" s="3"/>
     </row>
     <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A306" s="20"/>
-      <c r="B306" s="22"/>
-      <c r="C306" s="22"/>
-      <c r="D306" s="22"/>
+      <c r="A306" s="16"/>
+      <c r="B306" s="18"/>
+      <c r="C306" s="18"/>
+      <c r="D306" s="18"/>
       <c r="E306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A307" s="21"/>
-      <c r="B307" s="22"/>
-      <c r="C307" s="22"/>
-      <c r="D307" s="22"/>
+      <c r="A307" s="17"/>
+      <c r="B307" s="18"/>
+      <c r="C307" s="18"/>
+      <c r="D307" s="18"/>
       <c r="E307" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F307" s="3"/>
     </row>
     <row r="309" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="19" t="s">
+      <c r="A309" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B309" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="22" t="s">
+      <c r="B309" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D309" s="22" t="s">
+      <c r="D309" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E309" s="2" t="s">
@@ -5186,30 +5201,30 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A310" s="20"/>
-      <c r="B310" s="22"/>
-      <c r="C310" s="22"/>
-      <c r="D310" s="22"/>
+      <c r="A310" s="16"/>
+      <c r="B310" s="18"/>
+      <c r="C310" s="18"/>
+      <c r="D310" s="18"/>
       <c r="E310" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A311" s="20"/>
-      <c r="B311" s="22"/>
-      <c r="C311" s="22"/>
-      <c r="D311" s="22"/>
+      <c r="A311" s="16"/>
+      <c r="B311" s="18"/>
+      <c r="C311" s="18"/>
+      <c r="D311" s="18"/>
       <c r="E311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="21"/>
-      <c r="B312" s="22"/>
-      <c r="C312" s="22"/>
-      <c r="D312" s="22"/>
+      <c r="A312" s="17"/>
+      <c r="B312" s="18"/>
+      <c r="C312" s="18"/>
+      <c r="D312" s="18"/>
       <c r="E312" s="3" t="s">
         <v>12</v>
       </c>
@@ -5217,234 +5232,6 @@
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="D309:D312"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="D299:D302"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="D283:D286"/>
-    <mergeCell ref="A288:F288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="D273:D276"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="D263:D266"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="B268:B271"/>
-    <mergeCell ref="C268:C271"/>
-    <mergeCell ref="D268:D271"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="D257:D260"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="D247:D250"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="D237:D240"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="D221:D224"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="D211:D214"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="D205:D208"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="D195:D198"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A6"/>
@@ -5469,27 +5256,240 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="D205:D208"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="D195:D198"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="D211:D214"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="D216:D219"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="D237:D240"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="D257:D260"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D245"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="D247:D250"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="D273:D276"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="D263:D266"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="C268:C271"/>
+    <mergeCell ref="D268:D271"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="D283:D286"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="D309:D312"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="D299:D302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088059E6DDC6DF445B0AB87CAA811C0D0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314c580fd60c3711a3e3031240862aa0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae328def-a07b-4370-9a10-828a34f91ce9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5728a0d98f3ba8ecfca4ece15eb01571" ns2:_="">
     <xsd:import namespace="ae328def-a07b-4370-9a10-828a34f91ce9"/>
@@ -5633,24 +5633,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9759A726-586A-4C39-A765-CAA32818CEB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5666,4 +5664,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PRT585_Group _7_TimeSheet.xlsx
+++ b/PRT585_Group _7_TimeSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
@@ -11,27 +11,11 @@
     <sheet name="Group 7 Individual Timesheet" sheetId="16" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="68">
   <si>
     <t>Week</t>
   </si>
@@ -249,6 +233,16 @@
   </si>
   <si>
     <t>1. Add Todo Component in Helloworld Blazor.</t>
+  </si>
+  <si>
+    <t>1. Learn .Net by read through Microsoft webstie: https://dotnet.microsoft.com/en-us/learn</t>
+  </si>
+  <si>
+    <t>1.Group discussion  and organize everyone's available time.
+2. Create Git group repository and TEAM</t>
+  </si>
+  <si>
+    <t>1. Find alternative tool of SQL server because it's not available for MacOS.</t>
   </si>
 </sst>
 </file>
@@ -413,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -424,16 +418,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,11 +439,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,9 +469,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -760,7 +763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -805,26 +808,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -835,84 +838,84 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -921,84 +924,84 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1007,84 +1010,84 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1093,84 +1096,84 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1179,84 +1182,84 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1265,84 +1268,84 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1351,84 +1354,84 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="7"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -1437,84 +1440,84 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
       <c r="E64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="7"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13"/>
     </row>
     <row r="67" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -1523,84 +1526,84 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="7"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -1609,84 +1612,84 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
       <c r="E79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
       <c r="E80" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="B83" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -1695,84 +1698,84 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
       <c r="E84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
       <c r="E85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
       <c r="E86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
       <c r="E87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
       <c r="E88" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="7"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="13"/>
     </row>
     <row r="91" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -1781,50 +1784,50 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
       <c r="E94" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
       <c r="E95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
       <c r="E96" s="3" t="s">
         <v>15</v>
       </c>
@@ -1832,12 +1835,59 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:A16"/>
@@ -1850,59 +1900,12 @@
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="D19:D24"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1913,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,77 +1950,83 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="F3" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="F4" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="F5" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="17" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2026,46 +2035,46 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2074,46 +2083,46 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2122,46 +2131,46 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2172,10 +2181,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
@@ -2184,10 +2193,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
@@ -2196,10 +2205,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
@@ -2207,27 +2216,27 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2236,46 +2245,46 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2284,46 +2293,46 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="B39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2332,46 +2341,46 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2380,46 +2389,46 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2428,56 +2437,56 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2486,46 +2495,46 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2534,46 +2543,46 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2582,46 +2591,46 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2630,46 +2639,46 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -2678,56 +2687,56 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="80" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="11" t="s">
+      <c r="B81" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -2736,46 +2745,46 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
       <c r="E82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
       <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
       <c r="E84" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="B86" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -2784,46 +2793,46 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
       <c r="E87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
       <c r="E88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
       <c r="E89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2832,46 +2841,46 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
       <c r="E94" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="3"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="11" t="s">
+      <c r="B96" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -2880,46 +2889,46 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
       <c r="E97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
       <c r="E98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
       <c r="E99" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="3"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="11" t="s">
+      <c r="B101" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -2928,56 +2937,56 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
       <c r="E102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
       <c r="E104" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F104" s="3"/>
     </row>
-    <row r="106" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="11" t="s">
+      <c r="B107" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -2986,46 +2995,46 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
       <c r="E108" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
       <c r="E109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
       <c r="E110" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F110" s="3"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="11" t="s">
+      <c r="B112" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3034,46 +3043,46 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
       <c r="E113" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
       <c r="E115" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F115" s="3"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="11" t="s">
+      <c r="B117" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3082,46 +3091,46 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
       <c r="E118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
       <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
       <c r="E120" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F120" s="3"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="11" t="s">
+      <c r="B122" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3130,46 +3139,46 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
       <c r="E123" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
       <c r="E125" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F125" s="3"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="11" t="s">
+      <c r="B127" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3178,56 +3187,56 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
       <c r="E128" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
       <c r="E130" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F130" s="3"/>
     </row>
-    <row r="132" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="11" t="s">
+      <c r="B133" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3236,46 +3245,46 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
       <c r="E134" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
       <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
       <c r="E136" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F136" s="3"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="11" t="s">
+      <c r="B138" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -3284,46 +3293,46 @@
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
       <c r="E139" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
       <c r="E141" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F141" s="3"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="11" t="s">
+      <c r="B143" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3332,46 +3341,46 @@
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
       <c r="E144" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
       <c r="E145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
       <c r="E146" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F146" s="3"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="11" t="s">
+      <c r="B148" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3380,46 +3389,46 @@
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
+      <c r="A149" s="8"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
       <c r="E149" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
       <c r="E150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
+      <c r="A151" s="9"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
       <c r="E151" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F151" s="3"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B153" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="11" t="s">
+      <c r="B153" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3428,56 +3437,56 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
       <c r="E154" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
+      <c r="A156" s="9"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
       <c r="E156" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="3"/>
     </row>
-    <row r="158" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B159" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="11" t="s">
+      <c r="B159" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -3486,46 +3495,46 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
+      <c r="A160" s="8"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
       <c r="E160" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
+      <c r="A161" s="8"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
       <c r="E161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
       <c r="E162" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F162" s="3"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B164" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="11" t="s">
+      <c r="B164" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D164" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -3534,46 +3543,46 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="9"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
+      <c r="A165" s="8"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
       <c r="E165" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
+      <c r="A166" s="8"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
       <c r="E166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
+      <c r="A167" s="9"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
       <c r="E167" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F167" s="3"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="11" t="s">
+      <c r="B169" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D169" s="11" t="s">
+      <c r="D169" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -3582,46 +3591,46 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="9"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
       <c r="E170" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
+      <c r="A171" s="8"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
       <c r="E171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
+      <c r="A172" s="9"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
       <c r="E172" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F172" s="3"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="11" t="s">
+      <c r="B174" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -3630,46 +3639,46 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="9"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
       <c r="E175" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F175" s="3"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="9"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
+      <c r="A176" s="8"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
       <c r="E176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
+      <c r="A177" s="9"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
       <c r="E177" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F177" s="3"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B179" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="11" t="s">
+      <c r="B179" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D179" s="11" t="s">
+      <c r="D179" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -3678,56 +3687,56 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="9"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
+      <c r="A180" s="8"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
       <c r="E180" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
+      <c r="A181" s="8"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
       <c r="E181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
+      <c r="A182" s="9"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
       <c r="E182" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F182" s="3"/>
     </row>
-    <row r="184" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B184" s="13"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="11" t="s">
+      <c r="B185" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D185" s="11" t="s">
+      <c r="D185" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -3736,46 +3745,46 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
+      <c r="A186" s="8"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
       <c r="E186" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
+      <c r="A187" s="8"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
       <c r="E187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
+      <c r="A188" s="9"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
       <c r="E188" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F188" s="3"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B190" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="11" t="s">
+      <c r="B190" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -3784,46 +3793,46 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
+      <c r="A191" s="8"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
       <c r="E191" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
+      <c r="A192" s="8"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
       <c r="E192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
+      <c r="A193" s="9"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
       <c r="E193" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F193" s="3"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="11" t="s">
+      <c r="B195" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D195" s="11" t="s">
+      <c r="D195" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -3832,46 +3841,46 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="9"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
+      <c r="A196" s="8"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
       <c r="E196" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="9"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
+      <c r="A197" s="8"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
       <c r="E197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="10"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
+      <c r="A198" s="9"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
       <c r="E198" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F198" s="3"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B200" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="11" t="s">
+      <c r="B200" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D200" s="11" t="s">
+      <c r="D200" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -3880,46 +3889,46 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="9"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
+      <c r="A201" s="8"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
       <c r="E201" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="9"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
+      <c r="A202" s="8"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
       <c r="E202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="10"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
+      <c r="A203" s="9"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
       <c r="E203" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F203" s="3"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B205" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="11" t="s">
+      <c r="B205" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D205" s="11" t="s">
+      <c r="D205" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -3928,56 +3937,56 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="9"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
+      <c r="A206" s="8"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
       <c r="E206" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="9"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
       <c r="E207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="10"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
-      <c r="D208" s="11"/>
+      <c r="A208" s="9"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
       <c r="E208" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F208" s="3"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B210" s="13"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B211" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="11" t="s">
+      <c r="B211" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D211" s="11" t="s">
+      <c r="D211" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -3986,46 +3995,46 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="9"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
+      <c r="A212" s="8"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
       <c r="E212" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F212" s="3"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="9"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-      <c r="D213" s="11"/>
+      <c r="A213" s="8"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
       <c r="E213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="10"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="11"/>
+      <c r="A214" s="9"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
       <c r="E214" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F214" s="3"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B216" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="11" t="s">
+      <c r="B216" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D216" s="11" t="s">
+      <c r="D216" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -4034,46 +4043,46 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="9"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
       <c r="E217" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F217" s="3"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="9"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
-      <c r="D218" s="11"/>
+      <c r="A218" s="8"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
       <c r="E218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="10"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
+      <c r="A219" s="9"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
       <c r="E219" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F219" s="3"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B221" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="11" t="s">
+      <c r="B221" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D221" s="11" t="s">
+      <c r="D221" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -4082,46 +4091,46 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="9"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
+      <c r="A222" s="8"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
       <c r="E222" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F222" s="3"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="9"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="11"/>
-      <c r="D223" s="11"/>
+      <c r="A223" s="8"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
       <c r="E223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="10"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="11"/>
-      <c r="D224" s="11"/>
+      <c r="A224" s="9"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
       <c r="E224" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F224" s="3"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B226" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="11" t="s">
+      <c r="B226" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D226" s="11" t="s">
+      <c r="D226" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -4130,46 +4139,46 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="9"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="11"/>
-      <c r="D227" s="11"/>
+      <c r="A227" s="8"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
       <c r="E227" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F227" s="3"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="9"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="11"/>
+      <c r="A228" s="8"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
       <c r="E228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="10"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
+      <c r="A229" s="9"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
       <c r="E229" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F229" s="3"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="8" t="s">
+      <c r="A231" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B231" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="11" t="s">
+      <c r="B231" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D231" s="11" t="s">
+      <c r="D231" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -4178,56 +4187,56 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="9"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
+      <c r="A232" s="8"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
       <c r="E232" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="9"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="11"/>
-      <c r="D233" s="11"/>
+      <c r="A233" s="8"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
       <c r="E233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="10"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="11"/>
-      <c r="D234" s="11"/>
+      <c r="A234" s="9"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
       <c r="E234" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F234" s="3"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B236" s="13"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="13"/>
-      <c r="E236" s="13"/>
-      <c r="F236" s="13"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="8" t="s">
+      <c r="A237" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B237" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="11" t="s">
+      <c r="B237" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D237" s="11" t="s">
+      <c r="D237" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -4236,46 +4245,46 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="9"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
-      <c r="D238" s="11"/>
+      <c r="A238" s="8"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
       <c r="E238" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="9"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
+      <c r="A239" s="8"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
       <c r="E239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="10"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
+      <c r="A240" s="9"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
       <c r="E240" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F240" s="3"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="8" t="s">
+      <c r="A242" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B242" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="11" t="s">
+      <c r="B242" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D242" s="11" t="s">
+      <c r="D242" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -4284,46 +4293,46 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="9"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="11"/>
+      <c r="A243" s="8"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
       <c r="E243" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F243" s="3"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="9"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
+      <c r="A244" s="8"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
       <c r="E244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="10"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="11"/>
-      <c r="D245" s="11"/>
+      <c r="A245" s="9"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
       <c r="E245" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F245" s="3"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B247" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="11" t="s">
+      <c r="B247" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D247" s="11" t="s">
+      <c r="D247" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -4332,46 +4341,46 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="9"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
+      <c r="A248" s="8"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="10"/>
       <c r="E248" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="9"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
+      <c r="A249" s="8"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="10"/>
       <c r="E249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
+      <c r="A250" s="9"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="10"/>
       <c r="E250" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F250" s="3"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="8" t="s">
+      <c r="A252" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B252" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="11" t="s">
+      <c r="B252" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D252" s="11" t="s">
+      <c r="D252" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -4380,46 +4389,46 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="9"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="11"/>
-      <c r="D253" s="11"/>
+      <c r="A253" s="8"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="10"/>
+      <c r="D253" s="10"/>
       <c r="E253" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="9"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="11"/>
-      <c r="D254" s="11"/>
+      <c r="A254" s="8"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="10"/>
       <c r="E254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="10"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="11"/>
-      <c r="D255" s="11"/>
+      <c r="A255" s="9"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="10"/>
       <c r="E255" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F255" s="3"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="8" t="s">
+      <c r="A257" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B257" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="11" t="s">
+      <c r="B257" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D257" s="11" t="s">
+      <c r="D257" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -4428,56 +4437,56 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="9"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
-      <c r="D258" s="11"/>
+      <c r="A258" s="8"/>
+      <c r="B258" s="10"/>
+      <c r="C258" s="10"/>
+      <c r="D258" s="10"/>
       <c r="E258" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F258" s="3"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="9"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
-      <c r="D259" s="11"/>
+      <c r="A259" s="8"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
       <c r="E259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
-      <c r="D260" s="11"/>
+      <c r="A260" s="9"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10"/>
       <c r="E260" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F260" s="3"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B262" s="13"/>
-      <c r="C262" s="13"/>
-      <c r="D262" s="13"/>
-      <c r="E262" s="13"/>
-      <c r="F262" s="13"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="8" t="s">
+      <c r="A263" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B263" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="11" t="s">
+      <c r="B263" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D263" s="11" t="s">
+      <c r="D263" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -4486,46 +4495,46 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="9"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="11"/>
+      <c r="A264" s="8"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10"/>
       <c r="E264" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F264" s="3"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="9"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="11"/>
-      <c r="D265" s="11"/>
+      <c r="A265" s="8"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
       <c r="E265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="10"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="11"/>
-      <c r="D266" s="11"/>
+      <c r="A266" s="9"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
       <c r="E266" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F266" s="3"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="8" t="s">
+      <c r="A268" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B268" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C268" s="11" t="s">
+      <c r="B268" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D268" s="11" t="s">
+      <c r="D268" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -4534,46 +4543,46 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="9"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="11"/>
-      <c r="D269" s="11"/>
+      <c r="A269" s="8"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
       <c r="E269" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="9"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="11"/>
-      <c r="D270" s="11"/>
+      <c r="A270" s="8"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="10"/>
       <c r="E270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="10"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="11"/>
-      <c r="D271" s="11"/>
+      <c r="A271" s="9"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
       <c r="E271" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F271" s="3"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="8" t="s">
+      <c r="A273" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B273" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C273" s="11" t="s">
+      <c r="B273" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D273" s="11" t="s">
+      <c r="D273" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -4582,46 +4591,46 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="9"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
-      <c r="D274" s="11"/>
+      <c r="A274" s="8"/>
+      <c r="B274" s="10"/>
+      <c r="C274" s="10"/>
+      <c r="D274" s="10"/>
       <c r="E274" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="9"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
-      <c r="D275" s="11"/>
+      <c r="A275" s="8"/>
+      <c r="B275" s="10"/>
+      <c r="C275" s="10"/>
+      <c r="D275" s="10"/>
       <c r="E275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="10"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="11"/>
-      <c r="D276" s="11"/>
+      <c r="A276" s="9"/>
+      <c r="B276" s="10"/>
+      <c r="C276" s="10"/>
+      <c r="D276" s="10"/>
       <c r="E276" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F276" s="3"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="8" t="s">
+      <c r="A278" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B278" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C278" s="11" t="s">
+      <c r="B278" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D278" s="11" t="s">
+      <c r="D278" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -4630,46 +4639,46 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="9"/>
-      <c r="B279" s="11"/>
-      <c r="C279" s="11"/>
-      <c r="D279" s="11"/>
+      <c r="A279" s="8"/>
+      <c r="B279" s="10"/>
+      <c r="C279" s="10"/>
+      <c r="D279" s="10"/>
       <c r="E279" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F279" s="3"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="9"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="11"/>
-      <c r="D280" s="11"/>
+      <c r="A280" s="8"/>
+      <c r="B280" s="10"/>
+      <c r="C280" s="10"/>
+      <c r="D280" s="10"/>
       <c r="E280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="10"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="11"/>
-      <c r="D281" s="11"/>
+      <c r="A281" s="9"/>
+      <c r="B281" s="10"/>
+      <c r="C281" s="10"/>
+      <c r="D281" s="10"/>
       <c r="E281" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F281" s="3"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="8" t="s">
+      <c r="A283" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B283" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C283" s="11" t="s">
+      <c r="B283" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D283" s="11" t="s">
+      <c r="D283" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -4678,56 +4687,56 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="9"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="11"/>
-      <c r="D284" s="11"/>
+      <c r="A284" s="8"/>
+      <c r="B284" s="10"/>
+      <c r="C284" s="10"/>
+      <c r="D284" s="10"/>
       <c r="E284" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="9"/>
-      <c r="B285" s="11"/>
-      <c r="C285" s="11"/>
-      <c r="D285" s="11"/>
+      <c r="A285" s="8"/>
+      <c r="B285" s="10"/>
+      <c r="C285" s="10"/>
+      <c r="D285" s="10"/>
       <c r="E285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="10"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="11"/>
-      <c r="D286" s="11"/>
+      <c r="A286" s="9"/>
+      <c r="B286" s="10"/>
+      <c r="C286" s="10"/>
+      <c r="D286" s="10"/>
       <c r="E286" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F286" s="3"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B288" s="13"/>
-      <c r="C288" s="13"/>
-      <c r="D288" s="13"/>
-      <c r="E288" s="13"/>
-      <c r="F288" s="13"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="8" t="s">
+      <c r="A289" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B289" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289" s="11" t="s">
+      <c r="B289" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D289" s="11" t="s">
+      <c r="D289" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E289" s="2" t="s">
@@ -4736,46 +4745,46 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="9"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="11"/>
-      <c r="D290" s="11"/>
+      <c r="A290" s="8"/>
+      <c r="B290" s="10"/>
+      <c r="C290" s="10"/>
+      <c r="D290" s="10"/>
       <c r="E290" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F290" s="3"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="9"/>
-      <c r="B291" s="11"/>
-      <c r="C291" s="11"/>
-      <c r="D291" s="11"/>
+      <c r="A291" s="8"/>
+      <c r="B291" s="10"/>
+      <c r="C291" s="10"/>
+      <c r="D291" s="10"/>
       <c r="E291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="10"/>
-      <c r="B292" s="11"/>
-      <c r="C292" s="11"/>
-      <c r="D292" s="11"/>
+      <c r="A292" s="9"/>
+      <c r="B292" s="10"/>
+      <c r="C292" s="10"/>
+      <c r="D292" s="10"/>
       <c r="E292" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F292" s="3"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="8" t="s">
+      <c r="A294" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B294" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="11" t="s">
+      <c r="B294" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D294" s="11" t="s">
+      <c r="D294" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E294" s="2" t="s">
@@ -4784,46 +4793,46 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="9"/>
-      <c r="B295" s="11"/>
-      <c r="C295" s="11"/>
-      <c r="D295" s="11"/>
+      <c r="A295" s="8"/>
+      <c r="B295" s="10"/>
+      <c r="C295" s="10"/>
+      <c r="D295" s="10"/>
       <c r="E295" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F295" s="3"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="9"/>
-      <c r="B296" s="11"/>
-      <c r="C296" s="11"/>
-      <c r="D296" s="11"/>
+      <c r="A296" s="8"/>
+      <c r="B296" s="10"/>
+      <c r="C296" s="10"/>
+      <c r="D296" s="10"/>
       <c r="E296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="10"/>
-      <c r="B297" s="11"/>
-      <c r="C297" s="11"/>
-      <c r="D297" s="11"/>
+      <c r="A297" s="9"/>
+      <c r="B297" s="10"/>
+      <c r="C297" s="10"/>
+      <c r="D297" s="10"/>
       <c r="E297" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F297" s="3"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="8" t="s">
+      <c r="A299" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B299" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C299" s="11" t="s">
+      <c r="B299" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D299" s="11" t="s">
+      <c r="D299" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E299" s="2" t="s">
@@ -4832,46 +4841,46 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="9"/>
-      <c r="B300" s="11"/>
-      <c r="C300" s="11"/>
-      <c r="D300" s="11"/>
+      <c r="A300" s="8"/>
+      <c r="B300" s="10"/>
+      <c r="C300" s="10"/>
+      <c r="D300" s="10"/>
       <c r="E300" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F300" s="3"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="9"/>
-      <c r="B301" s="11"/>
-      <c r="C301" s="11"/>
-      <c r="D301" s="11"/>
+      <c r="A301" s="8"/>
+      <c r="B301" s="10"/>
+      <c r="C301" s="10"/>
+      <c r="D301" s="10"/>
       <c r="E301" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="10"/>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
-      <c r="D302" s="11"/>
+      <c r="A302" s="9"/>
+      <c r="B302" s="10"/>
+      <c r="C302" s="10"/>
+      <c r="D302" s="10"/>
       <c r="E302" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F302" s="3"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="8" t="s">
+      <c r="A304" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B304" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C304" s="11" t="s">
+      <c r="B304" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D304" s="11" t="s">
+      <c r="D304" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E304" s="2" t="s">
@@ -4880,46 +4889,46 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="9"/>
-      <c r="B305" s="11"/>
-      <c r="C305" s="11"/>
-      <c r="D305" s="11"/>
+      <c r="A305" s="8"/>
+      <c r="B305" s="10"/>
+      <c r="C305" s="10"/>
+      <c r="D305" s="10"/>
       <c r="E305" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F305" s="3"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="9"/>
-      <c r="B306" s="11"/>
-      <c r="C306" s="11"/>
-      <c r="D306" s="11"/>
+      <c r="A306" s="8"/>
+      <c r="B306" s="10"/>
+      <c r="C306" s="10"/>
+      <c r="D306" s="10"/>
       <c r="E306" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="10"/>
-      <c r="B307" s="11"/>
-      <c r="C307" s="11"/>
-      <c r="D307" s="11"/>
+      <c r="A307" s="9"/>
+      <c r="B307" s="10"/>
+      <c r="C307" s="10"/>
+      <c r="D307" s="10"/>
       <c r="E307" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F307" s="3"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="8" t="s">
+      <c r="A309" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B309" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="11" t="s">
+      <c r="B309" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D309" s="11" t="s">
+      <c r="D309" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E309" s="2" t="s">
@@ -4928,30 +4937,30 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="9"/>
-      <c r="B310" s="11"/>
-      <c r="C310" s="11"/>
-      <c r="D310" s="11"/>
+      <c r="A310" s="8"/>
+      <c r="B310" s="10"/>
+      <c r="C310" s="10"/>
+      <c r="D310" s="10"/>
       <c r="E310" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="9"/>
-      <c r="B311" s="11"/>
-      <c r="C311" s="11"/>
-      <c r="D311" s="11"/>
+      <c r="A311" s="8"/>
+      <c r="B311" s="10"/>
+      <c r="C311" s="10"/>
+      <c r="D311" s="10"/>
       <c r="E311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="10"/>
-      <c r="B312" s="11"/>
-      <c r="C312" s="11"/>
-      <c r="D312" s="11"/>
+      <c r="A312" s="9"/>
+      <c r="B312" s="10"/>
+      <c r="C312" s="10"/>
+      <c r="D312" s="10"/>
       <c r="E312" s="3" t="s">
         <v>13</v>
       </c>
@@ -4959,6 +4968,234 @@
     </row>
   </sheetData>
   <mergeCells count="252">
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="D309:D312"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="D299:D302"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="D283:D286"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="D273:D276"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="D263:D266"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="C268:C271"/>
+    <mergeCell ref="D268:D271"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="D257:D260"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D245"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="D247:D250"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="D237:D240"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="D211:D214"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="D216:D219"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="D205:D208"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="D195:D198"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A6"/>
@@ -4983,240 +5220,27 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="D205:D208"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="D195:D198"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="D221:D224"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="D211:D214"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="D237:D240"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="D257:D260"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="D247:D250"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="D273:D276"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="D263:D266"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="B268:B271"/>
-    <mergeCell ref="C268:C271"/>
-    <mergeCell ref="D268:D271"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="D283:D286"/>
-    <mergeCell ref="A288:F288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="D309:D312"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="D299:D302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088059E6DDC6DF445B0AB87CAA811C0D0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314c580fd60c3711a3e3031240862aa0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae328def-a07b-4370-9a10-828a34f91ce9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5728a0d98f3ba8ecfca4ece15eb01571" ns2:_="">
     <xsd:import namespace="ae328def-a07b-4370-9a10-828a34f91ce9"/>
@@ -5360,22 +5384,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9759A726-586A-4C39-A765-CAA32818CEB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5391,21 +5417,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PRT585_Group _7_TimeSheet.xlsx
+++ b/PRT585_Group _7_TimeSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabili/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabili/PRT585_S2023_Group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE7D13A-A9F9-9B42-903B-F8E8EFDD95E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FF4ECF-DCCD-DB4C-9BED-36B1D789C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="800" windowWidth="32800" windowHeight="19020" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
+    <workbookView xWindow="3480" yWindow="800" windowWidth="32800" windowHeight="19020" activeTab="1" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 7 Timesheet" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="81">
   <si>
     <t>Week</t>
   </si>
@@ -301,6 +301,10 @@
   </si>
   <si>
     <t>1. Add Todo Component in Helloworld Blazor.</t>
+  </si>
+  <si>
+    <t>1. Learn .Net by read through Microsoft webstie: https://dotnet.microsoft.com/en-us/learn
+2.</t>
   </si>
 </sst>
 </file>
@@ -503,6 +507,36 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -517,36 +551,6 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD2CA45-38D9-4271-9CE5-FD0B25AF8966}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -907,27 +911,27 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -936,120 +940,120 @@
       <c r="F3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="21" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="23" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="25" t="s">
         <v>67</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1060,10 +1064,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1072,10 +1076,10 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1084,10 +1088,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1096,10 +1100,10 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1108,10 +1112,10 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1120,36 +1124,36 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1160,10 +1164,10 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1172,10 +1176,10 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1184,10 +1188,10 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1196,10 +1200,10 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1208,10 +1212,10 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1220,36 +1224,36 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1260,10 +1264,10 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1272,10 +1276,10 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1284,10 +1288,10 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>12</v>
       </c>
@@ -1296,10 +1300,10 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
@@ -1308,10 +1312,10 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
@@ -1320,36 +1324,36 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1360,10 +1364,10 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="3" t="s">
         <v>10</v>
       </c>
@@ -1372,10 +1376,10 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1384,10 +1388,10 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="3" t="s">
         <v>12</v>
       </c>
@@ -1396,10 +1400,10 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
@@ -1408,10 +1412,10 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="3" t="s">
         <v>14</v>
       </c>
@@ -1420,36 +1424,36 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1460,10 +1464,10 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="3" t="s">
         <v>10</v>
       </c>
@@ -1472,10 +1476,10 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1484,10 +1488,10 @@
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1496,10 +1500,10 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1508,10 +1512,10 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="3" t="s">
         <v>14</v>
       </c>
@@ -1520,36 +1524,36 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="22" t="s">
+      <c r="B51" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1560,10 +1564,10 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
@@ -1572,10 +1576,10 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
@@ -1584,10 +1588,10 @@
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="3" t="s">
         <v>12</v>
       </c>
@@ -1596,10 +1600,10 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="2" t="s">
         <v>13</v>
       </c>
@@ -1608,10 +1612,10 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="3" t="s">
         <v>14</v>
       </c>
@@ -1620,36 +1624,36 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="22" t="s">
+      <c r="B59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -1660,10 +1664,10 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="3" t="s">
         <v>10</v>
       </c>
@@ -1672,10 +1676,10 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
@@ -1684,10 +1688,10 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="3" t="s">
         <v>12</v>
       </c>
@@ -1696,10 +1700,10 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="2" t="s">
         <v>13</v>
       </c>
@@ -1708,10 +1712,10 @@
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="3" t="s">
         <v>14</v>
       </c>
@@ -1720,36 +1724,36 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="25"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="22" t="s">
+      <c r="B67" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -1760,10 +1764,10 @@
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="3" t="s">
         <v>10</v>
       </c>
@@ -1772,10 +1776,10 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="2" t="s">
         <v>11</v>
       </c>
@@ -1784,10 +1788,10 @@
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="3" t="s">
         <v>12</v>
       </c>
@@ -1796,10 +1800,10 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="2" t="s">
         <v>13</v>
       </c>
@@ -1808,10 +1812,10 @@
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="3" t="s">
         <v>14</v>
       </c>
@@ -1820,36 +1824,36 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="25"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="22" t="s">
+      <c r="B75" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -1860,10 +1864,10 @@
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
@@ -1872,10 +1876,10 @@
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
@@ -1884,10 +1888,10 @@
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
@@ -1896,10 +1900,10 @@
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="2" t="s">
         <v>13</v>
       </c>
@@ -1908,10 +1912,10 @@
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="3" t="s">
         <v>14</v>
       </c>
@@ -1920,36 +1924,36 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="22" t="s">
+      <c r="B83" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -1960,10 +1964,10 @@
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="20"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
@@ -1972,10 +1976,10 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="20"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="2" t="s">
         <v>11</v>
       </c>
@@ -1984,10 +1988,10 @@
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="20"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="3" t="s">
         <v>12</v>
       </c>
@@ -1996,10 +2000,10 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="2" t="s">
         <v>13</v>
       </c>
@@ -2008,10 +2012,10 @@
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="3" t="s">
         <v>14</v>
       </c>
@@ -2020,36 +2024,36 @@
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="25"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="22" t="s">
+      <c r="B91" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2060,10 +2064,10 @@
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
@@ -2072,10 +2076,10 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
@@ -2084,10 +2088,10 @@
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
@@ -2096,10 +2100,10 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="2" t="s">
         <v>13</v>
       </c>
@@ -2108,10 +2112,10 @@
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="3" t="s">
         <v>14</v>
       </c>
@@ -2121,11 +2125,63 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A75:A80"/>
@@ -2138,63 +2194,11 @@
     <mergeCell ref="B83:B88"/>
     <mergeCell ref="C83:C88"/>
     <mergeCell ref="D83:D88"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2205,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D9E5DF-CFA1-47F0-8D7B-29D019DDEA37}">
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2240,26 +2244,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2270,10 +2274,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2282,10 +2286,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2293,29 +2297,29 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2324,46 +2328,46 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2372,46 +2376,46 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2420,46 +2424,46 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2470,10 +2474,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
@@ -2482,10 +2486,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2494,10 +2498,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
@@ -2506,26 +2510,26 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2534,46 +2538,46 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2582,46 +2586,46 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2630,46 +2634,46 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2678,46 +2682,46 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="22" t="s">
+      <c r="B49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2726,56 +2730,56 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="22" t="s">
+      <c r="B55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2784,46 +2788,46 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="22" t="s">
+      <c r="B60" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2832,46 +2836,46 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22" t="s">
+      <c r="B65" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2880,46 +2884,46 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="22" t="s">
+      <c r="B70" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2928,46 +2932,46 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="22" t="s">
+      <c r="B75" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -2976,56 +2980,56 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
     </row>
     <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="22" t="s">
+      <c r="B81" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -3034,46 +3038,46 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="20"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="20"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="22" t="s">
+      <c r="B86" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -3082,46 +3086,46 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="20"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="22" t="s">
+      <c r="B91" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -3130,46 +3134,46 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="22" t="s">
+      <c r="B96" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -3178,46 +3182,46 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="20"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="3"/>
     </row>
     <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="22" t="s">
+      <c r="B101" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -3226,56 +3230,56 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
       <c r="E104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B107" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="22" t="s">
+      <c r="B107" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D107" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -3284,46 +3288,46 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="20"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
       <c r="E108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="20"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
       <c r="E109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
       <c r="E110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="3"/>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="22" t="s">
+      <c r="B112" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3332,46 +3336,46 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="20"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="20"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="21"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
       <c r="E115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="3"/>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B117" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="22" t="s">
+      <c r="B117" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D117" s="22" t="s">
+      <c r="D117" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3380,46 +3384,46 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="20"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="20"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
       <c r="E119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="21"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
       <c r="E120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="3"/>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B122" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="22" t="s">
+      <c r="B122" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3428,46 +3432,46 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="20"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
       <c r="E123" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="20"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
+      <c r="A124" s="16"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
       <c r="E124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
       <c r="E125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="3"/>
     </row>
     <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B127" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="22" t="s">
+      <c r="B127" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3476,56 +3480,56 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="20"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
       <c r="E128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="20"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
       <c r="E129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="21"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
     </row>
     <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B133" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="22" t="s">
+      <c r="B133" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D133" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3534,46 +3538,46 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="20"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="20"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
       <c r="E135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="21"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
       <c r="E136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="22" t="s">
+      <c r="B138" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="22" t="s">
+      <c r="D138" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -3582,46 +3586,46 @@
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="20"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
       <c r="E139" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="20"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
       <c r="E140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="21"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
       <c r="E141" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="19" t="s">
+      <c r="A143" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B143" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="22" t="s">
+      <c r="B143" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="D143" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3630,46 +3634,46 @@
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="20"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="22"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
       <c r="E144" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="20"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
+      <c r="A145" s="16"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
       <c r="E145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="21"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
       <c r="E146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="3"/>
     </row>
     <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="19" t="s">
+      <c r="A148" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B148" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="22" t="s">
+      <c r="B148" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="D148" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3678,46 +3682,46 @@
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="20"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="22"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
       <c r="E149" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="20"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
+      <c r="A150" s="16"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
       <c r="E150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="21"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
       <c r="E151" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="19" t="s">
+      <c r="A153" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B153" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="22" t="s">
+      <c r="B153" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="22" t="s">
+      <c r="D153" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3726,56 +3730,56 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="20"/>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="22"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
       <c r="E154" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="20"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="22"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
       <c r="E155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="21"/>
-      <c r="B156" s="22"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
       <c r="E156" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="3"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="19" t="s">
+      <c r="A159" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B159" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="22" t="s">
+      <c r="B159" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D159" s="22" t="s">
+      <c r="D159" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -3784,46 +3788,46 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="20"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="22"/>
+      <c r="A160" s="16"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
       <c r="E160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="20"/>
-      <c r="B161" s="22"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
+      <c r="A161" s="16"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
       <c r="E161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="21"/>
-      <c r="B162" s="22"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
+      <c r="A162" s="17"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
       <c r="E162" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="3"/>
     </row>
     <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="19" t="s">
+      <c r="A164" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B164" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="22" t="s">
+      <c r="B164" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D164" s="22" t="s">
+      <c r="D164" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -3832,46 +3836,46 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="20"/>
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
+      <c r="A165" s="16"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
       <c r="E165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="20"/>
-      <c r="B166" s="22"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
+      <c r="A166" s="16"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="18"/>
       <c r="E166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="21"/>
-      <c r="B167" s="22"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="22"/>
+      <c r="A167" s="17"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
       <c r="E167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="3"/>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="19" t="s">
+      <c r="A169" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="22" t="s">
+      <c r="B169" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="D169" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -3880,46 +3884,46 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="20"/>
-      <c r="B170" s="22"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="22"/>
+      <c r="A170" s="16"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
       <c r="E170" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="20"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="22"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
       <c r="E171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="21"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
       <c r="E172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="3"/>
     </row>
     <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="19" t="s">
+      <c r="A174" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B174" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="22" t="s">
+      <c r="B174" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D174" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -3928,46 +3932,46 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="20"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="22"/>
+      <c r="A175" s="16"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
       <c r="E175" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F175" s="3"/>
     </row>
     <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="20"/>
-      <c r="B176" s="22"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="22"/>
+      <c r="A176" s="16"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
       <c r="E176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="21"/>
-      <c r="B177" s="22"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="22"/>
+      <c r="A177" s="17"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
       <c r="E177" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="3"/>
     </row>
     <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="19" t="s">
+      <c r="A179" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B179" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="22" t="s">
+      <c r="B179" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="D179" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -3976,56 +3980,56 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="20"/>
-      <c r="B180" s="22"/>
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
+      <c r="A180" s="16"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
       <c r="E180" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="20"/>
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
+      <c r="A181" s="16"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
       <c r="E181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
-      <c r="C182" s="22"/>
-      <c r="D182" s="22"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="18"/>
       <c r="E182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="3"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="17" t="s">
+      <c r="A184" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B184" s="18"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
     </row>
     <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="19" t="s">
+      <c r="A185" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B185" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="22" t="s">
+      <c r="B185" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="22" t="s">
+      <c r="D185" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -4034,46 +4038,46 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="20"/>
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
+      <c r="A186" s="16"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
       <c r="E186" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="20"/>
-      <c r="B187" s="22"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
+      <c r="A187" s="16"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
       <c r="E187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="21"/>
-      <c r="B188" s="22"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="18"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="18"/>
       <c r="E188" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F188" s="3"/>
     </row>
     <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="19" t="s">
+      <c r="A190" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B190" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="22" t="s">
+      <c r="B190" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="D190" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -4082,46 +4086,46 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="20"/>
-      <c r="B191" s="22"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22"/>
+      <c r="A191" s="16"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
       <c r="E191" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="20"/>
-      <c r="B192" s="22"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="22"/>
+      <c r="A192" s="16"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
       <c r="E192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="21"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
+      <c r="A193" s="17"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
       <c r="E193" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F193" s="3"/>
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="19" t="s">
+      <c r="A195" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B195" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="22" t="s">
+      <c r="B195" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D195" s="22" t="s">
+      <c r="D195" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -4130,46 +4134,46 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="20"/>
-      <c r="B196" s="22"/>
-      <c r="C196" s="22"/>
-      <c r="D196" s="22"/>
+      <c r="A196" s="16"/>
+      <c r="B196" s="18"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="18"/>
       <c r="E196" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="20"/>
-      <c r="B197" s="22"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
+      <c r="A197" s="16"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
       <c r="E197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198" s="21"/>
-      <c r="B198" s="22"/>
-      <c r="C198" s="22"/>
-      <c r="D198" s="22"/>
+      <c r="A198" s="17"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="18"/>
       <c r="E198" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F198" s="3"/>
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200" s="19" t="s">
+      <c r="A200" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B200" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="22" t="s">
+      <c r="B200" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D200" s="22" t="s">
+      <c r="D200" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -4178,46 +4182,46 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="20"/>
-      <c r="B201" s="22"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="22"/>
+      <c r="A201" s="16"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="18"/>
       <c r="E201" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="20"/>
-      <c r="B202" s="22"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="22"/>
+      <c r="A202" s="16"/>
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="18"/>
       <c r="E202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="21"/>
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
+      <c r="A203" s="17"/>
+      <c r="B203" s="18"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="18"/>
       <c r="E203" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="3"/>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="19" t="s">
+      <c r="A205" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B205" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="22" t="s">
+      <c r="B205" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D205" s="22" t="s">
+      <c r="D205" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -4226,56 +4230,56 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="20"/>
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="22"/>
+      <c r="A206" s="16"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
       <c r="E206" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="20"/>
-      <c r="B207" s="22"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="22"/>
+      <c r="A207" s="16"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
       <c r="E207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="21"/>
-      <c r="B208" s="22"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="22"/>
+      <c r="A208" s="17"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18"/>
       <c r="E208" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F208" s="3"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="17" t="s">
+      <c r="A210" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="20"/>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="19" t="s">
+      <c r="A211" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B211" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="22" t="s">
+      <c r="B211" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D211" s="22" t="s">
+      <c r="D211" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -4284,46 +4288,46 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="20"/>
-      <c r="B212" s="22"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="22"/>
+      <c r="A212" s="16"/>
+      <c r="B212" s="18"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="18"/>
       <c r="E212" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F212" s="3"/>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="20"/>
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="22"/>
+      <c r="A213" s="16"/>
+      <c r="B213" s="18"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="18"/>
       <c r="E213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="21"/>
-      <c r="B214" s="22"/>
-      <c r="C214" s="22"/>
-      <c r="D214" s="22"/>
+      <c r="A214" s="17"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="18"/>
       <c r="E214" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="3"/>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="19" t="s">
+      <c r="A216" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B216" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="22" t="s">
+      <c r="B216" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D216" s="22" t="s">
+      <c r="D216" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -4332,46 +4336,46 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="20"/>
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
+      <c r="A217" s="16"/>
+      <c r="B217" s="18"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="18"/>
       <c r="E217" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F217" s="3"/>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="20"/>
-      <c r="B218" s="22"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
+      <c r="A218" s="16"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="18"/>
       <c r="E218" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="21"/>
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
+      <c r="A219" s="17"/>
+      <c r="B219" s="18"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="18"/>
       <c r="E219" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F219" s="3"/>
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="19" t="s">
+      <c r="A221" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B221" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="22" t="s">
+      <c r="B221" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D221" s="22" t="s">
+      <c r="D221" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -4380,46 +4384,46 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="20"/>
-      <c r="B222" s="22"/>
-      <c r="C222" s="22"/>
-      <c r="D222" s="22"/>
+      <c r="A222" s="16"/>
+      <c r="B222" s="18"/>
+      <c r="C222" s="18"/>
+      <c r="D222" s="18"/>
       <c r="E222" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F222" s="3"/>
     </row>
     <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="20"/>
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="22"/>
+      <c r="A223" s="16"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="18"/>
       <c r="E223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="21"/>
-      <c r="B224" s="22"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="22"/>
+      <c r="A224" s="17"/>
+      <c r="B224" s="18"/>
+      <c r="C224" s="18"/>
+      <c r="D224" s="18"/>
       <c r="E224" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F224" s="3"/>
     </row>
     <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="19" t="s">
+      <c r="A226" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B226" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="22" t="s">
+      <c r="B226" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D226" s="22" t="s">
+      <c r="D226" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -4428,46 +4432,46 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="20"/>
-      <c r="B227" s="22"/>
-      <c r="C227" s="22"/>
-      <c r="D227" s="22"/>
+      <c r="A227" s="16"/>
+      <c r="B227" s="18"/>
+      <c r="C227" s="18"/>
+      <c r="D227" s="18"/>
       <c r="E227" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F227" s="3"/>
     </row>
     <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="20"/>
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
-      <c r="D228" s="22"/>
+      <c r="A228" s="16"/>
+      <c r="B228" s="18"/>
+      <c r="C228" s="18"/>
+      <c r="D228" s="18"/>
       <c r="E228" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="21"/>
-      <c r="B229" s="22"/>
-      <c r="C229" s="22"/>
-      <c r="D229" s="22"/>
+      <c r="A229" s="17"/>
+      <c r="B229" s="18"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="18"/>
       <c r="E229" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F229" s="3"/>
     </row>
     <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="19" t="s">
+      <c r="A231" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B231" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="22" t="s">
+      <c r="B231" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D231" s="22" t="s">
+      <c r="D231" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -4476,56 +4480,56 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="20"/>
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
-      <c r="D232" s="22"/>
+      <c r="A232" s="16"/>
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="18"/>
       <c r="E232" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="20"/>
-      <c r="B233" s="22"/>
-      <c r="C233" s="22"/>
-      <c r="D233" s="22"/>
+      <c r="A233" s="16"/>
+      <c r="B233" s="18"/>
+      <c r="C233" s="18"/>
+      <c r="D233" s="18"/>
       <c r="E233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="21"/>
-      <c r="B234" s="22"/>
-      <c r="C234" s="22"/>
-      <c r="D234" s="22"/>
+      <c r="A234" s="17"/>
+      <c r="B234" s="18"/>
+      <c r="C234" s="18"/>
+      <c r="D234" s="18"/>
       <c r="E234" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F234" s="3"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="17" t="s">
+      <c r="A236" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B236" s="18"/>
-      <c r="C236" s="18"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
-      <c r="F236" s="18"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="20"/>
+      <c r="F236" s="20"/>
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="19" t="s">
+      <c r="A237" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B237" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="22" t="s">
+      <c r="B237" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D237" s="22" t="s">
+      <c r="D237" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -4534,46 +4538,46 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="20"/>
-      <c r="B238" s="22"/>
-      <c r="C238" s="22"/>
-      <c r="D238" s="22"/>
+      <c r="A238" s="16"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="18"/>
       <c r="E238" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="20"/>
-      <c r="B239" s="22"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="22"/>
+      <c r="A239" s="16"/>
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="18"/>
       <c r="E239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="21"/>
-      <c r="B240" s="22"/>
-      <c r="C240" s="22"/>
-      <c r="D240" s="22"/>
+      <c r="A240" s="17"/>
+      <c r="B240" s="18"/>
+      <c r="C240" s="18"/>
+      <c r="D240" s="18"/>
       <c r="E240" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F240" s="3"/>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="19" t="s">
+      <c r="A242" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B242" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="22" t="s">
+      <c r="B242" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D242" s="22" t="s">
+      <c r="D242" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -4582,46 +4586,46 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="20"/>
-      <c r="B243" s="22"/>
-      <c r="C243" s="22"/>
-      <c r="D243" s="22"/>
+      <c r="A243" s="16"/>
+      <c r="B243" s="18"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="18"/>
       <c r="E243" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F243" s="3"/>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A244" s="20"/>
-      <c r="B244" s="22"/>
-      <c r="C244" s="22"/>
-      <c r="D244" s="22"/>
+      <c r="A244" s="16"/>
+      <c r="B244" s="18"/>
+      <c r="C244" s="18"/>
+      <c r="D244" s="18"/>
       <c r="E244" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A245" s="21"/>
-      <c r="B245" s="22"/>
-      <c r="C245" s="22"/>
-      <c r="D245" s="22"/>
+      <c r="A245" s="17"/>
+      <c r="B245" s="18"/>
+      <c r="C245" s="18"/>
+      <c r="D245" s="18"/>
       <c r="E245" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F245" s="3"/>
     </row>
     <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="19" t="s">
+      <c r="A247" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B247" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="22" t="s">
+      <c r="B247" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D247" s="22" t="s">
+      <c r="D247" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -4630,46 +4634,46 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="20"/>
-      <c r="B248" s="22"/>
-      <c r="C248" s="22"/>
-      <c r="D248" s="22"/>
+      <c r="A248" s="16"/>
+      <c r="B248" s="18"/>
+      <c r="C248" s="18"/>
+      <c r="D248" s="18"/>
       <c r="E248" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="20"/>
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
-      <c r="D249" s="22"/>
+      <c r="A249" s="16"/>
+      <c r="B249" s="18"/>
+      <c r="C249" s="18"/>
+      <c r="D249" s="18"/>
       <c r="E249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A250" s="21"/>
-      <c r="B250" s="22"/>
-      <c r="C250" s="22"/>
-      <c r="D250" s="22"/>
+      <c r="A250" s="17"/>
+      <c r="B250" s="18"/>
+      <c r="C250" s="18"/>
+      <c r="D250" s="18"/>
       <c r="E250" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F250" s="3"/>
     </row>
     <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A252" s="19" t="s">
+      <c r="A252" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B252" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="22" t="s">
+      <c r="B252" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D252" s="22" t="s">
+      <c r="D252" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -4678,46 +4682,46 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="20"/>
-      <c r="B253" s="22"/>
-      <c r="C253" s="22"/>
-      <c r="D253" s="22"/>
+      <c r="A253" s="16"/>
+      <c r="B253" s="18"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18"/>
       <c r="E253" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A254" s="20"/>
-      <c r="B254" s="22"/>
-      <c r="C254" s="22"/>
-      <c r="D254" s="22"/>
+      <c r="A254" s="16"/>
+      <c r="B254" s="18"/>
+      <c r="C254" s="18"/>
+      <c r="D254" s="18"/>
       <c r="E254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="21"/>
-      <c r="B255" s="22"/>
-      <c r="C255" s="22"/>
-      <c r="D255" s="22"/>
+      <c r="A255" s="17"/>
+      <c r="B255" s="18"/>
+      <c r="C255" s="18"/>
+      <c r="D255" s="18"/>
       <c r="E255" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F255" s="3"/>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="19" t="s">
+      <c r="A257" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B257" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="22" t="s">
+      <c r="B257" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D257" s="22" t="s">
+      <c r="D257" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -4726,56 +4730,56 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="20"/>
-      <c r="B258" s="22"/>
-      <c r="C258" s="22"/>
-      <c r="D258" s="22"/>
+      <c r="A258" s="16"/>
+      <c r="B258" s="18"/>
+      <c r="C258" s="18"/>
+      <c r="D258" s="18"/>
       <c r="E258" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F258" s="3"/>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="20"/>
-      <c r="B259" s="22"/>
-      <c r="C259" s="22"/>
-      <c r="D259" s="22"/>
+      <c r="A259" s="16"/>
+      <c r="B259" s="18"/>
+      <c r="C259" s="18"/>
+      <c r="D259" s="18"/>
       <c r="E259" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="21"/>
-      <c r="B260" s="22"/>
-      <c r="C260" s="22"/>
-      <c r="D260" s="22"/>
+      <c r="A260" s="17"/>
+      <c r="B260" s="18"/>
+      <c r="C260" s="18"/>
+      <c r="D260" s="18"/>
       <c r="E260" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F260" s="3"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="17" t="s">
+      <c r="A262" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B262" s="18"/>
-      <c r="C262" s="18"/>
-      <c r="D262" s="18"/>
-      <c r="E262" s="18"/>
-      <c r="F262" s="18"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="20"/>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="19" t="s">
+      <c r="A263" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B263" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="22" t="s">
+      <c r="B263" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D263" s="22" t="s">
+      <c r="D263" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -4784,46 +4788,46 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="20"/>
-      <c r="B264" s="22"/>
-      <c r="C264" s="22"/>
-      <c r="D264" s="22"/>
+      <c r="A264" s="16"/>
+      <c r="B264" s="18"/>
+      <c r="C264" s="18"/>
+      <c r="D264" s="18"/>
       <c r="E264" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F264" s="3"/>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="20"/>
-      <c r="B265" s="22"/>
-      <c r="C265" s="22"/>
-      <c r="D265" s="22"/>
+      <c r="A265" s="16"/>
+      <c r="B265" s="18"/>
+      <c r="C265" s="18"/>
+      <c r="D265" s="18"/>
       <c r="E265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="21"/>
-      <c r="B266" s="22"/>
-      <c r="C266" s="22"/>
-      <c r="D266" s="22"/>
+      <c r="A266" s="17"/>
+      <c r="B266" s="18"/>
+      <c r="C266" s="18"/>
+      <c r="D266" s="18"/>
       <c r="E266" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F266" s="3"/>
     </row>
     <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="19" t="s">
+      <c r="A268" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B268" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C268" s="22" t="s">
+      <c r="B268" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D268" s="22" t="s">
+      <c r="D268" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -4832,46 +4836,46 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="20"/>
-      <c r="B269" s="22"/>
-      <c r="C269" s="22"/>
-      <c r="D269" s="22"/>
+      <c r="A269" s="16"/>
+      <c r="B269" s="18"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="18"/>
       <c r="E269" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="20"/>
-      <c r="B270" s="22"/>
-      <c r="C270" s="22"/>
-      <c r="D270" s="22"/>
+      <c r="A270" s="16"/>
+      <c r="B270" s="18"/>
+      <c r="C270" s="18"/>
+      <c r="D270" s="18"/>
       <c r="E270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="21"/>
-      <c r="B271" s="22"/>
-      <c r="C271" s="22"/>
-      <c r="D271" s="22"/>
+      <c r="A271" s="17"/>
+      <c r="B271" s="18"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="18"/>
       <c r="E271" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F271" s="3"/>
     </row>
     <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A273" s="19" t="s">
+      <c r="A273" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B273" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C273" s="22" t="s">
+      <c r="B273" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D273" s="22" t="s">
+      <c r="D273" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -4880,46 +4884,46 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A274" s="20"/>
-      <c r="B274" s="22"/>
-      <c r="C274" s="22"/>
-      <c r="D274" s="22"/>
+      <c r="A274" s="16"/>
+      <c r="B274" s="18"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="18"/>
       <c r="E274" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A275" s="20"/>
-      <c r="B275" s="22"/>
-      <c r="C275" s="22"/>
-      <c r="D275" s="22"/>
+      <c r="A275" s="16"/>
+      <c r="B275" s="18"/>
+      <c r="C275" s="18"/>
+      <c r="D275" s="18"/>
       <c r="E275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="21"/>
-      <c r="B276" s="22"/>
-      <c r="C276" s="22"/>
-      <c r="D276" s="22"/>
+      <c r="A276" s="17"/>
+      <c r="B276" s="18"/>
+      <c r="C276" s="18"/>
+      <c r="D276" s="18"/>
       <c r="E276" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F276" s="3"/>
     </row>
     <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="19" t="s">
+      <c r="A278" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B278" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C278" s="22" t="s">
+      <c r="B278" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D278" s="22" t="s">
+      <c r="D278" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -4928,46 +4932,46 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A279" s="20"/>
-      <c r="B279" s="22"/>
-      <c r="C279" s="22"/>
-      <c r="D279" s="22"/>
+      <c r="A279" s="16"/>
+      <c r="B279" s="18"/>
+      <c r="C279" s="18"/>
+      <c r="D279" s="18"/>
       <c r="E279" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F279" s="3"/>
     </row>
     <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A280" s="20"/>
-      <c r="B280" s="22"/>
-      <c r="C280" s="22"/>
-      <c r="D280" s="22"/>
+      <c r="A280" s="16"/>
+      <c r="B280" s="18"/>
+      <c r="C280" s="18"/>
+      <c r="D280" s="18"/>
       <c r="E280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A281" s="21"/>
-      <c r="B281" s="22"/>
-      <c r="C281" s="22"/>
-      <c r="D281" s="22"/>
+      <c r="A281" s="17"/>
+      <c r="B281" s="18"/>
+      <c r="C281" s="18"/>
+      <c r="D281" s="18"/>
       <c r="E281" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F281" s="3"/>
     </row>
     <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="19" t="s">
+      <c r="A283" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B283" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C283" s="22" t="s">
+      <c r="B283" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D283" s="22" t="s">
+      <c r="D283" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -4976,56 +4980,56 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" s="20"/>
-      <c r="B284" s="22"/>
-      <c r="C284" s="22"/>
-      <c r="D284" s="22"/>
+      <c r="A284" s="16"/>
+      <c r="B284" s="18"/>
+      <c r="C284" s="18"/>
+      <c r="D284" s="18"/>
       <c r="E284" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="20"/>
-      <c r="B285" s="22"/>
-      <c r="C285" s="22"/>
-      <c r="D285" s="22"/>
+      <c r="A285" s="16"/>
+      <c r="B285" s="18"/>
+      <c r="C285" s="18"/>
+      <c r="D285" s="18"/>
       <c r="E285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A286" s="21"/>
-      <c r="B286" s="22"/>
-      <c r="C286" s="22"/>
-      <c r="D286" s="22"/>
+      <c r="A286" s="17"/>
+      <c r="B286" s="18"/>
+      <c r="C286" s="18"/>
+      <c r="D286" s="18"/>
       <c r="E286" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F286" s="3"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="17" t="s">
+      <c r="A288" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B288" s="18"/>
-      <c r="C288" s="18"/>
-      <c r="D288" s="18"/>
-      <c r="E288" s="18"/>
-      <c r="F288" s="18"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="20"/>
+      <c r="E288" s="20"/>
+      <c r="F288" s="20"/>
     </row>
     <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A289" s="19" t="s">
+      <c r="A289" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B289" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289" s="22" t="s">
+      <c r="B289" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D289" s="22" t="s">
+      <c r="D289" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E289" s="2" t="s">
@@ -5034,46 +5038,46 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="20"/>
-      <c r="B290" s="22"/>
-      <c r="C290" s="22"/>
-      <c r="D290" s="22"/>
+      <c r="A290" s="16"/>
+      <c r="B290" s="18"/>
+      <c r="C290" s="18"/>
+      <c r="D290" s="18"/>
       <c r="E290" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F290" s="3"/>
     </row>
     <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="20"/>
-      <c r="B291" s="22"/>
-      <c r="C291" s="22"/>
-      <c r="D291" s="22"/>
+      <c r="A291" s="16"/>
+      <c r="B291" s="18"/>
+      <c r="C291" s="18"/>
+      <c r="D291" s="18"/>
       <c r="E291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A292" s="21"/>
-      <c r="B292" s="22"/>
-      <c r="C292" s="22"/>
-      <c r="D292" s="22"/>
+      <c r="A292" s="17"/>
+      <c r="B292" s="18"/>
+      <c r="C292" s="18"/>
+      <c r="D292" s="18"/>
       <c r="E292" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F292" s="3"/>
     </row>
     <row r="294" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A294" s="19" t="s">
+      <c r="A294" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B294" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="22" t="s">
+      <c r="B294" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D294" s="22" t="s">
+      <c r="D294" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E294" s="2" t="s">
@@ -5082,46 +5086,46 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="20"/>
-      <c r="B295" s="22"/>
-      <c r="C295" s="22"/>
-      <c r="D295" s="22"/>
+      <c r="A295" s="16"/>
+      <c r="B295" s="18"/>
+      <c r="C295" s="18"/>
+      <c r="D295" s="18"/>
       <c r="E295" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F295" s="3"/>
     </row>
     <row r="296" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="20"/>
-      <c r="B296" s="22"/>
-      <c r="C296" s="22"/>
-      <c r="D296" s="22"/>
+      <c r="A296" s="16"/>
+      <c r="B296" s="18"/>
+      <c r="C296" s="18"/>
+      <c r="D296" s="18"/>
       <c r="E296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="21"/>
-      <c r="B297" s="22"/>
-      <c r="C297" s="22"/>
-      <c r="D297" s="22"/>
+      <c r="A297" s="17"/>
+      <c r="B297" s="18"/>
+      <c r="C297" s="18"/>
+      <c r="D297" s="18"/>
       <c r="E297" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F297" s="3"/>
     </row>
     <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A299" s="19" t="s">
+      <c r="A299" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B299" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C299" s="22" t="s">
+      <c r="B299" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D299" s="22" t="s">
+      <c r="D299" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E299" s="2" t="s">
@@ -5130,46 +5134,46 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A300" s="20"/>
-      <c r="B300" s="22"/>
-      <c r="C300" s="22"/>
-      <c r="D300" s="22"/>
+      <c r="A300" s="16"/>
+      <c r="B300" s="18"/>
+      <c r="C300" s="18"/>
+      <c r="D300" s="18"/>
       <c r="E300" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F300" s="3"/>
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="20"/>
-      <c r="B301" s="22"/>
-      <c r="C301" s="22"/>
-      <c r="D301" s="22"/>
+      <c r="A301" s="16"/>
+      <c r="B301" s="18"/>
+      <c r="C301" s="18"/>
+      <c r="D301" s="18"/>
       <c r="E301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A302" s="21"/>
-      <c r="B302" s="22"/>
-      <c r="C302" s="22"/>
-      <c r="D302" s="22"/>
+      <c r="A302" s="17"/>
+      <c r="B302" s="18"/>
+      <c r="C302" s="18"/>
+      <c r="D302" s="18"/>
       <c r="E302" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F302" s="3"/>
     </row>
     <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304" s="19" t="s">
+      <c r="A304" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B304" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C304" s="22" t="s">
+      <c r="B304" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D304" s="22" t="s">
+      <c r="D304" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E304" s="2" t="s">
@@ -5178,46 +5182,46 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A305" s="20"/>
-      <c r="B305" s="22"/>
-      <c r="C305" s="22"/>
-      <c r="D305" s="22"/>
+      <c r="A305" s="16"/>
+      <c r="B305" s="18"/>
+      <c r="C305" s="18"/>
+      <c r="D305" s="18"/>
       <c r="E305" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F305" s="3"/>
     </row>
     <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A306" s="20"/>
-      <c r="B306" s="22"/>
-      <c r="C306" s="22"/>
-      <c r="D306" s="22"/>
+      <c r="A306" s="16"/>
+      <c r="B306" s="18"/>
+      <c r="C306" s="18"/>
+      <c r="D306" s="18"/>
       <c r="E306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A307" s="21"/>
-      <c r="B307" s="22"/>
-      <c r="C307" s="22"/>
-      <c r="D307" s="22"/>
+      <c r="A307" s="17"/>
+      <c r="B307" s="18"/>
+      <c r="C307" s="18"/>
+      <c r="D307" s="18"/>
       <c r="E307" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F307" s="3"/>
     </row>
     <row r="309" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="19" t="s">
+      <c r="A309" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B309" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="22" t="s">
+      <c r="B309" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D309" s="22" t="s">
+      <c r="D309" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E309" s="2" t="s">
@@ -5226,30 +5230,30 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A310" s="20"/>
-      <c r="B310" s="22"/>
-      <c r="C310" s="22"/>
-      <c r="D310" s="22"/>
+      <c r="A310" s="16"/>
+      <c r="B310" s="18"/>
+      <c r="C310" s="18"/>
+      <c r="D310" s="18"/>
       <c r="E310" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A311" s="20"/>
-      <c r="B311" s="22"/>
-      <c r="C311" s="22"/>
-      <c r="D311" s="22"/>
+      <c r="A311" s="16"/>
+      <c r="B311" s="18"/>
+      <c r="C311" s="18"/>
+      <c r="D311" s="18"/>
       <c r="E311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="21"/>
-      <c r="B312" s="22"/>
-      <c r="C312" s="22"/>
-      <c r="D312" s="22"/>
+      <c r="A312" s="17"/>
+      <c r="B312" s="18"/>
+      <c r="C312" s="18"/>
+      <c r="D312" s="18"/>
       <c r="E312" s="3" t="s">
         <v>12</v>
       </c>
@@ -5257,234 +5261,6 @@
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="D309:D312"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="D299:D302"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="D283:D286"/>
-    <mergeCell ref="A288:F288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="D273:D276"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="D263:D266"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="B268:B271"/>
-    <mergeCell ref="C268:C271"/>
-    <mergeCell ref="D268:D271"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="D257:D260"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="D247:D250"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="D237:D240"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="D221:D224"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="D211:D214"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="D205:D208"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="D195:D198"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A6"/>
@@ -5509,6 +5285,234 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="D205:D208"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="D195:D198"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="D211:D214"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="D216:D219"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="D237:D240"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="D257:D260"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D245"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="D247:D250"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="D273:D276"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="D263:D266"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="C268:C271"/>
+    <mergeCell ref="D268:D271"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="D283:D286"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="D309:D312"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="D299:D302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5659,18 +5663,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5692,18 +5696,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PRT585_Group _7_TimeSheet.xlsx
+++ b/PRT585_Group _7_TimeSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabili/PRT585_S2023_Group_7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenchen/Documents/GitHub/PRT585_S2023_Group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E6CF80-BC52-2644-945B-8A7163983ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4D6314-77B8-3541-995E-4AD807453659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="800" windowWidth="32800" windowHeight="19020" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
+    <workbookView xWindow="3480" yWindow="800" windowWidth="32800" windowHeight="19020" activeTab="1" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 7 Timesheet" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="88">
   <si>
     <t>Week</t>
   </si>
@@ -313,8 +313,21 @@
     <t>1. Create my first project for blazor</t>
   </si>
   <si>
-    <t>1. Most of us don't learn #C before and need to learn C# from basic.
+    <t>1. Most of us don't learn C# before and need to learn C# from basic.
 2. We are not familiar with Github and covered modified file by accident.</t>
+  </si>
+  <si>
+    <t>1. Install Visual Studio
+2. Install .NET SDK</t>
+  </si>
+  <si>
+    <t>1. Watch Youtube: Learn from .NET Core 101 video playlist</t>
+  </si>
+  <si>
+    <t>1. Follow the step for 'Hello World' in .NET</t>
+  </si>
+  <si>
+    <t>1. Read through : Recommended learning path that provided in Teams</t>
   </si>
 </sst>
 </file>
@@ -517,6 +530,36 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -531,36 +574,6 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD2CA45-38D9-4271-9CE5-FD0B25AF8966}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -921,27 +934,27 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -950,120 +963,120 @@
       <c r="F3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="21" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="23" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="25" t="s">
         <v>67</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1074,10 +1087,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1086,10 +1099,10 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1098,10 +1111,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1110,10 +1123,10 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1122,10 +1135,10 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1134,36 +1147,36 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1174,10 +1187,10 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1186,10 +1199,10 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1198,10 +1211,10 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1210,10 +1223,10 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1222,10 +1235,10 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1234,36 +1247,36 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1274,10 +1287,10 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1286,10 +1299,10 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1298,10 +1311,10 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>12</v>
       </c>
@@ -1310,10 +1323,10 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
@@ -1322,10 +1335,10 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
@@ -1334,36 +1347,36 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1374,10 +1387,10 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="3" t="s">
         <v>10</v>
       </c>
@@ -1386,10 +1399,10 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1398,10 +1411,10 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="3" t="s">
         <v>12</v>
       </c>
@@ -1410,10 +1423,10 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
@@ -1422,10 +1435,10 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="3" t="s">
         <v>14</v>
       </c>
@@ -1434,36 +1447,36 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1474,10 +1487,10 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="3" t="s">
         <v>10</v>
       </c>
@@ -1486,10 +1499,10 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1498,10 +1511,10 @@
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1510,10 +1523,10 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1522,10 +1535,10 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="3" t="s">
         <v>14</v>
       </c>
@@ -1534,36 +1547,36 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="22" t="s">
+      <c r="B51" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1574,10 +1587,10 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
@@ -1586,10 +1599,10 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
@@ -1598,10 +1611,10 @@
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="3" t="s">
         <v>12</v>
       </c>
@@ -1610,10 +1623,10 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="2" t="s">
         <v>13</v>
       </c>
@@ -1622,10 +1635,10 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="3" t="s">
         <v>14</v>
       </c>
@@ -1634,36 +1647,36 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="22" t="s">
+      <c r="B59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -1674,10 +1687,10 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="3" t="s">
         <v>10</v>
       </c>
@@ -1686,10 +1699,10 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
@@ -1698,10 +1711,10 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="3" t="s">
         <v>12</v>
       </c>
@@ -1710,10 +1723,10 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="2" t="s">
         <v>13</v>
       </c>
@@ -1722,10 +1735,10 @@
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="3" t="s">
         <v>14</v>
       </c>
@@ -1734,36 +1747,36 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="25"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="22" t="s">
+      <c r="B67" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -1774,10 +1787,10 @@
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="3" t="s">
         <v>10</v>
       </c>
@@ -1786,10 +1799,10 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="2" t="s">
         <v>11</v>
       </c>
@@ -1798,10 +1811,10 @@
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="3" t="s">
         <v>12</v>
       </c>
@@ -1810,10 +1823,10 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="2" t="s">
         <v>13</v>
       </c>
@@ -1822,10 +1835,10 @@
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="3" t="s">
         <v>14</v>
       </c>
@@ -1834,36 +1847,36 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="25"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="22" t="s">
+      <c r="B75" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -1874,10 +1887,10 @@
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
@@ -1886,10 +1899,10 @@
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
@@ -1898,10 +1911,10 @@
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
@@ -1910,10 +1923,10 @@
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="2" t="s">
         <v>13</v>
       </c>
@@ -1922,10 +1935,10 @@
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="3" t="s">
         <v>14</v>
       </c>
@@ -1934,36 +1947,36 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="22" t="s">
+      <c r="B83" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -1974,10 +1987,10 @@
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="20"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
@@ -1986,10 +1999,10 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="20"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="2" t="s">
         <v>11</v>
       </c>
@@ -1998,10 +2011,10 @@
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="20"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="3" t="s">
         <v>12</v>
       </c>
@@ -2010,10 +2023,10 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="2" t="s">
         <v>13</v>
       </c>
@@ -2022,10 +2035,10 @@
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="3" t="s">
         <v>14</v>
       </c>
@@ -2034,36 +2047,36 @@
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="25"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="22" t="s">
+      <c r="B91" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2074,10 +2087,10 @@
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
@@ -2086,10 +2099,10 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
@@ -2098,10 +2111,10 @@
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
@@ -2110,10 +2123,10 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="2" t="s">
         <v>13</v>
       </c>
@@ -2122,10 +2135,10 @@
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="3" t="s">
         <v>14</v>
       </c>
@@ -2135,11 +2148,63 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A75:A80"/>
@@ -2152,63 +2217,11 @@
     <mergeCell ref="B83:B88"/>
     <mergeCell ref="C83:C88"/>
     <mergeCell ref="D83:D88"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2219,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D9E5DF-CFA1-47F0-8D7B-29D019DDEA37}">
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2254,26 +2267,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2284,10 +2297,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2296,10 +2309,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2308,10 +2321,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
@@ -2319,65 +2332,73 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2386,46 +2407,46 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2436,10 +2457,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2448,10 +2469,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2460,10 +2481,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
@@ -2472,16 +2493,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2492,10 +2513,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
@@ -2504,10 +2525,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2516,10 +2537,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
@@ -2528,26 +2549,26 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2556,46 +2577,46 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2604,46 +2625,46 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2652,46 +2673,46 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2700,46 +2721,46 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="22" t="s">
+      <c r="B49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2748,56 +2769,56 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="22" t="s">
+      <c r="B55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2806,46 +2827,46 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="22" t="s">
+      <c r="B60" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2854,46 +2875,46 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22" t="s">
+      <c r="B65" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2902,46 +2923,46 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="22" t="s">
+      <c r="B70" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2950,46 +2971,46 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="22" t="s">
+      <c r="B75" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -2998,56 +3019,56 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
     </row>
     <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="22" t="s">
+      <c r="B81" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -3056,46 +3077,46 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="20"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="20"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="22" t="s">
+      <c r="B86" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -3104,46 +3125,46 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="20"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="22" t="s">
+      <c r="B91" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -3152,46 +3173,46 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="22" t="s">
+      <c r="B96" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -3200,46 +3221,46 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="20"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="3"/>
     </row>
     <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="22" t="s">
+      <c r="B101" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -3248,56 +3269,56 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
       <c r="E104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B107" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="22" t="s">
+      <c r="B107" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D107" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -3306,46 +3327,46 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="20"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
       <c r="E108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="20"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
       <c r="E109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
       <c r="E110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="3"/>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="22" t="s">
+      <c r="B112" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3354,46 +3375,46 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="20"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="20"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="21"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
       <c r="E115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="3"/>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B117" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="22" t="s">
+      <c r="B117" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D117" s="22" t="s">
+      <c r="D117" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3402,46 +3423,46 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="20"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="20"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
       <c r="E119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="21"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
       <c r="E120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="3"/>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B122" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="22" t="s">
+      <c r="B122" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3450,46 +3471,46 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="20"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
       <c r="E123" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="20"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
+      <c r="A124" s="16"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
       <c r="E124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
       <c r="E125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="3"/>
     </row>
     <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B127" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="22" t="s">
+      <c r="B127" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3498,56 +3519,56 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="20"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
       <c r="E128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="20"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
       <c r="E129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="21"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
     </row>
     <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B133" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="22" t="s">
+      <c r="B133" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D133" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3556,46 +3577,46 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="20"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="20"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
       <c r="E135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="21"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
       <c r="E136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="22" t="s">
+      <c r="B138" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="22" t="s">
+      <c r="D138" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -3604,46 +3625,46 @@
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="20"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
       <c r="E139" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="20"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
       <c r="E140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="21"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
       <c r="E141" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="19" t="s">
+      <c r="A143" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B143" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="22" t="s">
+      <c r="B143" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="D143" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3652,46 +3673,46 @@
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="20"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="22"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
       <c r="E144" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="20"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
+      <c r="A145" s="16"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
       <c r="E145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="21"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
       <c r="E146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="3"/>
     </row>
     <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="19" t="s">
+      <c r="A148" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B148" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="22" t="s">
+      <c r="B148" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="D148" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3700,46 +3721,46 @@
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="20"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="22"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
       <c r="E149" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="20"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
+      <c r="A150" s="16"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
       <c r="E150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="21"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
       <c r="E151" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="19" t="s">
+      <c r="A153" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B153" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="22" t="s">
+      <c r="B153" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="22" t="s">
+      <c r="D153" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3748,56 +3769,56 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="20"/>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="22"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
       <c r="E154" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="20"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="22"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
       <c r="E155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="21"/>
-      <c r="B156" s="22"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
       <c r="E156" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="3"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="19" t="s">
+      <c r="A159" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B159" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="22" t="s">
+      <c r="B159" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D159" s="22" t="s">
+      <c r="D159" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -3806,46 +3827,46 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="20"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="22"/>
+      <c r="A160" s="16"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
       <c r="E160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="20"/>
-      <c r="B161" s="22"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
+      <c r="A161" s="16"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
       <c r="E161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="21"/>
-      <c r="B162" s="22"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
+      <c r="A162" s="17"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
       <c r="E162" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="3"/>
     </row>
     <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="19" t="s">
+      <c r="A164" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B164" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="22" t="s">
+      <c r="B164" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D164" s="22" t="s">
+      <c r="D164" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -3854,46 +3875,46 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="20"/>
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
+      <c r="A165" s="16"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
       <c r="E165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="20"/>
-      <c r="B166" s="22"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
+      <c r="A166" s="16"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="18"/>
       <c r="E166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="21"/>
-      <c r="B167" s="22"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="22"/>
+      <c r="A167" s="17"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
       <c r="E167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="3"/>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="19" t="s">
+      <c r="A169" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="22" t="s">
+      <c r="B169" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="D169" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -3902,46 +3923,46 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="20"/>
-      <c r="B170" s="22"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="22"/>
+      <c r="A170" s="16"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
       <c r="E170" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="20"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="22"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
       <c r="E171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="21"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
       <c r="E172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="3"/>
     </row>
     <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="19" t="s">
+      <c r="A174" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B174" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="22" t="s">
+      <c r="B174" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D174" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -3950,46 +3971,46 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="20"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="22"/>
+      <c r="A175" s="16"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
       <c r="E175" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F175" s="3"/>
     </row>
     <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="20"/>
-      <c r="B176" s="22"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="22"/>
+      <c r="A176" s="16"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
       <c r="E176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="21"/>
-      <c r="B177" s="22"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="22"/>
+      <c r="A177" s="17"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
       <c r="E177" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="3"/>
     </row>
     <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="19" t="s">
+      <c r="A179" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B179" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="22" t="s">
+      <c r="B179" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="D179" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -3998,56 +4019,56 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="20"/>
-      <c r="B180" s="22"/>
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
+      <c r="A180" s="16"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
       <c r="E180" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="20"/>
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
+      <c r="A181" s="16"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
       <c r="E181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
-      <c r="C182" s="22"/>
-      <c r="D182" s="22"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="18"/>
       <c r="E182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="3"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="17" t="s">
+      <c r="A184" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B184" s="18"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
     </row>
     <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="19" t="s">
+      <c r="A185" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B185" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="22" t="s">
+      <c r="B185" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="22" t="s">
+      <c r="D185" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -4056,46 +4077,46 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="20"/>
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
+      <c r="A186" s="16"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
       <c r="E186" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="20"/>
-      <c r="B187" s="22"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
+      <c r="A187" s="16"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
       <c r="E187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="21"/>
-      <c r="B188" s="22"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="18"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="18"/>
       <c r="E188" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F188" s="3"/>
     </row>
     <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="19" t="s">
+      <c r="A190" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B190" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="22" t="s">
+      <c r="B190" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="D190" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -4104,46 +4125,46 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="20"/>
-      <c r="B191" s="22"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22"/>
+      <c r="A191" s="16"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
       <c r="E191" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="20"/>
-      <c r="B192" s="22"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="22"/>
+      <c r="A192" s="16"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
       <c r="E192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="21"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
+      <c r="A193" s="17"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
       <c r="E193" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F193" s="3"/>
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="19" t="s">
+      <c r="A195" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B195" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="22" t="s">
+      <c r="B195" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D195" s="22" t="s">
+      <c r="D195" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -4152,46 +4173,46 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="20"/>
-      <c r="B196" s="22"/>
-      <c r="C196" s="22"/>
-      <c r="D196" s="22"/>
+      <c r="A196" s="16"/>
+      <c r="B196" s="18"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="18"/>
       <c r="E196" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="20"/>
-      <c r="B197" s="22"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
+      <c r="A197" s="16"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
       <c r="E197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198" s="21"/>
-      <c r="B198" s="22"/>
-      <c r="C198" s="22"/>
-      <c r="D198" s="22"/>
+      <c r="A198" s="17"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="18"/>
       <c r="E198" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F198" s="3"/>
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200" s="19" t="s">
+      <c r="A200" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B200" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="22" t="s">
+      <c r="B200" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D200" s="22" t="s">
+      <c r="D200" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -4200,46 +4221,46 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="20"/>
-      <c r="B201" s="22"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="22"/>
+      <c r="A201" s="16"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="18"/>
       <c r="E201" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="20"/>
-      <c r="B202" s="22"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="22"/>
+      <c r="A202" s="16"/>
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="18"/>
       <c r="E202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="21"/>
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
+      <c r="A203" s="17"/>
+      <c r="B203" s="18"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="18"/>
       <c r="E203" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="3"/>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="19" t="s">
+      <c r="A205" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B205" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="22" t="s">
+      <c r="B205" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D205" s="22" t="s">
+      <c r="D205" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -4248,56 +4269,56 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="20"/>
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="22"/>
+      <c r="A206" s="16"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
       <c r="E206" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="20"/>
-      <c r="B207" s="22"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="22"/>
+      <c r="A207" s="16"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
       <c r="E207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="21"/>
-      <c r="B208" s="22"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="22"/>
+      <c r="A208" s="17"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18"/>
       <c r="E208" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F208" s="3"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="17" t="s">
+      <c r="A210" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="20"/>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="19" t="s">
+      <c r="A211" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B211" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="22" t="s">
+      <c r="B211" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D211" s="22" t="s">
+      <c r="D211" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -4306,46 +4327,46 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="20"/>
-      <c r="B212" s="22"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="22"/>
+      <c r="A212" s="16"/>
+      <c r="B212" s="18"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="18"/>
       <c r="E212" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F212" s="3"/>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="20"/>
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="22"/>
+      <c r="A213" s="16"/>
+      <c r="B213" s="18"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="18"/>
       <c r="E213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="21"/>
-      <c r="B214" s="22"/>
-      <c r="C214" s="22"/>
-      <c r="D214" s="22"/>
+      <c r="A214" s="17"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="18"/>
       <c r="E214" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="3"/>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="19" t="s">
+      <c r="A216" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B216" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="22" t="s">
+      <c r="B216" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D216" s="22" t="s">
+      <c r="D216" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -4354,46 +4375,46 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="20"/>
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
+      <c r="A217" s="16"/>
+      <c r="B217" s="18"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="18"/>
       <c r="E217" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F217" s="3"/>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="20"/>
-      <c r="B218" s="22"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
+      <c r="A218" s="16"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="18"/>
       <c r="E218" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="21"/>
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
+      <c r="A219" s="17"/>
+      <c r="B219" s="18"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="18"/>
       <c r="E219" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F219" s="3"/>
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="19" t="s">
+      <c r="A221" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B221" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="22" t="s">
+      <c r="B221" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D221" s="22" t="s">
+      <c r="D221" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -4402,46 +4423,46 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="20"/>
-      <c r="B222" s="22"/>
-      <c r="C222" s="22"/>
-      <c r="D222" s="22"/>
+      <c r="A222" s="16"/>
+      <c r="B222" s="18"/>
+      <c r="C222" s="18"/>
+      <c r="D222" s="18"/>
       <c r="E222" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F222" s="3"/>
     </row>
     <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="20"/>
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="22"/>
+      <c r="A223" s="16"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="18"/>
       <c r="E223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="21"/>
-      <c r="B224" s="22"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="22"/>
+      <c r="A224" s="17"/>
+      <c r="B224" s="18"/>
+      <c r="C224" s="18"/>
+      <c r="D224" s="18"/>
       <c r="E224" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F224" s="3"/>
     </row>
     <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="19" t="s">
+      <c r="A226" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B226" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="22" t="s">
+      <c r="B226" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D226" s="22" t="s">
+      <c r="D226" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -4450,46 +4471,46 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="20"/>
-      <c r="B227" s="22"/>
-      <c r="C227" s="22"/>
-      <c r="D227" s="22"/>
+      <c r="A227" s="16"/>
+      <c r="B227" s="18"/>
+      <c r="C227" s="18"/>
+      <c r="D227" s="18"/>
       <c r="E227" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F227" s="3"/>
     </row>
     <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="20"/>
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
-      <c r="D228" s="22"/>
+      <c r="A228" s="16"/>
+      <c r="B228" s="18"/>
+      <c r="C228" s="18"/>
+      <c r="D228" s="18"/>
       <c r="E228" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="21"/>
-      <c r="B229" s="22"/>
-      <c r="C229" s="22"/>
-      <c r="D229" s="22"/>
+      <c r="A229" s="17"/>
+      <c r="B229" s="18"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="18"/>
       <c r="E229" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F229" s="3"/>
     </row>
     <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="19" t="s">
+      <c r="A231" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B231" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="22" t="s">
+      <c r="B231" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D231" s="22" t="s">
+      <c r="D231" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -4498,56 +4519,56 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="20"/>
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
-      <c r="D232" s="22"/>
+      <c r="A232" s="16"/>
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="18"/>
       <c r="E232" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="20"/>
-      <c r="B233" s="22"/>
-      <c r="C233" s="22"/>
-      <c r="D233" s="22"/>
+      <c r="A233" s="16"/>
+      <c r="B233" s="18"/>
+      <c r="C233" s="18"/>
+      <c r="D233" s="18"/>
       <c r="E233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="21"/>
-      <c r="B234" s="22"/>
-      <c r="C234" s="22"/>
-      <c r="D234" s="22"/>
+      <c r="A234" s="17"/>
+      <c r="B234" s="18"/>
+      <c r="C234" s="18"/>
+      <c r="D234" s="18"/>
       <c r="E234" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F234" s="3"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="17" t="s">
+      <c r="A236" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B236" s="18"/>
-      <c r="C236" s="18"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
-      <c r="F236" s="18"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="20"/>
+      <c r="F236" s="20"/>
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="19" t="s">
+      <c r="A237" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B237" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="22" t="s">
+      <c r="B237" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D237" s="22" t="s">
+      <c r="D237" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -4556,46 +4577,46 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="20"/>
-      <c r="B238" s="22"/>
-      <c r="C238" s="22"/>
-      <c r="D238" s="22"/>
+      <c r="A238" s="16"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="18"/>
       <c r="E238" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="20"/>
-      <c r="B239" s="22"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="22"/>
+      <c r="A239" s="16"/>
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="18"/>
       <c r="E239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="21"/>
-      <c r="B240" s="22"/>
-      <c r="C240" s="22"/>
-      <c r="D240" s="22"/>
+      <c r="A240" s="17"/>
+      <c r="B240" s="18"/>
+      <c r="C240" s="18"/>
+      <c r="D240" s="18"/>
       <c r="E240" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F240" s="3"/>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="19" t="s">
+      <c r="A242" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B242" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="22" t="s">
+      <c r="B242" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D242" s="22" t="s">
+      <c r="D242" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -4604,46 +4625,46 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="20"/>
-      <c r="B243" s="22"/>
-      <c r="C243" s="22"/>
-      <c r="D243" s="22"/>
+      <c r="A243" s="16"/>
+      <c r="B243" s="18"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="18"/>
       <c r="E243" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F243" s="3"/>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A244" s="20"/>
-      <c r="B244" s="22"/>
-      <c r="C244" s="22"/>
-      <c r="D244" s="22"/>
+      <c r="A244" s="16"/>
+      <c r="B244" s="18"/>
+      <c r="C244" s="18"/>
+      <c r="D244" s="18"/>
       <c r="E244" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A245" s="21"/>
-      <c r="B245" s="22"/>
-      <c r="C245" s="22"/>
-      <c r="D245" s="22"/>
+      <c r="A245" s="17"/>
+      <c r="B245" s="18"/>
+      <c r="C245" s="18"/>
+      <c r="D245" s="18"/>
       <c r="E245" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F245" s="3"/>
     </row>
     <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="19" t="s">
+      <c r="A247" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B247" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="22" t="s">
+      <c r="B247" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D247" s="22" t="s">
+      <c r="D247" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -4652,46 +4673,46 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="20"/>
-      <c r="B248" s="22"/>
-      <c r="C248" s="22"/>
-      <c r="D248" s="22"/>
+      <c r="A248" s="16"/>
+      <c r="B248" s="18"/>
+      <c r="C248" s="18"/>
+      <c r="D248" s="18"/>
       <c r="E248" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="20"/>
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
-      <c r="D249" s="22"/>
+      <c r="A249" s="16"/>
+      <c r="B249" s="18"/>
+      <c r="C249" s="18"/>
+      <c r="D249" s="18"/>
       <c r="E249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A250" s="21"/>
-      <c r="B250" s="22"/>
-      <c r="C250" s="22"/>
-      <c r="D250" s="22"/>
+      <c r="A250" s="17"/>
+      <c r="B250" s="18"/>
+      <c r="C250" s="18"/>
+      <c r="D250" s="18"/>
       <c r="E250" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F250" s="3"/>
     </row>
     <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A252" s="19" t="s">
+      <c r="A252" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B252" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="22" t="s">
+      <c r="B252" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D252" s="22" t="s">
+      <c r="D252" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -4700,46 +4721,46 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="20"/>
-      <c r="B253" s="22"/>
-      <c r="C253" s="22"/>
-      <c r="D253" s="22"/>
+      <c r="A253" s="16"/>
+      <c r="B253" s="18"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18"/>
       <c r="E253" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A254" s="20"/>
-      <c r="B254" s="22"/>
-      <c r="C254" s="22"/>
-      <c r="D254" s="22"/>
+      <c r="A254" s="16"/>
+      <c r="B254" s="18"/>
+      <c r="C254" s="18"/>
+      <c r="D254" s="18"/>
       <c r="E254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="21"/>
-      <c r="B255" s="22"/>
-      <c r="C255" s="22"/>
-      <c r="D255" s="22"/>
+      <c r="A255" s="17"/>
+      <c r="B255" s="18"/>
+      <c r="C255" s="18"/>
+      <c r="D255" s="18"/>
       <c r="E255" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F255" s="3"/>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="19" t="s">
+      <c r="A257" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B257" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="22" t="s">
+      <c r="B257" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D257" s="22" t="s">
+      <c r="D257" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -4748,56 +4769,56 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="20"/>
-      <c r="B258" s="22"/>
-      <c r="C258" s="22"/>
-      <c r="D258" s="22"/>
+      <c r="A258" s="16"/>
+      <c r="B258" s="18"/>
+      <c r="C258" s="18"/>
+      <c r="D258" s="18"/>
       <c r="E258" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F258" s="3"/>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="20"/>
-      <c r="B259" s="22"/>
-      <c r="C259" s="22"/>
-      <c r="D259" s="22"/>
+      <c r="A259" s="16"/>
+      <c r="B259" s="18"/>
+      <c r="C259" s="18"/>
+      <c r="D259" s="18"/>
       <c r="E259" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="21"/>
-      <c r="B260" s="22"/>
-      <c r="C260" s="22"/>
-      <c r="D260" s="22"/>
+      <c r="A260" s="17"/>
+      <c r="B260" s="18"/>
+      <c r="C260" s="18"/>
+      <c r="D260" s="18"/>
       <c r="E260" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F260" s="3"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="17" t="s">
+      <c r="A262" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B262" s="18"/>
-      <c r="C262" s="18"/>
-      <c r="D262" s="18"/>
-      <c r="E262" s="18"/>
-      <c r="F262" s="18"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="20"/>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="19" t="s">
+      <c r="A263" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B263" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="22" t="s">
+      <c r="B263" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D263" s="22" t="s">
+      <c r="D263" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -4806,46 +4827,46 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="20"/>
-      <c r="B264" s="22"/>
-      <c r="C264" s="22"/>
-      <c r="D264" s="22"/>
+      <c r="A264" s="16"/>
+      <c r="B264" s="18"/>
+      <c r="C264" s="18"/>
+      <c r="D264" s="18"/>
       <c r="E264" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F264" s="3"/>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="20"/>
-      <c r="B265" s="22"/>
-      <c r="C265" s="22"/>
-      <c r="D265" s="22"/>
+      <c r="A265" s="16"/>
+      <c r="B265" s="18"/>
+      <c r="C265" s="18"/>
+      <c r="D265" s="18"/>
       <c r="E265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="21"/>
-      <c r="B266" s="22"/>
-      <c r="C266" s="22"/>
-      <c r="D266" s="22"/>
+      <c r="A266" s="17"/>
+      <c r="B266" s="18"/>
+      <c r="C266" s="18"/>
+      <c r="D266" s="18"/>
       <c r="E266" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F266" s="3"/>
     </row>
     <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="19" t="s">
+      <c r="A268" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B268" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C268" s="22" t="s">
+      <c r="B268" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D268" s="22" t="s">
+      <c r="D268" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -4854,46 +4875,46 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="20"/>
-      <c r="B269" s="22"/>
-      <c r="C269" s="22"/>
-      <c r="D269" s="22"/>
+      <c r="A269" s="16"/>
+      <c r="B269" s="18"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="18"/>
       <c r="E269" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="20"/>
-      <c r="B270" s="22"/>
-      <c r="C270" s="22"/>
-      <c r="D270" s="22"/>
+      <c r="A270" s="16"/>
+      <c r="B270" s="18"/>
+      <c r="C270" s="18"/>
+      <c r="D270" s="18"/>
       <c r="E270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="21"/>
-      <c r="B271" s="22"/>
-      <c r="C271" s="22"/>
-      <c r="D271" s="22"/>
+      <c r="A271" s="17"/>
+      <c r="B271" s="18"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="18"/>
       <c r="E271" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F271" s="3"/>
     </row>
     <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A273" s="19" t="s">
+      <c r="A273" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B273" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C273" s="22" t="s">
+      <c r="B273" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D273" s="22" t="s">
+      <c r="D273" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -4902,46 +4923,46 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A274" s="20"/>
-      <c r="B274" s="22"/>
-      <c r="C274" s="22"/>
-      <c r="D274" s="22"/>
+      <c r="A274" s="16"/>
+      <c r="B274" s="18"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="18"/>
       <c r="E274" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A275" s="20"/>
-      <c r="B275" s="22"/>
-      <c r="C275" s="22"/>
-      <c r="D275" s="22"/>
+      <c r="A275" s="16"/>
+      <c r="B275" s="18"/>
+      <c r="C275" s="18"/>
+      <c r="D275" s="18"/>
       <c r="E275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="21"/>
-      <c r="B276" s="22"/>
-      <c r="C276" s="22"/>
-      <c r="D276" s="22"/>
+      <c r="A276" s="17"/>
+      <c r="B276" s="18"/>
+      <c r="C276" s="18"/>
+      <c r="D276" s="18"/>
       <c r="E276" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F276" s="3"/>
     </row>
     <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="19" t="s">
+      <c r="A278" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B278" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C278" s="22" t="s">
+      <c r="B278" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D278" s="22" t="s">
+      <c r="D278" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -4950,46 +4971,46 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A279" s="20"/>
-      <c r="B279" s="22"/>
-      <c r="C279" s="22"/>
-      <c r="D279" s="22"/>
+      <c r="A279" s="16"/>
+      <c r="B279" s="18"/>
+      <c r="C279" s="18"/>
+      <c r="D279" s="18"/>
       <c r="E279" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F279" s="3"/>
     </row>
     <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A280" s="20"/>
-      <c r="B280" s="22"/>
-      <c r="C280" s="22"/>
-      <c r="D280" s="22"/>
+      <c r="A280" s="16"/>
+      <c r="B280" s="18"/>
+      <c r="C280" s="18"/>
+      <c r="D280" s="18"/>
       <c r="E280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A281" s="21"/>
-      <c r="B281" s="22"/>
-      <c r="C281" s="22"/>
-      <c r="D281" s="22"/>
+      <c r="A281" s="17"/>
+      <c r="B281" s="18"/>
+      <c r="C281" s="18"/>
+      <c r="D281" s="18"/>
       <c r="E281" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F281" s="3"/>
     </row>
     <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="19" t="s">
+      <c r="A283" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B283" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C283" s="22" t="s">
+      <c r="B283" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D283" s="22" t="s">
+      <c r="D283" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -4998,56 +5019,56 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" s="20"/>
-      <c r="B284" s="22"/>
-      <c r="C284" s="22"/>
-      <c r="D284" s="22"/>
+      <c r="A284" s="16"/>
+      <c r="B284" s="18"/>
+      <c r="C284" s="18"/>
+      <c r="D284" s="18"/>
       <c r="E284" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="20"/>
-      <c r="B285" s="22"/>
-      <c r="C285" s="22"/>
-      <c r="D285" s="22"/>
+      <c r="A285" s="16"/>
+      <c r="B285" s="18"/>
+      <c r="C285" s="18"/>
+      <c r="D285" s="18"/>
       <c r="E285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A286" s="21"/>
-      <c r="B286" s="22"/>
-      <c r="C286" s="22"/>
-      <c r="D286" s="22"/>
+      <c r="A286" s="17"/>
+      <c r="B286" s="18"/>
+      <c r="C286" s="18"/>
+      <c r="D286" s="18"/>
       <c r="E286" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F286" s="3"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="17" t="s">
+      <c r="A288" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B288" s="18"/>
-      <c r="C288" s="18"/>
-      <c r="D288" s="18"/>
-      <c r="E288" s="18"/>
-      <c r="F288" s="18"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="20"/>
+      <c r="E288" s="20"/>
+      <c r="F288" s="20"/>
     </row>
     <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A289" s="19" t="s">
+      <c r="A289" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B289" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289" s="22" t="s">
+      <c r="B289" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D289" s="22" t="s">
+      <c r="D289" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E289" s="2" t="s">
@@ -5056,46 +5077,46 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="20"/>
-      <c r="B290" s="22"/>
-      <c r="C290" s="22"/>
-      <c r="D290" s="22"/>
+      <c r="A290" s="16"/>
+      <c r="B290" s="18"/>
+      <c r="C290" s="18"/>
+      <c r="D290" s="18"/>
       <c r="E290" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F290" s="3"/>
     </row>
     <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="20"/>
-      <c r="B291" s="22"/>
-      <c r="C291" s="22"/>
-      <c r="D291" s="22"/>
+      <c r="A291" s="16"/>
+      <c r="B291" s="18"/>
+      <c r="C291" s="18"/>
+      <c r="D291" s="18"/>
       <c r="E291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A292" s="21"/>
-      <c r="B292" s="22"/>
-      <c r="C292" s="22"/>
-      <c r="D292" s="22"/>
+      <c r="A292" s="17"/>
+      <c r="B292" s="18"/>
+      <c r="C292" s="18"/>
+      <c r="D292" s="18"/>
       <c r="E292" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F292" s="3"/>
     </row>
     <row r="294" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A294" s="19" t="s">
+      <c r="A294" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B294" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="22" t="s">
+      <c r="B294" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D294" s="22" t="s">
+      <c r="D294" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E294" s="2" t="s">
@@ -5104,46 +5125,46 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="20"/>
-      <c r="B295" s="22"/>
-      <c r="C295" s="22"/>
-      <c r="D295" s="22"/>
+      <c r="A295" s="16"/>
+      <c r="B295" s="18"/>
+      <c r="C295" s="18"/>
+      <c r="D295" s="18"/>
       <c r="E295" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F295" s="3"/>
     </row>
     <row r="296" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="20"/>
-      <c r="B296" s="22"/>
-      <c r="C296" s="22"/>
-      <c r="D296" s="22"/>
+      <c r="A296" s="16"/>
+      <c r="B296" s="18"/>
+      <c r="C296" s="18"/>
+      <c r="D296" s="18"/>
       <c r="E296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="21"/>
-      <c r="B297" s="22"/>
-      <c r="C297" s="22"/>
-      <c r="D297" s="22"/>
+      <c r="A297" s="17"/>
+      <c r="B297" s="18"/>
+      <c r="C297" s="18"/>
+      <c r="D297" s="18"/>
       <c r="E297" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F297" s="3"/>
     </row>
     <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A299" s="19" t="s">
+      <c r="A299" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B299" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C299" s="22" t="s">
+      <c r="B299" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D299" s="22" t="s">
+      <c r="D299" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E299" s="2" t="s">
@@ -5152,46 +5173,46 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A300" s="20"/>
-      <c r="B300" s="22"/>
-      <c r="C300" s="22"/>
-      <c r="D300" s="22"/>
+      <c r="A300" s="16"/>
+      <c r="B300" s="18"/>
+      <c r="C300" s="18"/>
+      <c r="D300" s="18"/>
       <c r="E300" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F300" s="3"/>
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="20"/>
-      <c r="B301" s="22"/>
-      <c r="C301" s="22"/>
-      <c r="D301" s="22"/>
+      <c r="A301" s="16"/>
+      <c r="B301" s="18"/>
+      <c r="C301" s="18"/>
+      <c r="D301" s="18"/>
       <c r="E301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A302" s="21"/>
-      <c r="B302" s="22"/>
-      <c r="C302" s="22"/>
-      <c r="D302" s="22"/>
+      <c r="A302" s="17"/>
+      <c r="B302" s="18"/>
+      <c r="C302" s="18"/>
+      <c r="D302" s="18"/>
       <c r="E302" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F302" s="3"/>
     </row>
     <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304" s="19" t="s">
+      <c r="A304" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B304" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C304" s="22" t="s">
+      <c r="B304" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D304" s="22" t="s">
+      <c r="D304" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E304" s="2" t="s">
@@ -5200,46 +5221,46 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A305" s="20"/>
-      <c r="B305" s="22"/>
-      <c r="C305" s="22"/>
-      <c r="D305" s="22"/>
+      <c r="A305" s="16"/>
+      <c r="B305" s="18"/>
+      <c r="C305" s="18"/>
+      <c r="D305" s="18"/>
       <c r="E305" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F305" s="3"/>
     </row>
     <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A306" s="20"/>
-      <c r="B306" s="22"/>
-      <c r="C306" s="22"/>
-      <c r="D306" s="22"/>
+      <c r="A306" s="16"/>
+      <c r="B306" s="18"/>
+      <c r="C306" s="18"/>
+      <c r="D306" s="18"/>
       <c r="E306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A307" s="21"/>
-      <c r="B307" s="22"/>
-      <c r="C307" s="22"/>
-      <c r="D307" s="22"/>
+      <c r="A307" s="17"/>
+      <c r="B307" s="18"/>
+      <c r="C307" s="18"/>
+      <c r="D307" s="18"/>
       <c r="E307" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F307" s="3"/>
     </row>
     <row r="309" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="19" t="s">
+      <c r="A309" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B309" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="22" t="s">
+      <c r="B309" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D309" s="22" t="s">
+      <c r="D309" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E309" s="2" t="s">
@@ -5248,30 +5269,30 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A310" s="20"/>
-      <c r="B310" s="22"/>
-      <c r="C310" s="22"/>
-      <c r="D310" s="22"/>
+      <c r="A310" s="16"/>
+      <c r="B310" s="18"/>
+      <c r="C310" s="18"/>
+      <c r="D310" s="18"/>
       <c r="E310" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A311" s="20"/>
-      <c r="B311" s="22"/>
-      <c r="C311" s="22"/>
-      <c r="D311" s="22"/>
+      <c r="A311" s="16"/>
+      <c r="B311" s="18"/>
+      <c r="C311" s="18"/>
+      <c r="D311" s="18"/>
       <c r="E311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="21"/>
-      <c r="B312" s="22"/>
-      <c r="C312" s="22"/>
-      <c r="D312" s="22"/>
+      <c r="A312" s="17"/>
+      <c r="B312" s="18"/>
+      <c r="C312" s="18"/>
+      <c r="D312" s="18"/>
       <c r="E312" s="3" t="s">
         <v>12</v>
       </c>
@@ -5279,234 +5300,6 @@
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="D309:D312"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="D299:D302"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="D283:D286"/>
-    <mergeCell ref="A288:F288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="D273:D276"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="D263:D266"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="B268:B271"/>
-    <mergeCell ref="C268:C271"/>
-    <mergeCell ref="D268:D271"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="D257:D260"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="D247:D250"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="D237:D240"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="D221:D224"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="D211:D214"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="D205:D208"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="D195:D198"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A6"/>
@@ -5531,12 +5324,246 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="D205:D208"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="D195:D198"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="D211:D214"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="D216:D219"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="D237:D240"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="D257:D260"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D245"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="D247:D250"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="D273:D276"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="D263:D266"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="C268:C271"/>
+    <mergeCell ref="D268:D271"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="D283:D286"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="D309:D312"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="D299:D302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088059E6DDC6DF445B0AB87CAA811C0D0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314c580fd60c3711a3e3031240862aa0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae328def-a07b-4370-9a10-828a34f91ce9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5728a0d98f3ba8ecfca4ece15eb01571" ns2:_="">
     <xsd:import namespace="ae328def-a07b-4370-9a10-828a34f91ce9"/>
@@ -5680,12 +5707,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5696,6 +5717,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9759A726-586A-4C39-A765-CAA32818CEB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5713,15 +5743,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
   <ds:schemaRefs>

--- a/PRT585_Group _7_TimeSheet.xlsx
+++ b/PRT585_Group _7_TimeSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenchen/Documents/GitHub/PRT585_S2023_Group_7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabili/PRT585_S2023_Group_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4D6314-77B8-3541-995E-4AD807453659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8B5A8B-7E0E-A045-A8D8-1E8356A98492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="800" windowWidth="32800" windowHeight="19020" activeTab="1" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
+    <workbookView xWindow="3480" yWindow="800" windowWidth="32800" windowHeight="19020" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 7 Timesheet" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="91">
   <si>
     <t>Week</t>
   </si>
@@ -328,6 +328,16 @@
   </si>
   <si>
     <t>1. Read through : Recommended learning path that provided in Teams</t>
+  </si>
+  <si>
+    <t>1. Install Sourcetree
+2. Install Resharper</t>
+  </si>
+  <si>
+    <t>Create my first project for blazor</t>
+  </si>
+  <si>
+    <t>Watch video on github and Blazor</t>
   </si>
 </sst>
 </file>
@@ -530,16 +540,28 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,26 +576,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD2CA45-38D9-4271-9CE5-FD0B25AF8966}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -934,27 +944,27 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="22" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -963,120 +973,120 @@
       <c r="F3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="13" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1087,10 +1097,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1099,10 +1109,10 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1111,10 +1121,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1123,10 +1133,10 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1135,10 +1145,10 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1147,36 +1157,36 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1187,10 +1197,10 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1199,10 +1209,10 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1211,10 +1221,10 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1223,10 +1233,10 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1235,10 +1245,10 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1247,36 +1257,36 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="22" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1287,10 +1297,10 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1299,10 +1309,10 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1311,10 +1321,10 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="3" t="s">
         <v>12</v>
       </c>
@@ -1323,10 +1333,10 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
@@ -1335,10 +1345,10 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
@@ -1347,36 +1357,36 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1387,10 +1397,10 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="3" t="s">
         <v>10</v>
       </c>
@@ -1399,10 +1409,10 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1411,10 +1421,10 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="3" t="s">
         <v>12</v>
       </c>
@@ -1423,10 +1433,10 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
@@ -1435,10 +1445,10 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="3" t="s">
         <v>14</v>
       </c>
@@ -1447,36 +1457,36 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="22" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1487,10 +1497,10 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="3" t="s">
         <v>10</v>
       </c>
@@ -1499,10 +1509,10 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1511,10 +1521,10 @@
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1523,10 +1533,10 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1535,10 +1545,10 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="3" t="s">
         <v>14</v>
       </c>
@@ -1547,36 +1557,36 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="18" t="s">
+      <c r="B51" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1587,10 +1597,10 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
@@ -1599,10 +1609,10 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
@@ -1611,10 +1621,10 @@
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="3" t="s">
         <v>12</v>
       </c>
@@ -1623,10 +1633,10 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="2" t="s">
         <v>13</v>
       </c>
@@ -1635,10 +1645,10 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="3" t="s">
         <v>14</v>
       </c>
@@ -1647,36 +1657,36 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="25"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="18" t="s">
+      <c r="B59" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -1687,10 +1697,10 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="3" t="s">
         <v>10</v>
       </c>
@@ -1699,10 +1709,10 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
@@ -1711,10 +1721,10 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="3" t="s">
         <v>12</v>
       </c>
@@ -1723,10 +1733,10 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="2" t="s">
         <v>13</v>
       </c>
@@ -1735,10 +1745,10 @@
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
       <c r="E64" s="3" t="s">
         <v>14</v>
       </c>
@@ -1747,36 +1757,36 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="14"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="25"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="18" t="s">
+      <c r="B67" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="22" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -1787,10 +1797,10 @@
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="3" t="s">
         <v>10</v>
       </c>
@@ -1799,10 +1809,10 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="2" t="s">
         <v>11</v>
       </c>
@@ -1811,10 +1821,10 @@
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="3" t="s">
         <v>12</v>
       </c>
@@ -1823,10 +1833,10 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="2" t="s">
         <v>13</v>
       </c>
@@ -1835,10 +1845,10 @@
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="3" t="s">
         <v>14</v>
       </c>
@@ -1847,36 +1857,36 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="14"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="25"/>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="18" t="s">
+      <c r="B75" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -1887,10 +1897,10 @@
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
@@ -1899,10 +1909,10 @@
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
@@ -1911,10 +1921,10 @@
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
@@ -1923,10 +1933,10 @@
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="2" t="s">
         <v>13</v>
       </c>
@@ -1935,10 +1945,10 @@
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="3" t="s">
         <v>14</v>
       </c>
@@ -1947,36 +1957,36 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="18" t="s">
+      <c r="B83" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="22" t="s">
         <v>54</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -1987,10 +1997,10 @@
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
@@ -1999,10 +2009,10 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="16"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
       <c r="E85" s="2" t="s">
         <v>11</v>
       </c>
@@ -2011,10 +2021,10 @@
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
       <c r="E86" s="3" t="s">
         <v>12</v>
       </c>
@@ -2023,10 +2033,10 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="2" t="s">
         <v>13</v>
       </c>
@@ -2035,10 +2045,10 @@
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="3" t="s">
         <v>14</v>
       </c>
@@ -2047,36 +2057,36 @@
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="14"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="25"/>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="18" t="s">
+      <c r="B91" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2087,10 +2097,10 @@
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="16"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
@@ -2099,10 +2109,10 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="16"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
@@ -2111,10 +2121,10 @@
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="16"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
@@ -2123,10 +2133,10 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="16"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
       <c r="E95" s="2" t="s">
         <v>13</v>
       </c>
@@ -2135,10 +2145,10 @@
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="17"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
       <c r="E96" s="3" t="s">
         <v>14</v>
       </c>
@@ -2148,15 +2158,59 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:A16"/>
@@ -2169,59 +2223,15 @@
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="D19:D24"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2232,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D9E5DF-CFA1-47F0-8D7B-29D019DDEA37}">
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2267,26 +2277,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2297,10 +2307,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2309,10 +2319,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2321,10 +2331,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
@@ -2333,16 +2343,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2353,10 +2363,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2365,10 +2375,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2377,10 +2387,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
@@ -2388,65 +2398,73 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="F13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2457,10 +2475,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2469,10 +2487,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2481,10 +2499,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
@@ -2493,16 +2511,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2513,10 +2531,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
@@ -2525,10 +2543,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2537,10 +2555,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
@@ -2549,26 +2567,26 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2577,46 +2595,46 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2625,46 +2643,46 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="18" t="s">
+      <c r="B39" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2673,46 +2691,46 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2721,46 +2739,46 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="18" t="s">
+      <c r="B49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2769,56 +2787,56 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="18" t="s">
+      <c r="B55" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2827,46 +2845,46 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="18" t="s">
+      <c r="B60" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2875,46 +2893,46 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="18" t="s">
+      <c r="B65" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2923,46 +2941,46 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="16"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="18" t="s">
+      <c r="B70" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2971,46 +2989,46 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="18" t="s">
+      <c r="B75" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -3019,56 +3037,56 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="18" t="s">
+      <c r="B81" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -3077,46 +3095,46 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="18" t="s">
+      <c r="B86" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -3125,46 +3143,46 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="16"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="18" t="s">
+      <c r="B91" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -3173,46 +3191,46 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="16"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="16"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="18" t="s">
+      <c r="B96" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -3221,46 +3239,46 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="16"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
       <c r="E97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="16"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="3"/>
     </row>
     <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="18" t="s">
+      <c r="B101" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D101" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -3269,56 +3287,56 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="16"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
       <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="16"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
       <c r="E103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
       <c r="E104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B107" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="18" t="s">
+      <c r="B107" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -3327,46 +3345,46 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="16"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
       <c r="E108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="16"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
       <c r="E109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
       <c r="E110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="3"/>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="18" t="s">
+      <c r="B112" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="D112" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3375,46 +3393,46 @@
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="16"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
       <c r="E113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="16"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="17"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
       <c r="E115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="3"/>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B117" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="18" t="s">
+      <c r="B117" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D117" s="18" t="s">
+      <c r="D117" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3423,46 +3441,46 @@
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="16"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
       <c r="E118" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="16"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
       <c r="E119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="17"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
       <c r="E120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="3"/>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B122" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="18" t="s">
+      <c r="B122" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="D122" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3471,46 +3489,46 @@
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="16"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
       <c r="E123" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="16"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
+      <c r="A124" s="20"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
       <c r="E124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="17"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
       <c r="E125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="3"/>
     </row>
     <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B127" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="18" t="s">
+      <c r="B127" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="D127" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3519,56 +3537,56 @@
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="16"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
+      <c r="A128" s="20"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
       <c r="E128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="16"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
       <c r="E129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="17"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
       <c r="E130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B133" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="18" t="s">
+      <c r="B133" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="18" t="s">
+      <c r="D133" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3577,46 +3595,46 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="16"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
       <c r="E134" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="16"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
       <c r="E135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="17"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
       <c r="E136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="18" t="s">
+      <c r="B138" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D138" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -3625,46 +3643,46 @@
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="16"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
       <c r="E139" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="16"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
       <c r="E140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="17"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
       <c r="E141" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="3"/>
     </row>
     <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B143" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="18" t="s">
+      <c r="B143" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D143" s="18" t="s">
+      <c r="D143" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3673,46 +3691,46 @@
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="16"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
       <c r="E144" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="16"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
       <c r="E145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="17"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
       <c r="E146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="3"/>
     </row>
     <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B148" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="18" t="s">
+      <c r="B148" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3721,46 +3739,46 @@
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="16"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
       <c r="E149" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="16"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
       <c r="E150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="17"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
       <c r="E151" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B153" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="18" t="s">
+      <c r="B153" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3769,56 +3787,56 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="16"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
       <c r="E154" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="16"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
       <c r="E155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="17"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
       <c r="E156" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="3"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B158" s="20"/>
-      <c r="C158" s="20"/>
-      <c r="D158" s="20"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="20"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="15" t="s">
+      <c r="A159" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B159" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="18" t="s">
+      <c r="B159" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -3827,46 +3845,46 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="16"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
       <c r="E160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="16"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
       <c r="E161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="17"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
       <c r="E162" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="3"/>
     </row>
     <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B164" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="18" t="s">
+      <c r="B164" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -3875,46 +3893,46 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="16"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
       <c r="E165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="16"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
       <c r="E166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="17"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
       <c r="E167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="3"/>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="18" t="s">
+      <c r="B169" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D169" s="18" t="s">
+      <c r="D169" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -3923,46 +3941,46 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="16"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
       <c r="E170" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="16"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
       <c r="E171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="17"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
       <c r="E172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="3"/>
     </row>
     <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B174" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="18" t="s">
+      <c r="B174" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D174" s="18" t="s">
+      <c r="D174" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -3971,46 +3989,46 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="16"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
       <c r="E175" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F175" s="3"/>
     </row>
     <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="16"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
       <c r="E176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="17"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
+      <c r="A177" s="21"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22"/>
       <c r="E177" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="3"/>
     </row>
     <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="15" t="s">
+      <c r="A179" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B179" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="18" t="s">
+      <c r="B179" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D179" s="18" t="s">
+      <c r="D179" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -4019,56 +4037,56 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="16"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
+      <c r="A180" s="20"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
       <c r="E180" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="16"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
+      <c r="A181" s="20"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
       <c r="E181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="17"/>
-      <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
       <c r="E182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="3"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="11" t="s">
+      <c r="A184" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B184" s="20"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="20"/>
-      <c r="F184" s="20"/>
+      <c r="B184" s="18"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
     </row>
     <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B185" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="18" t="s">
+      <c r="B185" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="18" t="s">
+      <c r="D185" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -4077,46 +4095,46 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="16"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
       <c r="E186" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="16"/>
-      <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
+      <c r="A187" s="20"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="22"/>
       <c r="E187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="17"/>
-      <c r="B188" s="18"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
+      <c r="A188" s="21"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
       <c r="E188" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F188" s="3"/>
     </row>
     <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="15" t="s">
+      <c r="A190" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B190" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="18" t="s">
+      <c r="B190" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D190" s="18" t="s">
+      <c r="D190" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -4125,46 +4143,46 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="16"/>
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
+      <c r="A191" s="20"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
       <c r="E191" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="16"/>
-      <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
+      <c r="A192" s="20"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
       <c r="E192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="17"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
+      <c r="A193" s="21"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
       <c r="E193" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F193" s="3"/>
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="15" t="s">
+      <c r="A195" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B195" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="18" t="s">
+      <c r="B195" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D195" s="18" t="s">
+      <c r="D195" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -4173,46 +4191,46 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="16"/>
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
+      <c r="A196" s="20"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
       <c r="E196" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="16"/>
-      <c r="B197" s="18"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
+      <c r="A197" s="20"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
       <c r="E197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198" s="17"/>
-      <c r="B198" s="18"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
+      <c r="A198" s="21"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
       <c r="E198" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F198" s="3"/>
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200" s="15" t="s">
+      <c r="A200" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B200" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="18" t="s">
+      <c r="B200" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D200" s="18" t="s">
+      <c r="D200" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -4221,46 +4239,46 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="16"/>
-      <c r="B201" s="18"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="18"/>
+      <c r="A201" s="20"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
       <c r="E201" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="16"/>
-      <c r="B202" s="18"/>
-      <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
+      <c r="A202" s="20"/>
+      <c r="B202" s="22"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
       <c r="E202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="17"/>
-      <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
+      <c r="A203" s="21"/>
+      <c r="B203" s="22"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
       <c r="E203" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="3"/>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="15" t="s">
+      <c r="A205" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B205" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="18" t="s">
+      <c r="B205" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D205" s="18" t="s">
+      <c r="D205" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -4269,56 +4287,56 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="16"/>
-      <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
+      <c r="A206" s="20"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22"/>
       <c r="E206" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="16"/>
-      <c r="B207" s="18"/>
-      <c r="C207" s="18"/>
-      <c r="D207" s="18"/>
+      <c r="A207" s="20"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
       <c r="E207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="17"/>
-      <c r="B208" s="18"/>
-      <c r="C208" s="18"/>
-      <c r="D208" s="18"/>
+      <c r="A208" s="21"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
       <c r="E208" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F208" s="3"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="11" t="s">
+      <c r="A210" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B210" s="20"/>
-      <c r="C210" s="20"/>
-      <c r="D210" s="20"/>
-      <c r="E210" s="20"/>
-      <c r="F210" s="20"/>
+      <c r="B210" s="18"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="18"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="18"/>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="15" t="s">
+      <c r="A211" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B211" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="18" t="s">
+      <c r="B211" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D211" s="18" t="s">
+      <c r="D211" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -4327,46 +4345,46 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="16"/>
-      <c r="B212" s="18"/>
-      <c r="C212" s="18"/>
-      <c r="D212" s="18"/>
+      <c r="A212" s="20"/>
+      <c r="B212" s="22"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="22"/>
       <c r="E212" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F212" s="3"/>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="16"/>
-      <c r="B213" s="18"/>
-      <c r="C213" s="18"/>
-      <c r="D213" s="18"/>
+      <c r="A213" s="20"/>
+      <c r="B213" s="22"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
       <c r="E213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="17"/>
-      <c r="B214" s="18"/>
-      <c r="C214" s="18"/>
-      <c r="D214" s="18"/>
+      <c r="A214" s="21"/>
+      <c r="B214" s="22"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
       <c r="E214" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="3"/>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="15" t="s">
+      <c r="A216" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B216" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="18" t="s">
+      <c r="B216" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D216" s="18" t="s">
+      <c r="D216" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -4375,46 +4393,46 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="16"/>
-      <c r="B217" s="18"/>
-      <c r="C217" s="18"/>
-      <c r="D217" s="18"/>
+      <c r="A217" s="20"/>
+      <c r="B217" s="22"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
       <c r="E217" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F217" s="3"/>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="16"/>
-      <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
+      <c r="A218" s="20"/>
+      <c r="B218" s="22"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
       <c r="E218" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="17"/>
-      <c r="B219" s="18"/>
-      <c r="C219" s="18"/>
-      <c r="D219" s="18"/>
+      <c r="A219" s="21"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
       <c r="E219" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F219" s="3"/>
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="15" t="s">
+      <c r="A221" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B221" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="18" t="s">
+      <c r="B221" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D221" s="18" t="s">
+      <c r="D221" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -4423,46 +4441,46 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="16"/>
-      <c r="B222" s="18"/>
-      <c r="C222" s="18"/>
-      <c r="D222" s="18"/>
+      <c r="A222" s="20"/>
+      <c r="B222" s="22"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="22"/>
       <c r="E222" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F222" s="3"/>
     </row>
     <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="16"/>
-      <c r="B223" s="18"/>
-      <c r="C223" s="18"/>
-      <c r="D223" s="18"/>
+      <c r="A223" s="20"/>
+      <c r="B223" s="22"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="22"/>
       <c r="E223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="17"/>
-      <c r="B224" s="18"/>
-      <c r="C224" s="18"/>
-      <c r="D224" s="18"/>
+      <c r="A224" s="21"/>
+      <c r="B224" s="22"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
       <c r="E224" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F224" s="3"/>
     </row>
     <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="15" t="s">
+      <c r="A226" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B226" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="18" t="s">
+      <c r="B226" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D226" s="18" t="s">
+      <c r="D226" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -4471,46 +4489,46 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="16"/>
-      <c r="B227" s="18"/>
-      <c r="C227" s="18"/>
-      <c r="D227" s="18"/>
+      <c r="A227" s="20"/>
+      <c r="B227" s="22"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="22"/>
       <c r="E227" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F227" s="3"/>
     </row>
     <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="16"/>
-      <c r="B228" s="18"/>
-      <c r="C228" s="18"/>
-      <c r="D228" s="18"/>
+      <c r="A228" s="20"/>
+      <c r="B228" s="22"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
       <c r="E228" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="17"/>
-      <c r="B229" s="18"/>
-      <c r="C229" s="18"/>
-      <c r="D229" s="18"/>
+      <c r="A229" s="21"/>
+      <c r="B229" s="22"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="22"/>
       <c r="E229" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F229" s="3"/>
     </row>
     <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="15" t="s">
+      <c r="A231" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B231" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="18" t="s">
+      <c r="B231" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D231" s="18" t="s">
+      <c r="D231" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -4519,56 +4537,56 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="16"/>
-      <c r="B232" s="18"/>
-      <c r="C232" s="18"/>
-      <c r="D232" s="18"/>
+      <c r="A232" s="20"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
       <c r="E232" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="16"/>
-      <c r="B233" s="18"/>
-      <c r="C233" s="18"/>
-      <c r="D233" s="18"/>
+      <c r="A233" s="20"/>
+      <c r="B233" s="22"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="22"/>
       <c r="E233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="17"/>
-      <c r="B234" s="18"/>
-      <c r="C234" s="18"/>
-      <c r="D234" s="18"/>
+      <c r="A234" s="21"/>
+      <c r="B234" s="22"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
       <c r="E234" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F234" s="3"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="11" t="s">
+      <c r="A236" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B236" s="20"/>
-      <c r="C236" s="20"/>
-      <c r="D236" s="20"/>
-      <c r="E236" s="20"/>
-      <c r="F236" s="20"/>
+      <c r="B236" s="18"/>
+      <c r="C236" s="18"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="18"/>
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B237" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="18" t="s">
+      <c r="B237" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D237" s="18" t="s">
+      <c r="D237" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -4577,46 +4595,46 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="16"/>
-      <c r="B238" s="18"/>
-      <c r="C238" s="18"/>
-      <c r="D238" s="18"/>
+      <c r="A238" s="20"/>
+      <c r="B238" s="22"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
       <c r="E238" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="16"/>
-      <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
-      <c r="D239" s="18"/>
+      <c r="A239" s="20"/>
+      <c r="B239" s="22"/>
+      <c r="C239" s="22"/>
+      <c r="D239" s="22"/>
       <c r="E239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="17"/>
-      <c r="B240" s="18"/>
-      <c r="C240" s="18"/>
-      <c r="D240" s="18"/>
+      <c r="A240" s="21"/>
+      <c r="B240" s="22"/>
+      <c r="C240" s="22"/>
+      <c r="D240" s="22"/>
       <c r="E240" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F240" s="3"/>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="15" t="s">
+      <c r="A242" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B242" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="18" t="s">
+      <c r="B242" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D242" s="18" t="s">
+      <c r="D242" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -4625,46 +4643,46 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="16"/>
-      <c r="B243" s="18"/>
-      <c r="C243" s="18"/>
-      <c r="D243" s="18"/>
+      <c r="A243" s="20"/>
+      <c r="B243" s="22"/>
+      <c r="C243" s="22"/>
+      <c r="D243" s="22"/>
       <c r="E243" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F243" s="3"/>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A244" s="16"/>
-      <c r="B244" s="18"/>
-      <c r="C244" s="18"/>
-      <c r="D244" s="18"/>
+      <c r="A244" s="20"/>
+      <c r="B244" s="22"/>
+      <c r="C244" s="22"/>
+      <c r="D244" s="22"/>
       <c r="E244" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A245" s="17"/>
-      <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
-      <c r="D245" s="18"/>
+      <c r="A245" s="21"/>
+      <c r="B245" s="22"/>
+      <c r="C245" s="22"/>
+      <c r="D245" s="22"/>
       <c r="E245" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F245" s="3"/>
     </row>
     <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="15" t="s">
+      <c r="A247" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B247" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="18" t="s">
+      <c r="B247" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D247" s="18" t="s">
+      <c r="D247" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -4673,46 +4691,46 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="16"/>
-      <c r="B248" s="18"/>
-      <c r="C248" s="18"/>
-      <c r="D248" s="18"/>
+      <c r="A248" s="20"/>
+      <c r="B248" s="22"/>
+      <c r="C248" s="22"/>
+      <c r="D248" s="22"/>
       <c r="E248" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A249" s="16"/>
-      <c r="B249" s="18"/>
-      <c r="C249" s="18"/>
-      <c r="D249" s="18"/>
+      <c r="A249" s="20"/>
+      <c r="B249" s="22"/>
+      <c r="C249" s="22"/>
+      <c r="D249" s="22"/>
       <c r="E249" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A250" s="17"/>
-      <c r="B250" s="18"/>
-      <c r="C250" s="18"/>
-      <c r="D250" s="18"/>
+      <c r="A250" s="21"/>
+      <c r="B250" s="22"/>
+      <c r="C250" s="22"/>
+      <c r="D250" s="22"/>
       <c r="E250" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F250" s="3"/>
     </row>
     <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A252" s="15" t="s">
+      <c r="A252" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B252" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="18" t="s">
+      <c r="B252" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D252" s="18" t="s">
+      <c r="D252" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -4721,46 +4739,46 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="16"/>
-      <c r="B253" s="18"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="18"/>
+      <c r="A253" s="20"/>
+      <c r="B253" s="22"/>
+      <c r="C253" s="22"/>
+      <c r="D253" s="22"/>
       <c r="E253" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A254" s="16"/>
-      <c r="B254" s="18"/>
-      <c r="C254" s="18"/>
-      <c r="D254" s="18"/>
+      <c r="A254" s="20"/>
+      <c r="B254" s="22"/>
+      <c r="C254" s="22"/>
+      <c r="D254" s="22"/>
       <c r="E254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="17"/>
-      <c r="B255" s="18"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="18"/>
+      <c r="A255" s="21"/>
+      <c r="B255" s="22"/>
+      <c r="C255" s="22"/>
+      <c r="D255" s="22"/>
       <c r="E255" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F255" s="3"/>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="15" t="s">
+      <c r="A257" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B257" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C257" s="18" t="s">
+      <c r="B257" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="D257" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -4769,56 +4787,56 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="16"/>
-      <c r="B258" s="18"/>
-      <c r="C258" s="18"/>
-      <c r="D258" s="18"/>
+      <c r="A258" s="20"/>
+      <c r="B258" s="22"/>
+      <c r="C258" s="22"/>
+      <c r="D258" s="22"/>
       <c r="E258" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F258" s="3"/>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="16"/>
-      <c r="B259" s="18"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="18"/>
+      <c r="A259" s="20"/>
+      <c r="B259" s="22"/>
+      <c r="C259" s="22"/>
+      <c r="D259" s="22"/>
       <c r="E259" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="17"/>
-      <c r="B260" s="18"/>
-      <c r="C260" s="18"/>
-      <c r="D260" s="18"/>
+      <c r="A260" s="21"/>
+      <c r="B260" s="22"/>
+      <c r="C260" s="22"/>
+      <c r="D260" s="22"/>
       <c r="E260" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F260" s="3"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="11" t="s">
+      <c r="A262" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B262" s="20"/>
-      <c r="C262" s="20"/>
-      <c r="D262" s="20"/>
-      <c r="E262" s="20"/>
-      <c r="F262" s="20"/>
+      <c r="B262" s="18"/>
+      <c r="C262" s="18"/>
+      <c r="D262" s="18"/>
+      <c r="E262" s="18"/>
+      <c r="F262" s="18"/>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="15" t="s">
+      <c r="A263" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B263" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="18" t="s">
+      <c r="B263" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D263" s="18" t="s">
+      <c r="D263" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -4827,46 +4845,46 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="16"/>
-      <c r="B264" s="18"/>
-      <c r="C264" s="18"/>
-      <c r="D264" s="18"/>
+      <c r="A264" s="20"/>
+      <c r="B264" s="22"/>
+      <c r="C264" s="22"/>
+      <c r="D264" s="22"/>
       <c r="E264" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F264" s="3"/>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="16"/>
-      <c r="B265" s="18"/>
-      <c r="C265" s="18"/>
-      <c r="D265" s="18"/>
+      <c r="A265" s="20"/>
+      <c r="B265" s="22"/>
+      <c r="C265" s="22"/>
+      <c r="D265" s="22"/>
       <c r="E265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="17"/>
-      <c r="B266" s="18"/>
-      <c r="C266" s="18"/>
-      <c r="D266" s="18"/>
+      <c r="A266" s="21"/>
+      <c r="B266" s="22"/>
+      <c r="C266" s="22"/>
+      <c r="D266" s="22"/>
       <c r="E266" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F266" s="3"/>
     </row>
     <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="15" t="s">
+      <c r="A268" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B268" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C268" s="18" t="s">
+      <c r="B268" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D268" s="18" t="s">
+      <c r="D268" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -4875,46 +4893,46 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="16"/>
-      <c r="B269" s="18"/>
-      <c r="C269" s="18"/>
-      <c r="D269" s="18"/>
+      <c r="A269" s="20"/>
+      <c r="B269" s="22"/>
+      <c r="C269" s="22"/>
+      <c r="D269" s="22"/>
       <c r="E269" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="16"/>
-      <c r="B270" s="18"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="18"/>
+      <c r="A270" s="20"/>
+      <c r="B270" s="22"/>
+      <c r="C270" s="22"/>
+      <c r="D270" s="22"/>
       <c r="E270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="17"/>
-      <c r="B271" s="18"/>
-      <c r="C271" s="18"/>
-      <c r="D271" s="18"/>
+      <c r="A271" s="21"/>
+      <c r="B271" s="22"/>
+      <c r="C271" s="22"/>
+      <c r="D271" s="22"/>
       <c r="E271" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F271" s="3"/>
     </row>
     <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A273" s="15" t="s">
+      <c r="A273" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B273" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C273" s="18" t="s">
+      <c r="B273" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D273" s="18" t="s">
+      <c r="D273" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -4923,46 +4941,46 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A274" s="16"/>
-      <c r="B274" s="18"/>
-      <c r="C274" s="18"/>
-      <c r="D274" s="18"/>
+      <c r="A274" s="20"/>
+      <c r="B274" s="22"/>
+      <c r="C274" s="22"/>
+      <c r="D274" s="22"/>
       <c r="E274" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A275" s="16"/>
-      <c r="B275" s="18"/>
-      <c r="C275" s="18"/>
-      <c r="D275" s="18"/>
+      <c r="A275" s="20"/>
+      <c r="B275" s="22"/>
+      <c r="C275" s="22"/>
+      <c r="D275" s="22"/>
       <c r="E275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="17"/>
-      <c r="B276" s="18"/>
-      <c r="C276" s="18"/>
-      <c r="D276" s="18"/>
+      <c r="A276" s="21"/>
+      <c r="B276" s="22"/>
+      <c r="C276" s="22"/>
+      <c r="D276" s="22"/>
       <c r="E276" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F276" s="3"/>
     </row>
     <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="15" t="s">
+      <c r="A278" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B278" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C278" s="18" t="s">
+      <c r="B278" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D278" s="18" t="s">
+      <c r="D278" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -4971,46 +4989,46 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A279" s="16"/>
-      <c r="B279" s="18"/>
-      <c r="C279" s="18"/>
-      <c r="D279" s="18"/>
+      <c r="A279" s="20"/>
+      <c r="B279" s="22"/>
+      <c r="C279" s="22"/>
+      <c r="D279" s="22"/>
       <c r="E279" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F279" s="3"/>
     </row>
     <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A280" s="16"/>
-      <c r="B280" s="18"/>
-      <c r="C280" s="18"/>
-      <c r="D280" s="18"/>
+      <c r="A280" s="20"/>
+      <c r="B280" s="22"/>
+      <c r="C280" s="22"/>
+      <c r="D280" s="22"/>
       <c r="E280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A281" s="17"/>
-      <c r="B281" s="18"/>
-      <c r="C281" s="18"/>
-      <c r="D281" s="18"/>
+      <c r="A281" s="21"/>
+      <c r="B281" s="22"/>
+      <c r="C281" s="22"/>
+      <c r="D281" s="22"/>
       <c r="E281" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F281" s="3"/>
     </row>
     <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="15" t="s">
+      <c r="A283" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B283" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C283" s="18" t="s">
+      <c r="B283" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="D283" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -5019,56 +5037,56 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" s="16"/>
-      <c r="B284" s="18"/>
-      <c r="C284" s="18"/>
-      <c r="D284" s="18"/>
+      <c r="A284" s="20"/>
+      <c r="B284" s="22"/>
+      <c r="C284" s="22"/>
+      <c r="D284" s="22"/>
       <c r="E284" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285" s="16"/>
-      <c r="B285" s="18"/>
-      <c r="C285" s="18"/>
-      <c r="D285" s="18"/>
+      <c r="A285" s="20"/>
+      <c r="B285" s="22"/>
+      <c r="C285" s="22"/>
+      <c r="D285" s="22"/>
       <c r="E285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A286" s="17"/>
-      <c r="B286" s="18"/>
-      <c r="C286" s="18"/>
-      <c r="D286" s="18"/>
+      <c r="A286" s="21"/>
+      <c r="B286" s="22"/>
+      <c r="C286" s="22"/>
+      <c r="D286" s="22"/>
       <c r="E286" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F286" s="3"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="11" t="s">
+      <c r="A288" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B288" s="20"/>
-      <c r="C288" s="20"/>
-      <c r="D288" s="20"/>
-      <c r="E288" s="20"/>
-      <c r="F288" s="20"/>
+      <c r="B288" s="18"/>
+      <c r="C288" s="18"/>
+      <c r="D288" s="18"/>
+      <c r="E288" s="18"/>
+      <c r="F288" s="18"/>
     </row>
     <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A289" s="15" t="s">
+      <c r="A289" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B289" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289" s="18" t="s">
+      <c r="B289" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D289" s="18" t="s">
+      <c r="D289" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E289" s="2" t="s">
@@ -5077,46 +5095,46 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="16"/>
-      <c r="B290" s="18"/>
-      <c r="C290" s="18"/>
-      <c r="D290" s="18"/>
+      <c r="A290" s="20"/>
+      <c r="B290" s="22"/>
+      <c r="C290" s="22"/>
+      <c r="D290" s="22"/>
       <c r="E290" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F290" s="3"/>
     </row>
     <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291" s="16"/>
-      <c r="B291" s="18"/>
-      <c r="C291" s="18"/>
-      <c r="D291" s="18"/>
+      <c r="A291" s="20"/>
+      <c r="B291" s="22"/>
+      <c r="C291" s="22"/>
+      <c r="D291" s="22"/>
       <c r="E291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A292" s="17"/>
-      <c r="B292" s="18"/>
-      <c r="C292" s="18"/>
-      <c r="D292" s="18"/>
+      <c r="A292" s="21"/>
+      <c r="B292" s="22"/>
+      <c r="C292" s="22"/>
+      <c r="D292" s="22"/>
       <c r="E292" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F292" s="3"/>
     </row>
     <row r="294" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A294" s="15" t="s">
+      <c r="A294" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B294" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="18" t="s">
+      <c r="B294" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D294" s="18" t="s">
+      <c r="D294" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E294" s="2" t="s">
@@ -5125,46 +5143,46 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="16"/>
-      <c r="B295" s="18"/>
-      <c r="C295" s="18"/>
-      <c r="D295" s="18"/>
+      <c r="A295" s="20"/>
+      <c r="B295" s="22"/>
+      <c r="C295" s="22"/>
+      <c r="D295" s="22"/>
       <c r="E295" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F295" s="3"/>
     </row>
     <row r="296" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A296" s="16"/>
-      <c r="B296" s="18"/>
-      <c r="C296" s="18"/>
-      <c r="D296" s="18"/>
+      <c r="A296" s="20"/>
+      <c r="B296" s="22"/>
+      <c r="C296" s="22"/>
+      <c r="D296" s="22"/>
       <c r="E296" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="17"/>
-      <c r="B297" s="18"/>
-      <c r="C297" s="18"/>
-      <c r="D297" s="18"/>
+      <c r="A297" s="21"/>
+      <c r="B297" s="22"/>
+      <c r="C297" s="22"/>
+      <c r="D297" s="22"/>
       <c r="E297" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F297" s="3"/>
     </row>
     <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A299" s="15" t="s">
+      <c r="A299" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B299" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C299" s="18" t="s">
+      <c r="B299" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D299" s="18" t="s">
+      <c r="D299" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E299" s="2" t="s">
@@ -5173,46 +5191,46 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A300" s="16"/>
-      <c r="B300" s="18"/>
-      <c r="C300" s="18"/>
-      <c r="D300" s="18"/>
+      <c r="A300" s="20"/>
+      <c r="B300" s="22"/>
+      <c r="C300" s="22"/>
+      <c r="D300" s="22"/>
       <c r="E300" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F300" s="3"/>
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="16"/>
-      <c r="B301" s="18"/>
-      <c r="C301" s="18"/>
-      <c r="D301" s="18"/>
+      <c r="A301" s="20"/>
+      <c r="B301" s="22"/>
+      <c r="C301" s="22"/>
+      <c r="D301" s="22"/>
       <c r="E301" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A302" s="17"/>
-      <c r="B302" s="18"/>
-      <c r="C302" s="18"/>
-      <c r="D302" s="18"/>
+      <c r="A302" s="21"/>
+      <c r="B302" s="22"/>
+      <c r="C302" s="22"/>
+      <c r="D302" s="22"/>
       <c r="E302" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F302" s="3"/>
     </row>
     <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304" s="15" t="s">
+      <c r="A304" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B304" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C304" s="18" t="s">
+      <c r="B304" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D304" s="18" t="s">
+      <c r="D304" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E304" s="2" t="s">
@@ -5221,46 +5239,46 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A305" s="16"/>
-      <c r="B305" s="18"/>
-      <c r="C305" s="18"/>
-      <c r="D305" s="18"/>
+      <c r="A305" s="20"/>
+      <c r="B305" s="22"/>
+      <c r="C305" s="22"/>
+      <c r="D305" s="22"/>
       <c r="E305" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F305" s="3"/>
     </row>
     <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A306" s="16"/>
-      <c r="B306" s="18"/>
-      <c r="C306" s="18"/>
-      <c r="D306" s="18"/>
+      <c r="A306" s="20"/>
+      <c r="B306" s="22"/>
+      <c r="C306" s="22"/>
+      <c r="D306" s="22"/>
       <c r="E306" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A307" s="17"/>
-      <c r="B307" s="18"/>
-      <c r="C307" s="18"/>
-      <c r="D307" s="18"/>
+      <c r="A307" s="21"/>
+      <c r="B307" s="22"/>
+      <c r="C307" s="22"/>
+      <c r="D307" s="22"/>
       <c r="E307" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F307" s="3"/>
     </row>
     <row r="309" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="15" t="s">
+      <c r="A309" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B309" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="18" t="s">
+      <c r="B309" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D309" s="18" t="s">
+      <c r="D309" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E309" s="2" t="s">
@@ -5269,30 +5287,30 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A310" s="16"/>
-      <c r="B310" s="18"/>
-      <c r="C310" s="18"/>
-      <c r="D310" s="18"/>
+      <c r="A310" s="20"/>
+      <c r="B310" s="22"/>
+      <c r="C310" s="22"/>
+      <c r="D310" s="22"/>
       <c r="E310" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A311" s="16"/>
-      <c r="B311" s="18"/>
-      <c r="C311" s="18"/>
-      <c r="D311" s="18"/>
+      <c r="A311" s="20"/>
+      <c r="B311" s="22"/>
+      <c r="C311" s="22"/>
+      <c r="D311" s="22"/>
       <c r="E311" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="17"/>
-      <c r="B312" s="18"/>
-      <c r="C312" s="18"/>
-      <c r="D312" s="18"/>
+      <c r="A312" s="21"/>
+      <c r="B312" s="22"/>
+      <c r="C312" s="22"/>
+      <c r="D312" s="22"/>
       <c r="E312" s="3" t="s">
         <v>12</v>
       </c>
@@ -5300,6 +5318,234 @@
     </row>
   </sheetData>
   <mergeCells count="252">
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="D309:D312"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="D299:D302"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="B283:B286"/>
+    <mergeCell ref="C283:C286"/>
+    <mergeCell ref="D283:D286"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="D273:D276"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="D263:D266"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="C268:C271"/>
+    <mergeCell ref="D268:D271"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="A257:A260"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="D257:D260"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D245"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="C247:C250"/>
+    <mergeCell ref="D247:D250"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="D237:D240"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="A226:A229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D229"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="D211:D214"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="D216:D219"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="D205:D208"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="D195:D198"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="C143:C146"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A6"/>
@@ -5324,234 +5570,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="C143:C146"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="D205:D208"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="C195:C198"/>
-    <mergeCell ref="D195:D198"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="D221:D224"/>
-    <mergeCell ref="A226:A229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D229"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="C211:C214"/>
-    <mergeCell ref="D211:D214"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="B231:B234"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="D237:D240"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="A257:A260"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="D257:D260"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D245"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="C247:C250"/>
-    <mergeCell ref="D247:D250"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="D273:D276"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="C263:C266"/>
-    <mergeCell ref="D263:D266"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="B268:B271"/>
-    <mergeCell ref="C268:C271"/>
-    <mergeCell ref="D268:D271"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="B283:B286"/>
-    <mergeCell ref="C283:C286"/>
-    <mergeCell ref="D283:D286"/>
-    <mergeCell ref="A288:F288"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="D309:D312"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="D299:D302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5564,6 +5582,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088059E6DDC6DF445B0AB87CAA811C0D0" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314c580fd60c3711a3e3031240862aa0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae328def-a07b-4370-9a10-828a34f91ce9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5728a0d98f3ba8ecfca4ece15eb01571" ns2:_="">
     <xsd:import namespace="ae328def-a07b-4370-9a10-828a34f91ce9"/>
@@ -5707,15 +5734,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4455736F-9EDC-48D0-8347-108024E860C8}">
   <ds:schemaRefs>
@@ -5726,6 +5744,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9759A726-586A-4C39-A765-CAA32818CEB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5741,12 +5767,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458FD0F4-22B8-4D85-970B-CAC25686891E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PRT585_Group _7_TimeSheet.xlsx
+++ b/PRT585_Group _7_TimeSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabili/PRT585_S2023_Group_7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mify\Desktop\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8B5A8B-7E0E-A045-A8D8-1E8356A98492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F28EE5-AEB5-4C19-B7F2-C1553FF1197E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="800" windowWidth="32800" windowHeight="19020" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BB4B9D25-F2F2-4C9B-919B-0A13ED01B91C}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 7 Timesheet" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="94">
   <si>
     <t>Week</t>
   </si>
@@ -338,6 +338,15 @@
   </si>
   <si>
     <t>Watch video on github and Blazor</t>
+  </si>
+  <si>
+    <t>Practice the Blazor app tutorial</t>
+  </si>
+  <si>
+    <t>Research and practice simple Angular applications (i) Forms and tables Data fields ii) buttons, and text boxes.iii)  CRUD operations )</t>
+  </si>
+  <si>
+    <t>Practice examples of Microsoft Web API with Entity Framework</t>
   </si>
 </sst>
 </file>
@@ -508,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -540,6 +549,36 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -555,35 +594,11 @@
     <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,23 +916,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD2CA45-38D9-4271-9CE5-FD0B25AF8966}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="63.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="63.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,28 +958,28 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -973,120 +988,120 @@
       <c r="F3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="21" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="23" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="25" t="s">
         <v>67</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1096,11 +1111,11 @@
       <c r="G11" s="6"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1108,11 +1123,11 @@
       <c r="G12" s="7"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1120,11 +1135,11 @@
       <c r="G13" s="6"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1132,11 +1147,11 @@
       <c r="G14" s="7"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1144,11 +1159,11 @@
       <c r="G15" s="6"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1156,37 +1171,37 @@
       <c r="G16" s="7"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1196,11 +1211,11 @@
       <c r="G19" s="6"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1208,11 +1223,11 @@
       <c r="G20" s="7"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1220,11 +1235,11 @@
       <c r="G21" s="6"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1232,11 +1247,11 @@
       <c r="G22" s="7"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1244,11 +1259,11 @@
       <c r="G23" s="6"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1256,37 +1271,37 @@
       <c r="G24" s="7"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1296,11 +1311,11 @@
       <c r="G27" s="6"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1308,11 +1323,11 @@
       <c r="G28" s="7"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1320,11 +1335,11 @@
       <c r="G29" s="6"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>12</v>
       </c>
@@ -1332,11 +1347,11 @@
       <c r="G30" s="7"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
@@ -1344,11 +1359,11 @@
       <c r="G31" s="6"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
@@ -1356,37 +1371,37 @@
       <c r="G32" s="7"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1396,11 +1411,11 @@
       <c r="G35" s="6"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="3" t="s">
         <v>10</v>
       </c>
@@ -1408,11 +1423,11 @@
       <c r="G36" s="7"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1420,11 +1435,11 @@
       <c r="G37" s="6"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="3" t="s">
         <v>12</v>
       </c>
@@ -1432,11 +1447,11 @@
       <c r="G38" s="7"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
@@ -1444,11 +1459,11 @@
       <c r="G39" s="6"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="3" t="s">
         <v>14</v>
       </c>
@@ -1456,37 +1471,37 @@
       <c r="G40" s="7"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1496,11 +1511,11 @@
       <c r="G43" s="6"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="3" t="s">
         <v>10</v>
       </c>
@@ -1508,11 +1523,11 @@
       <c r="G44" s="7"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1520,11 +1535,11 @@
       <c r="G45" s="6"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="3" t="s">
         <v>12</v>
       </c>
@@ -1532,11 +1547,11 @@
       <c r="G46" s="7"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1544,11 +1559,11 @@
       <c r="G47" s="6"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="3" t="s">
         <v>14</v>
       </c>
@@ -1556,37 +1571,37 @@
       <c r="G48" s="7"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="22" t="s">
+      <c r="B51" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1596,11 +1611,11 @@
       <c r="G51" s="6"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
@@ -1608,11 +1623,11 @@
       <c r="G52" s="7"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
@@ -1620,11 +1635,11 @@
       <c r="G53" s="6"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="3" t="s">
         <v>12</v>
       </c>
@@ -1632,11 +1647,11 @@
       <c r="G54" s="7"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="2" t="s">
         <v>13</v>
       </c>
@@ -1644,11 +1659,11 @@
       <c r="G55" s="6"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="3" t="s">
         <v>14</v>
       </c>
@@ -1656,37 +1671,37 @@
       <c r="G56" s="7"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+    <row r="59" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="22" t="s">
+      <c r="B59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -1696,11 +1711,11 @@
       <c r="G59" s="6"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="3" t="s">
         <v>10</v>
       </c>
@@ -1708,11 +1723,11 @@
       <c r="G60" s="7"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="16"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
@@ -1720,11 +1735,11 @@
       <c r="G61" s="6"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="16"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="3" t="s">
         <v>12</v>
       </c>
@@ -1732,11 +1747,11 @@
       <c r="G62" s="7"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="2" t="s">
         <v>13</v>
       </c>
@@ -1744,11 +1759,11 @@
       <c r="G63" s="6"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="3" t="s">
         <v>14</v>
       </c>
@@ -1756,37 +1771,37 @@
       <c r="G64" s="7"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="25"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+    <row r="67" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="22" t="s">
+      <c r="B67" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -1796,11 +1811,11 @@
       <c r="G67" s="6"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="3" t="s">
         <v>10</v>
       </c>
@@ -1808,11 +1823,11 @@
       <c r="G68" s="7"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="16"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="2" t="s">
         <v>11</v>
       </c>
@@ -1820,11 +1835,11 @@
       <c r="G69" s="6"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="16"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="3" t="s">
         <v>12</v>
       </c>
@@ -1832,11 +1847,11 @@
       <c r="G70" s="7"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="2" t="s">
         <v>13</v>
       </c>
@@ -1844,11 +1859,11 @@
       <c r="G71" s="6"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="3" t="s">
         <v>14</v>
       </c>
@@ -1856,37 +1871,37 @@
       <c r="G72" s="7"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="25"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+    <row r="75" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="22" t="s">
+      <c r="B75" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -1896,11 +1911,11 @@
       <c r="G75" s="6"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="16"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
@@ -1908,11 +1923,11 @@
       <c r="G76" s="7"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="16"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
@@ -1920,11 +1935,11 @@
       <c r="G77" s="6"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="16"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
@@ -1932,11 +1947,11 @@
       <c r="G78" s="7"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="2" t="s">
         <v>13</v>
       </c>
@@ -1944,11 +1959,11 @@
       <c r="G79" s="6"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="3" t="s">
         <v>14</v>
       </c>
@@ -1956,37 +1971,37 @@
       <c r="G80" s="7"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+    <row r="83" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="22" t="s">
+      <c r="B83" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -1996,11 +2011,11 @@
       <c r="G83" s="6"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="20"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="16"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
@@ -2008,11 +2023,11 @@
       <c r="G84" s="7"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="20"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="16"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="2" t="s">
         <v>11</v>
       </c>
@@ -2020,11 +2035,11 @@
       <c r="G85" s="6"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="20"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="16"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="3" t="s">
         <v>12</v>
       </c>
@@ -2032,11 +2047,11 @@
       <c r="G86" s="7"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="16"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="2" t="s">
         <v>13</v>
       </c>
@@ -2044,11 +2059,11 @@
       <c r="G87" s="6"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="17"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="3" t="s">
         <v>14</v>
       </c>
@@ -2056,37 +2071,37 @@
       <c r="G88" s="7"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="25"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+    <row r="91" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="22" t="s">
+      <c r="B91" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2096,11 +2111,11 @@
       <c r="G91" s="6"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="16"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
@@ -2108,11 +2123,11 @@
       <c r="G92" s="7"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="16"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
@@ -2120,11 +2135,11 @@
       <c r="G93" s="6"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="16"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
@@ -2132,11 +2147,11 @@
       <c r="G94" s="7"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="16"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="2" t="s">
         <v>13</v>
       </c>
@@ -2144,11 +2159,11 @@
       <c r="G95" s="6"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="3" t="s">
         <v>14</v>
       </c>
@@ -2158,11 +2173,63 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D72"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A75:A80"/>
@@ -2175,63 +2242,11 @@
     <mergeCell ref="B83:B88"/>
     <mergeCell ref="C83:C88"/>
     <mergeCell ref="D83:D88"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2242,21 +2257,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D9E5DF-CFA1-47F0-8D7B-29D019DDEA37}">
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="74.5" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="74.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2276,27 +2291,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2306,11 +2321,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2318,11 +2333,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2330,11 +2345,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
@@ -2342,17 +2357,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2362,11 +2377,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2374,11 +2389,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2386,11 +2401,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
@@ -2398,17 +2413,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2418,11 +2433,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
@@ -2430,11 +2445,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
@@ -2442,11 +2457,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
@@ -2454,17 +2469,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2474,11 +2489,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2486,11 +2501,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2498,11 +2513,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
@@ -2510,17 +2525,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2530,11 +2545,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
@@ -2542,11 +2557,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2554,11 +2569,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
@@ -2566,27 +2581,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2594,47 +2609,47 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2642,95 +2657,101 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="F39" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="F40" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="F41" s="27"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="F42" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2738,47 +2759,47 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="22" t="s">
+      <c r="B49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2786,57 +2807,57 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="22" t="s">
+      <c r="B55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2844,47 +2865,47 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="22" t="s">
+      <c r="B60" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2892,47 +2913,47 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="16"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="16"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22" t="s">
+      <c r="B65" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2940,47 +2961,47 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="16"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="16"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="22" t="s">
+      <c r="B70" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2988,47 +3009,47 @@
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="16"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="22" t="s">
+      <c r="B75" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -3036,57 +3057,57 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="16"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="16"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="22" t="s">
+      <c r="B81" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -3094,47 +3115,47 @@
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="20"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="16"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="20"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="16"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="22" t="s">
+      <c r="B86" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -3142,47 +3163,47 @@
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="16"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="20"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="16"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="22" t="s">
+      <c r="B91" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -3190,47 +3211,47 @@
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="16"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="16"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="22" t="s">
+      <c r="B96" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -3238,47 +3259,47 @@
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="16"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="20"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="16"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="17"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="19" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="22" t="s">
+      <c r="B101" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -3286,57 +3307,57 @@
       </c>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="16"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="16"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
       <c r="E104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-    </row>
-    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B107" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="22" t="s">
+      <c r="B107" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D107" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -3344,47 +3365,47 @@
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="20"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="16"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
       <c r="E108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="20"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="16"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
       <c r="E109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
       <c r="E110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="3"/>
     </row>
-    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="19" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="22" t="s">
+      <c r="B112" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3392,47 +3413,47 @@
       </c>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="20"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="16"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="20"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="16"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="21"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="17"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
       <c r="E115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="19" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B117" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="22" t="s">
+      <c r="B117" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D117" s="22" t="s">
+      <c r="D117" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3440,47 +3461,47 @@
       </c>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="20"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="16"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="20"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="16"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
       <c r="E119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="21"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="17"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
       <c r="E120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="3"/>
     </row>
-    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="19" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B122" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="22" t="s">
+      <c r="B122" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3488,47 +3509,47 @@
       </c>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="20"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="16"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
       <c r="E123" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="20"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="16"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
       <c r="E124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="17"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
       <c r="E125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="3"/>
     </row>
-    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="19" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B127" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="22" t="s">
+      <c r="B127" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3536,57 +3557,57 @@
       </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="20"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="16"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
       <c r="E128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="20"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="16"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
       <c r="E129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="21"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="17"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-    </row>
-    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="19" t="s">
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B133" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="22" t="s">
+      <c r="B133" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D133" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3594,47 +3615,47 @@
       </c>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="20"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="16"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="20"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="16"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
       <c r="E135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="21"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="17"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
       <c r="E136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="3"/>
     </row>
-    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="19" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="22" t="s">
+      <c r="B138" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="22" t="s">
+      <c r="D138" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -3642,47 +3663,47 @@
       </c>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="20"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="16"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
       <c r="E139" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="20"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="16"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
       <c r="E140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="21"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="17"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
       <c r="E141" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="3"/>
     </row>
-    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="19" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B143" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="22" t="s">
+      <c r="B143" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="D143" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3690,47 +3711,47 @@
       </c>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="20"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="22"/>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="16"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
       <c r="E144" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="20"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="16"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
       <c r="E145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="21"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="17"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
       <c r="E146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="3"/>
     </row>
-    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="19" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B148" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="22" t="s">
+      <c r="B148" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="D148" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3738,47 +3759,47 @@
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="20"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="22"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="16"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
       <c r="E149" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="20"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="16"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
       <c r="E150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="21"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="17"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
       <c r="E151" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="3"/>
     </row>
-    <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="19" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B153" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="22" t="s">
+      <c r="B153" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="22" t="s">
+      <c r="D153" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3786,57 +3807,57 @@
       </c>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="20"/>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="22"/>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="16"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
       <c r="E154" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="20"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="22"/>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="16"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
       <c r="E155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="21"/>
-      <c r="B156" s="22"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="17"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
       <c r="E156" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="17" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
-    </row>
-    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="19" t="s">
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B159" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="22" t="s">
+      <c r="B159" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D159" s="22" t="s">
+      <c r="D159" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -3844,47 +3865,47 @@
       </c>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="20"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="22"/>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="16"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
       <c r="E160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="20"/>
-      <c r="B161" s="22"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="16"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
       <c r="E161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="21"/>
-      <c r="B162" s="22"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="17"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
       <c r="E162" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="3"/>
     </row>
-    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="19" t="s">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B164" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="22" t="s">
+      <c r="B164" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D164" s="22" t="s">
+      <c r="D164" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -3892,47 +3913,47 @@
       </c>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="20"/>
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="16"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
       <c r="E165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="20"/>
-      <c r="B166" s="22"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="16"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="18"/>
       <c r="E166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="21"/>
-      <c r="B167" s="22"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="22"/>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="17"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
       <c r="E167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="3"/>
     </row>
-    <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="19" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="22" t="s">
+      <c r="B169" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="D169" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -3940,47 +3961,47 @@
       </c>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="20"/>
-      <c r="B170" s="22"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="22"/>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="16"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
       <c r="E170" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="20"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="22"/>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="16"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
       <c r="E171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="21"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="17"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
       <c r="E172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="3"/>
     </row>
-    <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="19" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B174" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="22" t="s">
+      <c r="B174" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D174" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -3988,47 +4009,47 @@
       </c>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="20"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="22"/>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="16"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
       <c r="E175" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="20"/>
-      <c r="B176" s="22"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="22"/>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="16"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
       <c r="E176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="21"/>
-      <c r="B177" s="22"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="22"/>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="17"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
       <c r="E177" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="3"/>
     </row>
-    <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="19" t="s">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B179" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="22" t="s">
+      <c r="B179" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="D179" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -4036,57 +4057,57 @@
       </c>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="20"/>
-      <c r="B180" s="22"/>
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="16"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
       <c r="E180" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="20"/>
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="16"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
       <c r="E181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
-      <c r="C182" s="22"/>
-      <c r="D182" s="22"/>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="17"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="18"/>
       <c r="E182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="3"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="17" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B184" s="18"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-    </row>
-    <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="19" t="s">
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B185" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="22" t="s">
+      <c r="B185" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="22" t="s">
+      <c r="D185" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -4094,47 +4115,47 @@
       </c>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="20"/>
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="16"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
       <c r="E186" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="20"/>
-      <c r="B187" s="22"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="16"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
       <c r="E187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="21"/>
-      <c r="B188" s="22"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22"/>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="17"/>
+      <c r="B188" s="18"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="18"/>
       <c r="E188" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F188" s="3"/>
     </row>
-    <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="19" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B190" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="22" t="s">
+      <c r="B190" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="D190" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -4142,47 +4163,47 @@
       </c>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="20"/>
-      <c r="B191" s="22"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22"/>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="16"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
       <c r="E191" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="20"/>
-      <c r="B192" s="22"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="22"/>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="16"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
       <c r="E192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="21"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="17"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
       <c r="E193" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F193" s="3"/>
     </row>
-    <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="19" t="s">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B195" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="22" t="s">
+      <c r="B195" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D195" s="22" t="s">
+      <c r="D195" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -4190,47 +4211,47 @@
       </c>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="20"/>
-      <c r="B196" s="22"/>
-      <c r="C196" s="22"/>
-      <c r="D196" s="22"/>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="16"/>
+      <c r="B196" s="18"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="18"/>
       <c r="E196" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="20"/>
-      <c r="B197" s="22"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="16"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
       <c r="E197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198" s="21"/>
-      <c r="B198" s="22"/>
-      <c r="C198" s="22"/>
-      <c r="D198" s="22"/>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="17"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="18"/>
       <c r="E198" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F198" s="3"/>
     </row>
-    <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200" s="19" t="s">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B200" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="22" t="s">
+      <c r="B200" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D200" s="22" t="s">
+      <c r="D200" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -4238,47 +4259,47 @@
       </c>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="20"/>
-      <c r="B201" s="22"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="22"/>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="16"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="18"/>
       <c r="E201" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="20"/>
-      <c r="B202" s="22"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="22"/>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="16"/>
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="18"/>
       <c r="E202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="21"/>
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="17"/>
+      <c r="B203" s="18"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="18"/>
       <c r="E203" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="3"/>
     </row>
-    <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="19" t="s">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B205" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="22" t="s">
+      <c r="B205" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D205" s="22" t="s">
+      <c r="D205" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -4286,57 +4307,57 @@
       </c>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="20"/>
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="22"/>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="16"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
       <c r="E206" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="20"/>
-      <c r="B207" s="22"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="22"/>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="16"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
       <c r="E207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="21"/>
-      <c r="B208" s="22"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="22"/>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="17"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18"/>
       <c r="E208" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F208" s="3"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="17" t="s">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18"/>
-    </row>
-    <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="19" t="s">
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="20"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B211" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="22" t="s">
+      <c r="B211" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D211" s="22" t="s">
+      <c r="D211" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -4344,47 +4365,47 @@
       </c>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="20"/>
-      <c r="B212" s="22"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="22"/>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="16"/>
+      <c r="B212" s="18"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="18"/>
       <c r="E212" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="20"/>
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="22"/>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="16"/>
+      <c r="B213" s="18"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="18"/>
       <c r="E213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="21"/>
-      <c r="B214" s="22"/>
-      <c r="C214" s="22"/>
-      <c r="D214" s="22"/>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="17"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="18"/>
       <c r="E214" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="3"/>
     </row>
-    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="19" t="s">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B216" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="22" t="s">
+      <c r="B216" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D216" s="22" t="s">
+      <c r="D216" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -4392,47 +4413,47 @@
       </c>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="20"/>
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="16"/>
+      <c r="B217" s="18"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="18"/>
       <c r="E217" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A218" s="20"/>
-      <c r="B218" s="22"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="16"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="18"/>
       <c r="E218" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="21"/>
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="17"/>
+      <c r="B219" s="18"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="18"/>
       <c r="E219" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F219" s="3"/>
     </row>
-    <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="19" t="s">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B221" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="22" t="s">
+      <c r="B221" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D221" s="22" t="s">
+      <c r="D221" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -4440,47 +4461,47 @@
       </c>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="20"/>
-      <c r="B222" s="22"/>
-      <c r="C222" s="22"/>
-      <c r="D222" s="22"/>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="16"/>
+      <c r="B222" s="18"/>
+      <c r="C222" s="18"/>
+      <c r="D222" s="18"/>
       <c r="E222" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="20"/>
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="22"/>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="16"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="18"/>
       <c r="E223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="21"/>
-      <c r="B224" s="22"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="22"/>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="17"/>
+      <c r="B224" s="18"/>
+      <c r="C224" s="18"/>
+      <c r="D224" s="18"/>
       <c r="E224" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F224" s="3"/>
     </row>
-    <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="19" t="s">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B226" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="22" t="s">
+      <c r="B226" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D226" s="22" t="s">
+      <c r="D226" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -4488,47 +4509,47 @@
       </c>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="20"/>
-      <c r="B227" s="22"/>
-      <c r="C227" s="22"/>
-      <c r="D227" s="22"/>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="16"/>
+      <c r="B227" s="18"/>
+      <c r="C227" s="18"/>
+      <c r="D227" s="18"/>
       <c r="E227" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="20"/>
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
-      <c r="D228" s="22"/>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="16"/>
+      <c r="B228" s="18"/>
+      <c r="C228" s="18"/>
+      <c r="D228" s="18"/>
       <c r="E228" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229" s="21"/>
-      <c r="B229" s="22"/>
-      <c r="C229" s="22"/>
-      <c r="D229" s="22"/>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="17"/>
+      <c r="B229" s="18"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="18"/>
       <c r="E229" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F229" s="3"/>
     </row>
-    <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="19" t="s">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B231" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="22" t="s">
+      <c r="B231" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D231" s="22" t="s">
+      <c r="D231" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -4536,57 +4557,57 @@
       </c>
       <c r="F231" s="2"/>
     </row>
-    <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="20"/>
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
-      <c r="D232" s="22"/>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="16"/>
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="18"/>
       <c r="E232" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="20"/>
-      <c r="B233" s="22"/>
-      <c r="C233" s="22"/>
-      <c r="D233" s="22"/>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="16"/>
+      <c r="B233" s="18"/>
+      <c r="C233" s="18"/>
+      <c r="D233" s="18"/>
       <c r="E233" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F233" s="2"/>
     </row>
-    <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="21"/>
-      <c r="B234" s="22"/>
-      <c r="C234" s="22"/>
-      <c r="D234" s="22"/>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="17"/>
+      <c r="B234" s="18"/>
+      <c r="C234" s="18"/>
+      <c r="D234" s="18"/>
       <c r="E234" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F234" s="3"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="17" t="s">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B236" s="18"/>
-      <c r="C236" s="18"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
-      <c r="F236" s="18"/>
-    </row>
-    <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="19" t="s">
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="20"/>
+      <c r="F236" s="20"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B237" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="22" t="s">
+      <c r="B237" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D237" s="22" t="s">
+      <c r="D237" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -4594,47 +4615,47 @@
       </c>
       <c r="F237" s="2"/>
     </row>
-    <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="20"/>
-      <c r="B238" s="22"/>
-      <c r="C238" s="22"/>
-      <c r="D238" s="22"/>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="16"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="18"/>
       <c r="E238" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="20"/>
-      <c r="B239" s="22"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="22"/>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="16"/>
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="18"/>
       <c r="E239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F239" s="2"/>
     </row>
-    <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="21"/>
-      <c r="B240" s="22"/>
-      <c r="C240" s="22"/>
-      <c r="D240" s="22"/>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="17"/>
+      <c r="B240" s="18"/>
+      <c r="C240" s="18"/>
+      <c r="D240" s="18"/>
       <c r="E240" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F240" s="3"/>
     </row>
-    <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="19" t="s">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B242" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="22" t="s">
+      <c r="B242" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D242" s="22" t="s">
+      <c r="D242" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -4642,47 +4663,47 @@
       </c>
       <c r="F242" s="2"/>
     </row>
-    <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="20"/>
-      <c r="B243" s="22"/>
-      <c r="C243" s="22"/>
-      <c r="D243" s="22"/>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="16"/>
+      <c r="B243" s="18"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="18"/>
       <c r="E243" s="3" t="s">
         <v>10</v>
       </c>
       <c r